--- a/DB/DB_JIQ.xlsx
+++ b/DB/DB_JIQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7560"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -1248,15 +1248,6 @@
     <t>Ans) Garbage collection can be invoked using
 System.gc() or Runtime.getRuntime().gc()
 .</t>
-  </si>
-  <si>
-    <t>Q1) What is a Thread?</t>
-  </si>
-  <si>
-    <t>Q2) What is difference between thread and process?</t>
-  </si>
-  <si>
-    <t>Q3) What are the advantages or usage of threads?</t>
   </si>
   <si>
     <t>Ans)
@@ -2718,6 +2709,18 @@
 in your JSP files then you can save some performance overhead with the following JSP
 page directive:
 &lt;%@ page session="false"%&gt;</t>
+  </si>
+  <si>
+    <t>IsFavourite</t>
+  </si>
+  <si>
+    <t>What is a Thread?</t>
+  </si>
+  <si>
+    <t>What is difference between thread and process?</t>
+  </si>
+  <si>
+    <t>What are the advantages or usage of threads?</t>
   </si>
 </sst>
 </file>
@@ -3068,7 +3071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3398,19 +3401,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192:D199"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3421,10 +3423,13 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3434,12 +3439,15 @@
       <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="str">
-        <f>"insert into Questions values("&amp;A2&amp;","&amp;B2&amp;",'Q) "&amp;C2&amp;"');"</f>
-        <v>insert into Questions values(1,2,'Q) Can an abstract class have a static method?');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"insert into Questions values("&amp;A2&amp;","&amp;B2&amp;",'Q) "&amp;C2&amp;"',"&amp;D2&amp;");"</f>
+        <v>insert into Questions values(1,2,'Q) Can an abstract class have a static method?',0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3449,12 +3457,15 @@
       <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">"insert into Questions values("&amp;A3&amp;","&amp;B3&amp;",'Q) "&amp;C3&amp;"');"</f>
-        <v>insert into Questions values(2,2,'Q) Can an abstract class have a constructor?');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"insert into Questions values("&amp;A3&amp;","&amp;B3&amp;",'Q) "&amp;C3&amp;"',"&amp;D3&amp;");"</f>
+        <v>insert into Questions values(2,2,'Q) Can an abstract class have a constructor?',0);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3464,12 +3475,15 @@
       <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(3,2,'Q) Why static methods cannot access non static variables or methods?');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" si="0">"insert into Questions values("&amp;A4&amp;","&amp;B4&amp;",'Q) "&amp;C4&amp;"',"&amp;D4&amp;");"</f>
+        <v>insert into Questions values(3,2,'Q) Why static methods cannot access non static variables or methods?',0);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3479,12 +3493,15 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(4,2,'Q) What is difference between stringbuffer and stringbuilder?');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(4,2,'Q) What is difference between stringbuffer and stringbuilder?',0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3494,13 +3511,16 @@
       <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>insert into Questions values(5,2,'Q) Consider a scenario in which the admin want to sure that if some one has written System.exit() at 
-some part of application then before system shutdown all the resources should be released. How is it possible?');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+some part of application then before system shutdown all the resources should be released. How is it possible?',0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3510,12 +3530,15 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(6,2,'Q) What is the difference between final, finally and finalize() in Java?');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(6,2,'Q) What is the difference between final, finally and finalize() in Java?',0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3525,12 +3548,15 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(7,2,'Q) How does Java allocate stack and heap memory?');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(7,2,'Q) How does Java allocate stack and heap memory?',0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3540,12 +3566,15 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(8,2,'Q) Explain re-entrant, recursive and idempotent methods/functions?');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(8,2,'Q) Explain re-entrant, recursive and idempotent methods/functions?',0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3555,12 +3584,15 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(9,2,'Q) Can a private variable or method of a class can be accessed?');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(9,2,'Q) Can a private variable or method of a class can be accessed?',0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3570,12 +3602,15 @@
       <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(10,2,'Q) What is difference between static block and the init block?');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(10,2,'Q) What is difference between static block and the init block?',0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3585,12 +3620,15 @@
       <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(11,2,'Q) Why inner class can access only final variable?');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(11,2,'Q) Why inner class can access only final variable?',0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3600,12 +3638,15 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(12,2,'Q) What is fully abstract class?');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(12,2,'Q) What is fully abstract class?',0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3615,12 +3656,15 @@
       <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(13,2,'Q) What is dynamic binding and static binding?');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(13,2,'Q) What is dynamic binding and static binding?',0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3630,12 +3674,15 @@
       <c r="C15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(14,2,'Q) What is Java Reflection?');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(14,2,'Q) What is Java Reflection?',0);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3645,12 +3692,15 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(15,1,'Q) What is   polymorphism?');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(15,1,'Q) What is   polymorphism?',0);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3660,12 +3710,15 @@
       <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(16,1,'Q) What is  inheritance?');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(16,1,'Q) What is  inheritance?',0);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3675,12 +3728,15 @@
       <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(17,1,'Q) What is multiple  inheritance and does java support?');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(17,1,'Q) What is multiple  inheritance and does java support?',0);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3690,12 +3746,15 @@
       <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(18,1,'Q) What is  abstraction?');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(18,1,'Q) What is  abstraction?',0);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3705,12 +3764,15 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(19,1,'Q) What is  encapsulation?');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(19,1,'Q) What is  encapsulation?',0);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3720,12 +3782,15 @@
       <c r="C21" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(20,1,'Q) What is  Association?');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(20,1,'Q) What is  Association?',0);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3735,12 +3800,15 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(21,1,'Q) What is  Aggregation?');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(21,1,'Q) What is  Aggregation?',0);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3750,12 +3818,15 @@
       <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="str">
-        <f>"insert into Questions values("&amp;A23&amp;","&amp;B23&amp;",'Q) "&amp;C23&amp;"');"</f>
-        <v>insert into Questions values(22,2,'Q) Why  is main() method static?');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(22,2,'Q) Why  is main() method static?',0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3765,12 +3836,15 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(23,2,'Q) What is the difference  between static methods and instance methods?');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(23,2,'Q) What is the difference  between static methods and instance methods?',0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3780,12 +3854,15 @@
       <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(24,2,'Q) Can static block throw exception?');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(24,2,'Q) Can static block throw exception?',0);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3795,12 +3872,15 @@
       <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(25,2,'Q) What is difference between abstract class and interface?');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(25,2,'Q) What is difference between abstract class and interface?',0);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3810,12 +3890,15 @@
       <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(26,2,'Q) Explain with example to describe when to use abstract class and interface?');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(26,2,'Q) Explain with example to describe when to use abstract class and interface?',0);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3825,12 +3908,15 @@
       <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(27,2,'Q) What are different  types of access modifiers in Java?');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(27,2,'Q) What are different  types of access modifiers in Java?',0);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3840,12 +3926,15 @@
       <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(28,2,'Q) What is the use of final keyword?');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(28,2,'Q) What is the use of final keyword?',0);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3855,12 +3944,15 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(29,2,'Q) What is use of synchronized keyword?');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(29,2,'Q) What is use of synchronized keyword?',0);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3870,12 +3962,15 @@
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(30,2,'Q) What is volatile keyword?');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(30,2,'Q) What is volatile keyword?',0);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3885,12 +3980,15 @@
       <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(31,2,'Q) What is a transient variable?');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(31,2,'Q) What is a transient variable?',0);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3900,12 +3998,15 @@
       <c r="C33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(32,2,'Q) What is a strictfp modifier?');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(32,2,'Q) What is a strictfp modifier?',0);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3915,12 +4016,15 @@
       <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(33,2,'Q) What is a static variable?');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(33,2,'Q) What is a static variable?',0);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3930,12 +4034,15 @@
       <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(34,2,'Q) What is a static method?');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(34,2,'Q) What is a static method?',0);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3945,12 +4052,15 @@
       <c r="C36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(35,2,'Q) Why static methods cannot access non static variables or methods?');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(35,2,'Q) Why static methods cannot access non static variables or methods?',0);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3960,12 +4070,15 @@
       <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(36,2,'Q) What is static class ?');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(36,2,'Q) What is static class ?',0);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3975,12 +4088,15 @@
       <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(37,2,'Q) What is throw keyword?');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(37,2,'Q) What is throw keyword?',0);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3990,12 +4106,15 @@
       <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(38,3,'Q) What is difference between ArrayList and vector?');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(38,3,'Q) What is difference between ArrayList and vector?',0);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4005,12 +4124,15 @@
       <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(39,3,'Q) How can Arraylist be synchronized without using Vector?');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(39,3,'Q) How can Arraylist be synchronized without using Vector?',0);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4020,12 +4142,15 @@
       <c r="C41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(40,3,'Q) If an Employee class is present and its objects are added in an arrayList. Now I want the list to be sorted on the basis of the employeeID of Employee class. What are the steps?');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(40,3,'Q) If an Employee class is present and its objects are added in an arrayList. Now I want the list to be sorted on the basis of the employeeID of Employee class. What are the steps?',0);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4035,12 +4160,15 @@
       <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(41,3,'Q) What is difference between HashMap and HashTable?');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(41,3,'Q) What is difference between HashMap and HashTable?',0);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4050,12 +4178,15 @@
       <c r="C43" t="s">
         <v>105</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(42,3,'Q) What are the classes implementing List interface?');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(42,3,'Q) What are the classes implementing List interface?',0);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4065,12 +4196,15 @@
       <c r="C44" t="s">
         <v>106</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(43,3,'Q) Which all classes implement Set interface?');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(43,3,'Q) Which all classes implement Set interface?',0);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4080,12 +4214,15 @@
       <c r="C45" t="s">
         <v>199</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(44,3,'Q) What is difference between List and a Set?');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(44,3,'Q) What is difference between List and a Set?',0);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4095,12 +4232,15 @@
       <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(45,3,'Q) What is difference between Arrays and ArrayList ?');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(45,3,'Q) What is difference between Arrays and ArrayList ?',0);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4110,12 +4250,15 @@
       <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(46,3,'Q) When  to use ArrayList or LinkedList ?');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(46,3,'Q) When  to use ArrayList or LinkedList ?',0);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4125,12 +4268,15 @@
       <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(47,3,'Q) Consider a scenario. If an ArrayList has to be iterate to read data only, what are the possible ways and which is the fastest?');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(47,3,'Q) Consider a scenario. If an ArrayList has to be iterate to read data only, what are the possible ways and which is the fastest?',0);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4140,12 +4286,15 @@
       <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(48,3,'Q) Now another question with respect to above question is if accessing through iterator is slow then why do we need it and when to use it.');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(48,3,'Q) Now another question with respect to above question is if accessing through iterator is slow then why do we need it and when to use it.',0);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4155,12 +4304,15 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(49,3,'Q) Is it better to have a HashMap with large number of records or n number of small hashMaps?');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(49,3,'Q) Is it better to have a HashMap with large number of records or n number of small hashMaps?',0);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4170,12 +4322,15 @@
       <c r="C51" t="s">
         <v>122</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(50,3,'Q) Why  is it preferred to declare:  List&lt;String&gt;  list = new ArrayList&lt;String&gt;(); instead  of ArrayList&lt;String&gt;  = new ArrayList&lt;String&gt;();');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(50,3,'Q) Why  is it preferred to declare:  List&lt;String&gt;  list = new ArrayList&lt;String&gt;(); instead  of ArrayList&lt;String&gt;  = new ArrayList&lt;String&gt;();',0);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4185,12 +4340,15 @@
       <c r="C52" t="s">
         <v>123</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(51,3,'Q) What is difference between iterator access and index access?');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(51,3,'Q) What is difference between iterator access and index access?',0);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4200,12 +4358,15 @@
       <c r="C53" t="s">
         <v>124</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(52,3,'Q) How  to sort list in reverse order?');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(52,3,'Q) How  to sort list in reverse order?',0);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4215,12 +4376,15 @@
       <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(53,3,'Q) Can a null element added to a Treeset or HashSet?');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(53,3,'Q) Can a null element added to a Treeset or HashSet?',0);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4230,12 +4394,15 @@
       <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(54,3,'Q) How to sort list of strings - case insensitive?');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(54,3,'Q) How to sort list of strings - case insensitive?',0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4245,12 +4412,15 @@
       <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(55,3,'Q) How to make a List (ArrayList,Vector,LinkedList) read only?');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(55,3,'Q) How to make a List (ArrayList,Vector,LinkedList) read only?',0);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4260,12 +4430,15 @@
       <c r="C57" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(56,3,'Q) What is ConcurrentHashMap?');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(56,3,'Q) What is ConcurrentHashMap?',0);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4275,12 +4448,15 @@
       <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(57,3,'Q) Which is faster to iterate LinkedHashSet or LinkedList?');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(57,3,'Q) Which is faster to iterate LinkedHashSet or LinkedList?',0);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4290,12 +4466,15 @@
       <c r="C59" t="s">
         <v>130</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(58,3,'Q) Which data structure HashSet implements');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(58,3,'Q) Which data structure HashSet implements',0);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4305,12 +4484,15 @@
       <c r="C60" t="s">
         <v>131</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(59,3,'Q) Arrange in the order of speed - HashMap,HashTable, Collections.synchronizedMap,concurrentHashmap');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(59,3,'Q) Arrange in the order of speed - HashMap,HashTable, Collections.synchronizedMap,concurrentHashmap',0);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4320,12 +4502,15 @@
       <c r="C61" t="s">
         <v>132</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(60,3,'Q) What is identityHashMap?');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(60,3,'Q) What is identityHashMap?',0);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4335,12 +4520,15 @@
       <c r="C62" t="s">
         <v>145</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(61,5,'Q) What is an Exception?');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(61,5,'Q) What is an Exception?',0);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4350,12 +4538,15 @@
       <c r="C63" t="s">
         <v>146</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(62,5,'Q) Exceptions are defined in which java package?');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(62,5,'Q) Exceptions are defined in which java package?',0);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4365,12 +4556,15 @@
       <c r="C64" t="s">
         <v>147</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(63,5,'Q) How are the exceptions handled in java?');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(63,5,'Q) How are the exceptions handled in java?',0);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4380,12 +4574,15 @@
       <c r="C65" t="s">
         <v>148</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(64,5,'Q) Explain the exception hierarchy in java.');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(64,5,'Q) Explain the exception hierarchy in java.',0);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4395,12 +4592,15 @@
       <c r="C66" t="s">
         <v>149</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into Questions values(65,5,'Q) What is Runtime Exception or unchecked exception?');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(65,5,'Q) What is Runtime Exception or unchecked exception?',0);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4410,12 +4610,15 @@
       <c r="C67" t="s">
         <v>150</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">"insert into Questions values("&amp;A67&amp;","&amp;B67&amp;",'Q) "&amp;C67&amp;"');"</f>
-        <v>insert into Questions values(66,5,'Q) What is checked exception?');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into Questions values(66,5,'Q) What is checked exception?',0);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4425,12 +4628,15 @@
       <c r="C68" t="s">
         <v>151</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(67,5,'Q) What is difference between Error and Exception?');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E131" si="1">"insert into Questions values("&amp;A68&amp;","&amp;B68&amp;",'Q) "&amp;C68&amp;"',"&amp;D68&amp;");"</f>
+        <v>insert into Questions values(67,5,'Q) What is difference between Error and Exception?',0);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4440,12 +4646,15 @@
       <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(68,5,'Q) What is difference between ClassNotFoundException and NoClassDefFoundError?');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(68,5,'Q) What is difference between ClassNotFoundException and NoClassDefFoundError?',0);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4455,12 +4664,15 @@
       <c r="C70" t="s">
         <v>65</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(69,5,'Q) What is throw keyword?');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(69,5,'Q) What is throw keyword?',0);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4470,12 +4682,15 @@
       <c r="C71" t="s">
         <v>153</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(70,5,'Q) What is use of throws keyword?');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(70,5,'Q) What is use of throws keyword?',0);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4485,12 +4700,15 @@
       <c r="C72" t="s">
         <v>154</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(71,5,'Q) What are the possible combination to write try, catch  finally block?');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(71,5,'Q) What are the possible combination to write try, catch  finally block?',0);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4500,12 +4718,15 @@
       <c r="C73" t="s">
         <v>155</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(72,5,'Q) How to create custom Exception?');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(72,5,'Q) How to create custom Exception?',0);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4515,12 +4736,15 @@
       <c r="C74" t="s">
         <v>156</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(73,5,'Q) When to make a custom checked Exception or custom unchecked Exception?');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(73,5,'Q) When to make a custom checked Exception or custom unchecked Exception?',0);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4530,12 +4754,15 @@
       <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(74,5,'Q) What is StackOverflowError?');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(74,5,'Q) What is StackOverflowError?',0);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4545,12 +4772,15 @@
       <c r="C76" t="s">
         <v>172</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(75,5,'Q) Once the control switches to the catch block does it return back to the try block to execute the balance code?');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(75,5,'Q) Once the control switches to the catch block does it return back to the try block to execute the balance code?',0);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4560,12 +4790,15 @@
       <c r="C77" t="s">
         <v>173</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(76,5,'Q) Where is the clean up code like release of resources is put in try-catch-finally block and why?');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(76,5,'Q) Where is the clean up code like release of resources is put in try-catch-finally block and why?',0);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4575,12 +4808,15 @@
       <c r="C78" t="s">
         <v>174</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(77,5,'Q) Is it valid to have a try block without catch or finally?');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(77,5,'Q) Is it valid to have a try block without catch or finally?',0);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4590,12 +4826,15 @@
       <c r="C79" t="s">
         <v>175</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(78,5,'Q) Is it valid to place some code in between try the catch/finally block that follows it?');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(78,5,'Q) Is it valid to place some code in between try the catch/finally block that follows it?',0);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4605,12 +4844,15 @@
       <c r="C80" t="s">
         <v>176</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(79,5,'Q) What happens if the exception is never caught and throws down the method stack?');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(79,5,'Q) What happens if the exception is never caught and throws down the method stack?',0);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4620,12 +4862,15 @@
       <c r="C81" t="s">
         <v>177</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(80,5,'Q) How do you get the descriptive information about the Exception occurred during the program execution?');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(80,5,'Q) How do you get the descriptive information about the Exception occurred during the program execution?',0);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4635,12 +4880,15 @@
       <c r="C82" t="s">
         <v>178</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(81,5,'Q) Can you catch more than one exceptions in a single catch block?');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(81,5,'Q) Can you catch more than one exceptions in a single catch block?',0);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4650,12 +4898,15 @@
       <c r="C83" t="s">
         <v>179</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(82,5,'Q) Why is not considered as a good practice to write a single catchall handler to catch all the exceptions?');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(82,5,'Q) Why is not considered as a good practice to write a single catchall handler to catch all the exceptions?',0);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4665,12 +4916,15 @@
       <c r="C84" t="s">
         <v>180</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(83,5,'Q) What is exception matching?');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(83,5,'Q) What is exception matching?',0);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4680,12 +4934,15 @@
       <c r="C85" t="s">
         <v>181</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(84,5,'Q) What happens if the handlers for the most specific exceptions is placed above the more general exceptions handler?');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(84,5,'Q) What happens if the handlers for the most specific exceptions is placed above the more general exceptions handler?',0);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4695,12 +4952,15 @@
       <c r="C86" t="s">
         <v>182</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(85,5,'Q) Does the order of the catch blocks matter if the Exceptions caught by them are not subtype or supertype of each other?');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(85,5,'Q) Does the order of the catch blocks matter if the Exceptions caught by them are not subtype or supertype of each other?',0);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4710,12 +4970,15 @@
       <c r="C87" t="s">
         <v>183</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(86,5,'Q) What happens if a method does not throw an checked Exception directly but calls a method that does? What does ''Ducking'' the exception mean?');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(86,5,'Q) What happens if a method does not throw an checked Exception directly but calls a method that does? What does ''Ducking'' the exception mean?',0);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4725,12 +4988,15 @@
       <c r="C88" t="s">
         <v>184</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(87,5,'Q) Is an empty catch block legal?');</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(87,5,'Q) Is an empty catch block legal?',0);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4740,12 +5006,15 @@
       <c r="C89" t="s">
         <v>200</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(88,4,'Q) Which part of the memory is involved in Garbage Collection? Stack or Heap?');</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(88,4,'Q) Which part of the memory is involved in Garbage Collection? Stack or Heap?',0);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4755,12 +5024,15 @@
       <c r="C90" t="s">
         <v>201</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(89,4,'Q) What is responsiblity of Garbage Collector?');</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(89,4,'Q) What is responsiblity of Garbage Collector?',0);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4770,12 +5042,15 @@
       <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(90,4,'Q) Is garbage collector a dameon thread?');</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(90,4,'Q) Is garbage collector a dameon thread?',0);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4785,12 +5060,15 @@
       <c r="C92" t="s">
         <v>203</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(91,4,'Q) Garbage Collector is controlled by whom?');</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(91,4,'Q) Garbage Collector is controlled by whom?',0);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4800,12 +5078,15 @@
       <c r="C93" t="s">
         <v>204</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(92,4,'Q) When does an object become eligible for garbage collection?');</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(92,4,'Q) When does an object become eligible for garbage collection?',0);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4815,12 +5096,15 @@
       <c r="C94" t="s">
         <v>205</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(93,4,'Q) What are the different ways to make an object eligible for Garbage Collection when it is no longer needed?');</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(93,4,'Q) What are the different ways to make an object eligible for Garbage Collection when it is no longer needed?',0);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4830,12 +5114,15 @@
       <c r="C95" t="s">
         <v>206</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(94,4,'Q) Can the Garbage Collection be forced by any means?');</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(94,4,'Q) Can the Garbage Collection be forced by any means?',0);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4845,12 +5132,15 @@
       <c r="C96" t="s">
         <v>207</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(95,4,'Q) How can the Garbage Collection be requested?');</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(95,4,'Q) How can the Garbage Collection be requested?',0);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4860,12 +5150,15 @@
       <c r="C97" t="s">
         <v>208</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(96,4,'Q) What is the purpose of overriding finalize() method?');</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(96,4,'Q) What is the purpose of overriding finalize() method?',0);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4875,12 +5168,15 @@
       <c r="C98" t="s">
         <v>209</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(97,4,'Q) If an object becomes eligible for Garbage Collection and its finalize() method has been called and inside this method the object becomes accessible by a live thread of execution and is not garbage collected. Later at some point the same object becomes eligible for Garbage collection, will the finalize() method be called again?');</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(97,4,'Q) If an object becomes eligible for Garbage Collection and its finalize() method has been called and inside this method the object becomes accessible by a live thread of execution and is not garbage collected. Later at some point the same object becomes eligible for Garbage collection, will the finalize() method be called again?',0);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4890,12 +5186,15 @@
       <c r="C99" t="s">
         <v>210</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(98,4,'Q) How many times does the garbage collector calls the finalize() method for an object?');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(98,4,'Q) How many times does the garbage collector calls the finalize() method for an object?',0);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4905,12 +5204,15 @@
       <c r="C100" t="s">
         <v>211</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(99,4,'Q) What happens if an uncaught exception is thrown from during the execution of the finalize() method of an object?');</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(99,4,'Q) What happens if an uncaught exception is thrown from during the execution of the finalize() method of an object?',0);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4920,12 +5222,15 @@
       <c r="C101" t="s">
         <v>212</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(100,4,'Q) What are different ways to call garbage collector?');</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(100,4,'Q) What are different ways to call garbage collector?',0);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4933,14 +5238,17 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(101,6,'Q) Q1) What is a Thread?');</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(101,6,'Q) What is a Thread?',0);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4948,14 +5256,17 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(102,6,'Q) Q2) What is difference between thread and process?');</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(102,6,'Q) What is difference between thread and process?',0);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4963,14 +5274,17 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(103,6,'Q) Q3) What are the advantages or usage of threads?');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(103,6,'Q) What are the advantages or usage of threads?',0);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4978,14 +5292,17 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(104,6,'Q) What are the two ways of creating thread?');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(104,6,'Q) What are the two ways of creating thread?',0);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4993,14 +5310,17 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(105,6,'Q) What are the different states of a thread's lifecycle?');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(105,6,'Q) What are the different states of a thread's lifecycle?',0);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5008,14 +5328,17 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(106,6,'Q)  What is use of synchronized keyword?');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(106,6,'Q)  What is use of synchronized keyword?',0);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5023,14 +5346,17 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(107,6,'Q) What is the difference when the synchronized keyword is applied to a static method or to a non static method?');</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(107,6,'Q) What is the difference when the synchronized keyword is applied to a static method or to a non static method?',0);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5038,14 +5364,17 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(108,6,'Q) What is a volatile keyword?');</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(108,6,'Q) What is a volatile keyword?',0);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5053,14 +5382,17 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(109,6,'Q) What is the difference between yield() and sleep()?');</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(109,6,'Q) What is the difference between yield() and sleep()?',0);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5068,14 +5400,17 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(110,6,'Q) What is the difference between wait() and sleep()?');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(110,6,'Q) What is the difference between wait() and sleep()?',0);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5083,14 +5418,17 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(111,6,'Q) What is difference between notify() and notfiyAll()?');</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(111,6,'Q) What is difference between notify() and notfiyAll()?',0);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5098,14 +5436,17 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(112,6,'Q)  What happens if a start method is not invoked and the run method is directly invoked?');</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(112,6,'Q)  What happens if a start method is not invoked and the run method is directly invoked?',0);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5113,14 +5454,17 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(113,6,'Q) What happens when start() is called?');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(113,6,'Q) What happens when start() is called?',0);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5128,14 +5472,17 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(114,6,'Q)  If code running is a thread creates a new thread what will be the initial priority of the newly created thread?');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(114,6,'Q)  If code running is a thread creates a new thread what will be the initial priority of the newly created thread?',0);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5143,14 +5490,17 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(115,6,'Q)  When jvm starts up, which thread will be started up first?');</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(115,6,'Q)  When jvm starts up, which thread will be started up first?',0);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5158,14 +5508,17 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(116,6,'Q) What are the daemon threads?');</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(116,6,'Q) What are the daemon threads?',0);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5173,14 +5526,17 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(117,6,'Q) What all constructors are present in the Thread class?');</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(117,6,'Q) What all constructors are present in the Thread class?',0);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5188,14 +5544,17 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
-      </c>
-      <c r="D119" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(118,6,'Q) Can the variables or classes be Synchronized?');</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(118,6,'Q) Can the variables or classes be Synchronized?',0);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5203,14 +5562,17 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(119,6,'Q) How many locks does an object have?');</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(119,6,'Q) How many locks does an object have?',0);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5218,14 +5580,17 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(120,6,'Q) Can a class have both Synchronized and non-synchronized methods?');</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(120,6,'Q) Can a class have both Synchronized and non-synchronized methods?',0);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5233,14 +5598,17 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(121,6,'Q) If a class has a synchronised method and non-synchronised method, can multiple threads execute the non-synchronised methods?');</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(121,6,'Q) If a class has a synchronised method and non-synchronised method, can multiple threads execute the non-synchronised methods?',0);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5248,14 +5616,17 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(122,6,'Q) If a thread goes to sleep does it hold the lock?');</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(122,6,'Q) If a thread goes to sleep does it hold the lock?',0);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5263,14 +5634,17 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(123,6,'Q) Can a thread hold multiple locks at the same time?');</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(123,6,'Q) Can a thread hold multiple locks at the same time?',0);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5278,14 +5652,17 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
-      </c>
-      <c r="D125" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(124,6,'Q) Can a thread call multiple synchronized methods on the object of which it hold the lock?');</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(124,6,'Q) Can a thread call multiple synchronized methods on the object of which it hold the lock?',0);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5293,14 +5670,17 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(125,6,'Q) Can static methods be synchronized?');</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(125,6,'Q) Can static methods be synchronized?',0);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5308,14 +5688,17 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>271</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(126,6,'Q) Can two threads call two different static synchronized methods of the same class?');</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(126,6,'Q) Can two threads call two different static synchronized methods of the same class?',0);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5323,14 +5706,17 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(127,6,'Q) Does a static synchronized method block a non-static synchronized method?');</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(127,6,'Q) Does a static synchronized method block a non-static synchronized method?',0);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5338,14 +5724,17 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>273</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(128,6,'Q) Once a thread has been started can it be started again?');</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(128,6,'Q) Once a thread has been started can it be started again?',0);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5353,14 +5742,17 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>274</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into Questions values(129,6,'Q) When does deadlock occur and how to avoid it?');</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(129,6,'Q) When does deadlock occur and how to avoid it?',0);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5368,14 +5760,17 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>275</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">"insert into Questions values("&amp;A131&amp;","&amp;B131&amp;",'Q) "&amp;C131&amp;"');"</f>
-        <v>insert into Questions values(130,6,'Q) What is a better way of creating multithreaded application? Extending Thread class or implementing Runnable?');</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Questions values(130,6,'Q) What is a better way of creating multithreaded application? Extending Thread class or implementing Runnable?',0);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5383,14 +5778,17 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>276</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(131,6,'Q) Can the start() method of the Thread class be overridden? If yes should it be overridden?');</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" ref="E132:E195" si="2">"insert into Questions values("&amp;A132&amp;","&amp;B132&amp;",'Q) "&amp;C132&amp;"',"&amp;D132&amp;");"</f>
+        <v>insert into Questions values(131,6,'Q) Can the start() method of the Thread class be overridden? If yes should it be overridden?',0);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5398,14 +5796,17 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>277</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(132,6,'Q) What are the methods of the thread class used to schedule the threads?');</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(132,6,'Q) What are the methods of the thread class used to schedule the threads?',0);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5413,14 +5814,17 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>278</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(133,6,'Q) Which thread related methods are available in Object class?');</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(133,6,'Q) Which thread related methods are available in Object class?',0);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5428,14 +5832,17 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>279</v>
-      </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(134,6,'Q) Which thread related methods are available in Thread class?');</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(134,6,'Q) Which thread related methods are available in Thread class?',0);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5443,14 +5850,17 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>280</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(135,6,'Q) List the methods which when called the thread does not release the locks held?');</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(135,6,'Q) List the methods which when called the thread does not release the locks held?',0);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5458,14 +5868,17 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(136,6,'Q) List the methods which when called on the object the thread releases the locks held on that object?');</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(136,6,'Q) List the methods which when called on the object the thread releases the locks held on that object?',0);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5473,14 +5886,17 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(137,6,'Q) Does each thread has its own thread stack?');</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(137,6,'Q) Does each thread has its own thread stack?',0);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5488,14 +5904,17 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
-      </c>
-      <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(138,6,'Q) What is thread starvation?');</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(138,6,'Q) What is thread starvation?',0);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5503,14 +5922,17 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>322</v>
-      </c>
-      <c r="D140" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(139,7,'Q) What is an inner class?');</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(139,7,'Q) What is an inner class?',0);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5518,14 +5940,17 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>323</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(140,7,'Q) What are the different types of inner classes?');</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(140,7,'Q) What are the different types of inner classes?',0);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5533,14 +5958,17 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>324</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(141,7,'Q) What is static member class?');</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(141,7,'Q) What is static member class?',0);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5548,14 +5976,17 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>325</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(142,7,'Q) What are non  static inner classes?');</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(142,7,'Q) What are non  static inner classes?',0);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5563,14 +5994,17 @@
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(143,7,'Q) Does a static nested class have access to the enclosing class''  non-static methods or instance variables?');</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(143,7,'Q) Does a static nested class have access to the enclosing class''  non-static methods or instance variables?',0);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5578,14 +6012,17 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>327</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(144,7,'Q) What are the advantages of Inner classes?');</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(144,7,'Q) What are the advantages of Inner classes?',0);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5593,14 +6030,17 @@
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D146" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(145,7,'Q) What are disadvantages of using inner classes?');</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(145,7,'Q) What are disadvantages of using inner classes?',0);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5608,14 +6048,17 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(146,7,'Q) What are different types of anonymous classes?');</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(146,7,'Q) What are different types of anonymous classes?',0);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5623,14 +6066,17 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D148" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(147,7,'Q) If you compile a file containing inner class how many .class files are created and what are all of them accessible in usual way?');</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(147,7,'Q) If you compile a file containing inner class how many .class files are created and what are all of them accessible in usual way?',0);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5638,14 +6084,17 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
-      </c>
-      <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(148,7,'Q) How to access the inner class from code within the outer class?');</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(148,7,'Q) How to access the inner class from code within the outer class?',0);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5653,15 +6102,18 @@
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D150" t="str">
+        <v>329</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="str">
         <f t="shared" si="2"/>
         <v>insert into Questions values(149,7,'Q) How to create an inner class instance from outside the outer
-      class instance code?');</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      class instance code?',0);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5669,15 +6121,18 @@
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D151" t="str">
+        <v>330</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
         <f t="shared" si="2"/>
         <v>insert into Questions values(150,7,'Q) How to refer to the outer this i.e. outer class&amp;rsquo;s current
-      instance from inside the inner class?');</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      instance from inside the inner class?',0);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5685,14 +6140,17 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>334</v>
-      </c>
-      <c r="D152" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(151,7,'Q) Which modifiers can be applied to the inner class?');</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(151,7,'Q) Which modifiers can be applied to the inner class?',0);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5700,15 +6158,18 @@
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D153" t="str">
+        <v>332</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="str">
         <f t="shared" si="2"/>
         <v>insert into Questions values(152,7,'Q) Can the method local inner class object access method&amp;rsquo;s
-      local variables?');</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      local variables?',0);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5716,14 +6177,17 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
-      </c>
-      <c r="D154" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(153,7,'Q) Can a method local inner class access the local final    variables?Why?');</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(153,7,'Q) Can a method local inner class access the local final    variables?Why?',0);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5731,14 +6195,17 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>337</v>
-      </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(154,7,'Q) Which modifiers can be applied to the method local inner class?');</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(154,7,'Q) Which modifiers can be applied to the method local inner class?',0);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5746,15 +6213,18 @@
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D156" t="str">
+        <v>335</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
         <f t="shared" si="2"/>
         <v>insert into Questions values(155,7,'Q) Can a local class declared inside a static method have access
-      to the instance members of the outer class?');</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      to the instance members of the outer class?',0);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5762,14 +6232,17 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>339</v>
-      </c>
-      <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(156,7,'Q) Can a method which is not in the definition of the superclass of an anonymous class be invoked on that anonymous class reference?');</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(156,7,'Q) Can a method which is not in the definition of the superclass of an anonymous class be invoked on that anonymous class reference?',0);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5777,14 +6250,17 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>340</v>
-      </c>
-      <c r="D158" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(157,7,'Q) Can an anonymous class define method of its own?');</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(157,7,'Q) Can an anonymous class define method of its own?',0);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5792,14 +6268,17 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
-      </c>
-      <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(158,7,'Q) Can an anonymous class implement multiple interfaces directly?');</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(158,7,'Q) Can an anonymous class implement multiple interfaces directly?',0);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5807,14 +6286,17 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
-      </c>
-      <c r="D160" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(159,8,'Q) What is Serialization?');</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(159,8,'Q) What is Serialization?',0);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5822,14 +6304,17 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
-      </c>
-      <c r="D161" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(160,8,'Q) What is use of serialVersionUID?');</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(160,8,'Q) What is use of serialVersionUID?',0);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5837,14 +6322,17 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
-      </c>
-      <c r="D162" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(161,8,'Q) What is the need of  Serialization?');</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(161,8,'Q) What is the need of  Serialization?',0);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5852,14 +6340,17 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>359</v>
-      </c>
-      <c r="D163" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(162,8,'Q) Other than Serialization what are the different approach to make object Serializable?');</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(162,8,'Q) Other than Serialization what are the different approach to make object Serializable?',0);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5867,14 +6358,17 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>360</v>
-      </c>
-      <c r="D164" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(163,8,'Q) Do we need to implement any  method of Serializable interface to make an object serializable?');</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(163,8,'Q) Do we need to implement any  method of Serializable interface to make an object serializable?',0);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5882,14 +6376,17 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>361</v>
-      </c>
-      <c r="D165" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(164,8,'Q) What happens if the object to  be serialized includes the references to other serializable objects?');</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(164,8,'Q) What happens if the object to  be serialized includes the references to other serializable objects?',0);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5897,14 +6394,17 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>362</v>
-      </c>
-      <c r="D166" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(165,8,'Q) What happens if an object is  serializable but it includes a reference to a non-serializable object?');</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(165,8,'Q) What happens if an object is  serializable but it includes a reference to a non-serializable object?',0);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5912,14 +6412,17 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
-      </c>
-      <c r="D167" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(166,8,'Q) Are the static variables saved  as the part of serialization?');</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(166,8,'Q) Are the static variables saved  as the part of serialization?',0);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5929,12 +6432,15 @@
       <c r="C168" t="s">
         <v>59</v>
       </c>
-      <c r="D168" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(167,8,'Q) What is a transient variable?');</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(167,8,'Q) What is a transient variable?',0);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5942,14 +6448,17 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>364</v>
-      </c>
-      <c r="D169" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(168,8,'Q) What will be the value of  transient variable after de-serialization?');</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(168,8,'Q) What will be the value of  transient variable after de-serialization?',0);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5957,14 +6466,17 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
-      </c>
-      <c r="D170" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(169,8,'Q) Does the order in which the value  of the transient variables and the state of the object using the  defaultWriteObject() method are saved during serialization matter?');</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(169,8,'Q) Does the order in which the value  of the transient variables and the state of the object using the  defaultWriteObject() method are saved during serialization matter?',0);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5972,14 +6484,17 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
-      </c>
-      <c r="D171" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(170,8,'Q) How can one customize the  Serialization process? or What is the purpose of implementing the writeObject()  and readObject() method?');</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(170,8,'Q) How can one customize the  Serialization process? or What is the purpose of implementing the writeObject()  and readObject() method?',0);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5987,14 +6502,17 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>396</v>
-      </c>
-      <c r="D172" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(171,8,'Q) If a class is serializable but  its superclass in not , what will be the state of the instance variables  inherited  from super class after  deserialization?');</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(171,8,'Q) If a class is serializable but  its superclass in not , what will be the state of the instance variables  inherited  from super class after  deserialization?',0);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6002,14 +6520,17 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>367</v>
-      </c>
-      <c r="D173" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(172,9,'Q) What is an immutable class?');</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(172,9,'Q) What is an immutable class?',0);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6017,14 +6538,17 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>368</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(173,9,'Q) How to create an immutable class?');</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(173,9,'Q) How to create an immutable class?',0);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6032,14 +6556,17 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(174,9,'Q) Immutable objects are automatically thread-safe : true/false?');</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(174,9,'Q) Immutable objects are automatically thread-safe : true/false?',0);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6047,14 +6574,17 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>369</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(175,9,'Q) Which classes in java are immutable?');</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(175,9,'Q) Which classes in java are immutable?',0);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6062,14 +6592,17 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(176,9,'Q) What are the advantages of immutability?');</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(176,9,'Q) What are the advantages of immutability?',0);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6077,14 +6610,17 @@
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(177,10,'Q) What are different types of cloning in Java?');</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(177,10,'Q) What are different types of cloning in Java?',0);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6092,14 +6628,17 @@
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
-      </c>
-      <c r="D179" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(178,10,'Q) What is Shallow copy?');</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(178,10,'Q) What is Shallow copy?',0);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6107,14 +6646,17 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
-      </c>
-      <c r="D180" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(179,10,'Q) What is deep copy and how it can be acheived?');</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(179,10,'Q) What is deep copy and how it can be acheived?',0);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6122,14 +6664,17 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>379</v>
-      </c>
-      <c r="D181" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(180,10,'Q) What is difference between deep and shallow cloning?');</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(180,10,'Q) What is difference between deep and shallow cloning?',0);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6137,14 +6682,17 @@
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>380</v>
-      </c>
-      <c r="D182" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(181,10,'Q) What are the characteristics of a shallow  clone?');</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(181,10,'Q) What are the characteristics of a shallow  clone?',0);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6152,14 +6700,17 @@
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>375</v>
-      </c>
-      <c r="D183" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(182,10,'Q) What are the disadvantages of deep cloning?');</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(182,10,'Q) What are the disadvantages of deep cloning?',0);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6167,15 +6718,18 @@
         <v>11</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D184" t="str">
+        <v>388</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
         <f t="shared" si="2"/>
         <v>insert into Questions values(183,11,'Q) What is a JSP? What is it used for? What do you understand by the term JSP translation phase or compilation
-phase?');</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+phase?',0);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6183,14 +6737,17 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>392</v>
-      </c>
-      <c r="D185" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(184,11,'Q) Explain the life cycle methods of a JSP?');</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(184,11,'Q) Explain the life cycle methods of a JSP?',0);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6198,14 +6755,17 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>393</v>
-      </c>
-      <c r="D186" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(185,11,'Q) What are different type of scripting elements?');</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(185,11,'Q) What are different type of scripting elements?',0);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6213,14 +6773,17 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>394</v>
-      </c>
-      <c r="D187" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(186,11,'Q) What are the different scope values or what are the different scope values for "jsp:usebean"?');</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(186,11,'Q) What are the different scope values or what are the different scope values for "jsp:usebean"?',0);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6228,14 +6791,17 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>395</v>
-      </c>
-      <c r="D188" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(187,11,'Q) What are the differences between static and a dynamic include?');</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(187,11,'Q) What are the differences between static and a dynamic include?',0);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6243,14 +6809,17 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>399</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(188,11,'Q) Is JSP variable declaration thread safe?');</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(188,11,'Q) Is JSP variable declaration thread safe?',0);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6258,14 +6827,17 @@
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>401</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(189,11,'Q) Explain JSP URL mapping? What is URL hiding or protecting the JSP page?');</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(189,11,'Q) Explain JSP URL mapping? What is URL hiding or protecting the JSP page?',0);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6273,14 +6845,17 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>403</v>
-      </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(190,11,'Q) What are custom tags? Explain how to build custom tags?');</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(190,11,'Q) What are custom tags? Explain how to build custom tags?',0);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6288,14 +6863,17 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(191,11,'Q) What is the difference between custom JSP tags and JavaBeans?');</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(191,11,'Q) What is the difference between custom JSP tags and JavaBeans?',0);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6303,14 +6881,17 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(192,11,'Q) What is a Expression?');</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(192,11,'Q) What is a Expression?',0);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6318,14 +6899,17 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
-      </c>
-      <c r="D194" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into Questions values(193,11,'Q) Difference between forward and sendRedirect?');</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(193,11,'Q) Difference between forward and sendRedirect?',0);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6333,14 +6917,17 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
-      </c>
-      <c r="D195" t="str">
-        <f t="shared" ref="D195:D199" si="3">"insert into Questions values("&amp;A195&amp;","&amp;B195&amp;",'Q) "&amp;C195&amp;"');"</f>
-        <v>insert into Questions values(194,11,'Q) What are implicit objects? List them?');</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Questions values(194,11,'Q) What are implicit objects? List them?',0);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6348,14 +6935,17 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>409</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into Questions values(195,11,'Q) How do I prevent the output of my JSP or Servlet pages from being cached by the browser?');</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" ref="E196:E199" si="3">"insert into Questions values("&amp;A196&amp;","&amp;B196&amp;",'Q) "&amp;C196&amp;"',"&amp;D196&amp;");"</f>
+        <v>insert into Questions values(195,11,'Q) How do I prevent the output of my JSP or Servlet pages from being cached by the browser?',0);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6363,14 +6953,17 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>410</v>
-      </c>
-      <c r="D197" t="str">
+        <v>407</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
         <f t="shared" si="3"/>
-        <v>insert into Questions values(196,11,'Q) How to implement a thread-safe JSP page? What are the advantages and Disadvantages of using it?');</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>insert into Questions values(196,11,'Q) How to implement a thread-safe JSP page? What are the advantages and Disadvantages of using it?',0);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6378,14 +6971,17 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>411</v>
-      </c>
-      <c r="D198" t="str">
+        <v>408</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="str">
         <f t="shared" si="3"/>
-        <v>insert into Questions values(197,11,'Q) Why to use the HttpServlet Init method to perform expensive operations that need only be done once?');</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>insert into Questions values(197,11,'Q) Why to use the HttpServlet Init method to perform expensive operations that need only be done once?',0);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6393,11 +6989,14 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
-      </c>
-      <c r="D199" t="str">
+        <v>409</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
         <f t="shared" si="3"/>
-        <v>insert into Questions values(198,11,'Q) Why is it not a good practice to create HttpSessions in JSPs by default?');</v>
+        <v>insert into Questions values(198,11,'Q) Why is it not a good practice to create HttpSessions in JSPs by default?',0);</v>
       </c>
     </row>
   </sheetData>
@@ -8797,7 +9396,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -8819,7 +9418,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -8845,7 +9444,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -8875,7 +9474,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -8914,7 +9513,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -8936,7 +9535,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -8960,7 +9559,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -8978,7 +9577,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -8996,7 +9595,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -9015,7 +9614,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -9035,7 +9634,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -9055,7 +9654,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -9073,7 +9672,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -9091,7 +9690,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -9109,7 +9708,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -9127,7 +9726,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -9147,7 +9746,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -9168,7 +9767,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -9186,7 +9785,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -9204,7 +9803,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -9222,7 +9821,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -9240,7 +9839,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9258,7 +9857,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -9276,7 +9875,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -9294,7 +9893,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -9312,7 +9911,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -9331,7 +9930,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9349,7 +9948,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9369,7 +9968,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -9388,7 +9987,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -9407,7 +10006,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -9425,7 +10024,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -9450,7 +10049,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -9471,7 +10070,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -9497,7 +10096,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9519,7 +10118,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -9537,7 +10136,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -9559,7 +10158,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -9577,7 +10176,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -9595,7 +10194,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -9618,7 +10217,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -9651,7 +10250,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -9722,7 +10321,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -9740,7 +10339,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -9791,7 +10390,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9819,7 +10418,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9902,7 +10501,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -9935,7 +10534,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -9969,7 +10568,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -10001,7 +10600,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -10033,7 +10632,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -10059,7 +10658,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -10091,7 +10690,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -10110,7 +10709,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -10128,7 +10727,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -10148,7 +10747,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -10192,7 +10791,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -10214,7 +10813,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -10235,7 +10834,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -10253,7 +10852,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -10306,7 +10905,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -10327,7 +10926,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -10348,7 +10947,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -10366,7 +10965,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10384,7 +10983,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10439,7 +11038,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -10457,7 +11056,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -10475,7 +11074,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -10531,7 +11130,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -10549,7 +11148,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -10605,7 +11204,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10667,7 +11266,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10688,7 +11287,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10764,7 +11363,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -10783,7 +11382,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -10803,7 +11402,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -10825,7 +11424,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -10843,7 +11442,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -10867,7 +11466,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -10902,7 +11501,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10927,7 +11526,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10947,7 +11546,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10968,7 +11567,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -10992,7 +11591,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -11020,7 +11619,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -11062,7 +11661,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -11104,7 +11703,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -11133,7 +11732,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -11155,7 +11754,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -11173,7 +11772,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -11242,7 +11841,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11287,7 +11886,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11308,7 +11907,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11326,7 +11925,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11353,7 +11952,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11376,7 +11975,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11396,7 +11995,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -11418,7 +12017,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D199">
         <v>1</v>

--- a/DB/DB_JIQ.xlsx
+++ b/DB/DB_JIQ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="442">
   <si>
     <t>ID</t>
   </si>
@@ -1250,17 +1250,6 @@
 .</t>
   </si>
   <si>
-    <t>Ans)
-Differences between threads and processes are:-
-1. Threads share the address space of the process that &amp;nbsp;created it; processes have their own address.
-2. Threads have direct access to the data segment of its process;  processes have their own copy of the data segment of the parent process.
-3. Threads can directly communicate with other threads of its  process; processes must use interprocess communication to communicate with  sibling processes.
-4. Threads have almost no overhead; processes have considerable  overhead.
-5. New threads are easily created; new processes require duplication  of the parent process.
-6. Threads can exercise considerable control over threads of  the same process; processes can only exercise control over child processes.
-7. Changes to the main thread (cancellation, priority change,  etc.) may affect the behavior of the other threads of the process; changes to  the parent process do not affect child processes.</t>
-  </si>
-  <si>
     <t>What are the two ways of creating thread?</t>
   </si>
   <si>
@@ -1317,21 +1306,6 @@
 A thread of execution.
 An instance of Thread is just&amp;hellip;an object. Like any other object in Java, it has variables and methods, and lives and dies on the heap. But a thread of execution is an individual process (a "lightweight" process) that has its own call stack. In Java, there is one thread per call stack&amp;mdash;or, to think of it in reverse, one call stack per thread. Even if you don""t create any new threads in your program, threads are back there running.
 The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you""d see that main() is the first method on the stack&amp;mdash; the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that""s separate from the main() call stack.</t>
-  </si>
-  <si>
-    <t>Ans)
-&amp;nbsp;
-Threads support  concurrent operations. For example,
-&amp;nbsp;&amp;bull; Multiple requests by a client on  a server can be handled as an individual client thread.
-&amp;nbsp;&amp;bull; Long computations or high-latency  disk and network operations can be handled in the background without disturbing  foreground computations or screen updates.
-Threads often result in simpler programs.
-&amp;bull; In sequential programming,  updating multiple displays normally requires a big while-loop that performs  small parts of each display update. Unfortunately, this loop basically  simulates an operating system scheduler. In Java, each view can be assigned a  thread to provide continuous updates.
-&amp;bull; Programs that need to respond to  user-initiated events can set up service routines to handle the events without  having to insert code in the main routine to look for these events.
-Threads provide a high degree of control.
-&amp;bull; Imagine launching a complex  computation that occasionally takes longer than is satisfactory. A  "watchdog" thread can be activated that will "kill" the computation  if it becomes costly, perhaps in favor of an alternate, approximate solution. Note  that sequential programs must muddy the computation with termination code,  whereas, a Java program can use thread control to non-intrusively supervise any  operation.
-Threaded applications exploit parallelism.
-&amp;bull; A computer with multiple CPUs can  literally execute multiple threads on different functional units without having  to simulating multi-tasking ("time sharing").
-&amp;bull; On some computers, one CPU  handles the display while another handles computations or database accesses,  thus, providing extremely fast user interface response times.</t>
   </si>
   <si>
     <t>Ans) There are two ways to create a new thread.
@@ -1372,9 +1346,6 @@
             synchronized (this){             // synchronized keyword on block of  code
             }
 }</t>
-  </si>
-  <si>
-    <t>Ans) When a synch non static method is called a lock is obtained on the object. When a synch static method is called a lock is obtained on the class and not on the object. The lock on the object and the lock on the class donâ€™t interfere with each other. It means, a thread accessing a synch non static method, then the other thread can access the synch static method at the same time but canâ€™t access the synch non static method.</t>
   </si>
   <si>
     <t>Ans) In general each thread has its own copy of variable, such that one thread is not concerned with the value of same variable in the other thread. But sometime this may not be the case. Consider a scenario in which the count variable is holding the number of times a method is called for a given class irrespective of any thread calling, in this case irrespective of thread access the count has to be increased so the count variable is declared as volatile. The copy of volatile variable is stored in the main memory, so every time a thread access the variable even for reading purpose the local copy is updated each time from the main memory. The volatile variable also have performance issues.</t>
@@ -2280,67 +2251,6 @@
 Immutable class is a class which once created, it&amp;rsquo;s contents can  not be changed.
 Immutable objects are the objects whose  state can not be changed once constructed.
 e.g. String class</t>
-  </si>
-  <si>
-    <t>Ans)
-To create an immutable class following steps should be followed:
-Create a final class.
-Set the values of properties  using constructor only.
-Make the properties of the  class final and private
-Do not provide any setters for  these properties.
-If the instance fields include  references to mutable objects, don''t allow those objects to be changed:
-Don''t provide methods that  modify the mutable objects.
-Don''t share references to the  mutable objects. Never store references to external, mutable objects passed to  the constructor; if necessary, create copies, and store references to the  copies. Similarly, create copies of your internal mutable objects when  necessary to avoid returning the originals in your methods.
-E.g.
-public
-final
-class
-FinalPersonClass {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-private
-final
-String name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-private
-final
-int
-age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-public
-FinalPersonClass(
-final
-String name,
-final
-int
-age) {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-super
-();
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-this
-.name = name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-this
-.age = age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-public
-int
-getAge() {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-return
-age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-public
-String getName() {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-return
-name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-}</t>
   </si>
   <si>
     <t>Ans)
@@ -2721,6 +2631,247 @@
   </si>
   <si>
     <t>What are the advantages or usage of threads?</t>
+  </si>
+  <si>
+    <t>Ans)
+Differences between threads and processes are:-
+1. Threads share the address space of the process that  created it; processes have their own address.
+2. Threads have direct access to the data segment of its process;  processes have their own copy of the data segment of the parent process.
+3. Threads can directly communicate with other threads of its  process; processes must use interprocess communication to communicate with  sibling processes.
+4. Threads have almost no overhead; processes have considerable  overhead.
+5. New threads are easily created; new processes require duplication  of the parent process.
+6. Threads can exercise considerable control over threads of  the same process; processes can only exercise control over child processes.
+7. Changes to the main thread (cancellation, priority change,  etc.) may affect the behavior of the other threads of the process; changes to  the parent process do not affect child processes.</t>
+  </si>
+  <si>
+    <t>Ans)
+To create an immutable class following steps should be followed:
+Create a final class.
+Set the values of properties  using constructor only.
+Make the properties of the  class final and private
+Do not provide any setters for  these properties.
+If the instance fields include  references to mutable objects, don''t allow those objects to be changed:
+Don''t provide methods that  modify the mutable objects.
+Don''t share references to the  mutable objects. Never store references to external, mutable objects passed to  the constructor; if necessary, create copies, and store references to the  copies. Similarly, create copies of your internal mutable objects when  necessary to avoid returning the originals in your methods.
+E.g.
+public
+final
+class
+FinalPersonClass {
+private
+final
+String name;
+private
+final
+int
+age;
+public
+FinalPersonClass(
+final
+String name,
+final
+int
+age) {
+super
+();
+this
+.name = name;
+this
+.age = age;
+      }
+public
+int
+getAge() {
+return
+age;
+      }
+public
+String getName() {
+return
+name;
+      }
+}</t>
+  </si>
+  <si>
+    <t>Ans)
+Threads support  concurrent operations. For example,
+ - Multiple requests by a client on  a server can be handled as an individual client thread.
+ - Long computations or high-latency  disk and network operations can be handled in the background without disturbing  foreground computations or screen updates.
+Threads often result in simpler programs.
+- In sequential programming,  updating multiple displays normally requires a big while-loop that performs  small parts of each display update. Unfortunately, this loop basically  simulates an operating system scheduler. In Java, each view can be assigned a  thread to provide continuous updates.
+- Programs that need to respond to  user-initiated events can set up service routines to handle the events without  having to insert code in the main routine to look for these events.
+Threads provide a high degree of control.
+- Imagine launching a complex  computation that occasionally takes longer than is satisfactory. A  "watchdog" thread can be activated that will "kill" the computation  if it becomes costly, perhaps in favor of an alternate, approximate solution. Note  that sequential programs must muddy the computation with termination code,  whereas, a Java program can use thread control to non-intrusively supervise any  operation.
+Threaded applications exploit parallelism.
+- A computer with multiple CPUs can  literally execute multiple threads on different functional units without having  to simulating multi-tasking ("time sharing").
+- On some computers, one CPU  handles the display while another handles computations or database accesses,  thus, providing extremely fast user interface response times.</t>
+  </si>
+  <si>
+    <t>Ans) When a synch non static method is called a lock is obtained on the object. When a synch static method is called a lock is obtained on the class and not on the object. The lock on the object and the lock on the class don''t interfere with each other. It means, a thread accessing a synch non static method, then the other thread can access the synch static method at the same time but can''t access the synch non static method.</t>
+  </si>
+  <si>
+    <t>Does java support multiple interitance? Why?</t>
+  </si>
+  <si>
+    <t>Ans) Java doesnt support multiple inheritance but it provide a way through which it can enact it. 
+Consider the scenario is C++
+Class A{
+public void add(){
+// some text
+}
+}
+Class B{
+public void add(){
+// some text
+}
+}
+Class C extends A,B{
+public static void main(String arg[]){
+C objC = new C();
+objC.add(); // problem, compiler gets confused and cant
+decide to call Class A or B method.
+}
+This problem is called Diamond problem.
+This problem in java is taken care with the use of interfaces
+In Java similar problem would look like:
+interface A{
+add();
+}
+interface B{
+add();
+}
+class C implements A,B{
+add(){
+// doesnt matter which interface it belong to
+}
+}</t>
+  </si>
+  <si>
+    <t>Can this keyword be assigned null value?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>What are the different types of references in java?</t>
+  </si>
+  <si>
+    <t>Ans) Java has a more expressive system of reference than most other garbage-collected programming languages, which allows for special behavior for garbage collection. A normal reference in Java is known as a strong reference. The java.lang.ref package defines three other types of references—soft, weak, and phantom references. Each type of reference is designed for a specific use.
+A SoftReference can be used to implement a cache. An object that is not reachable by a strong reference (that is, not strongly reachable), but is referenced by a soft reference is called softly reachable. A softly reachable object may be garbage collected at the discretion of the garbage collector. This generally means that softly reachable objects will only be garbage collected when free memory is low, but again, it is at the discretion of the garbage collector. Semantically, a soft reference means "keep this object unless the memory is needed."
+A WeakReference is used to implement weak maps. An object that is not strongly or softly reachable, but is referenced by a weak reference is called weakly reachable. A weakly reachable object will be garbage collected during the next collection cycle. This behavior is used in the class java.util.WeakHashMap. A weak map allows the programmer to put key/value pairs in the map and not worry about the objects taking up memory when the key is no longer reachable anywhere else. Another possible application of weak references is the string intern pool. Semantically, a weak reference means "get rid of this object when nothing else references it."
+A PhantomReference is used to reference objects that have been marked for garbage collection and have been finalized, but have not yet been reclaimed. An object that is not strongly, softly or weakly reachable, but is referenced by a phantom reference is called phantom reachable. This allows for more flexible cleanup than is possible with the finalization mechanism alone. Semantically, a phantom reference means "this object is no longer needed and has been finalized in preparation for being collected."</t>
+  </si>
+  <si>
+    <t>How to change the heap size of a JVM?</t>
+  </si>
+  <si>
+    <t>What is difference between instanceof and isInstance(Object obj)?</t>
+  </si>
+  <si>
+    <t>Ans) Differences are as follows:
+1) instanceof is a reserved word of Java, but isInstance(Object obj) is a method of java.lang.Class.
+if (obj instanceof MyType) {
+...
+}else if (MyType.class.isInstance(obj)) {
+...
+}
+2) instanceof is used of identify whether the object is type of a particular class or its subclass but isInstance(obj) is used to identify object of a particular class.</t>
+  </si>
+  <si>
+    <t>Java supports pass by value or pass by reference?</t>
+  </si>
+  <si>
+    <t>Ans) Java supports only pass by value. The arguments passed as a parameter to a method is mainly primitive data types or objects. For the data type the actual value is passed.
+Java passes the references by value just like any other parameter. This means the references passed to the method are actually copies of the original references.Java copies and passes the reference by value, not the object. Thus, method manipulation will alter the objects, since the references point to the original objects.Consider the example:
+ public void tricky(Point arg1, Point arg2)
+ {
+   arg1.x = 100;
+   arg1.y = 100;
+   Point temp = arg1;
+   arg1 = arg2;
+   arg2 = temp;
+ }
+ public static void main(String [] args)
+ {
+   Point pnt1 = new Point(0,0);
+   Point pnt2 = new Point(0,0);
+   System.out.println("X: " + pnt1.x + " Y: " +pnt1.y); 
+   System.out.println("X: " + pnt2.x + " Y: " +pnt2.y);
+   System.out.println(" ");
+   tricky(pnt1,pnt2);
+   System.out.println("X: " + pnt1.x + " Y:" + pnt1.y); 
+   System.out.println("X: " + pnt2.x + " Y: " +pnt2.y); 
+ }
+OutPut:
+X: 0 Y: 0
+X: 0 Y: 0
+X: 100 Y: 100
+X: 0 Y: 0
+The method successfully alters the value of pnt1, even though it is passed by value; however, a swap of pnt1 and pnt2 fails! This is the major source of confusion. In the main() method, pnt1 and pnt2 are nothing more than object references. When you pass pnt1 and pnt2 to the tricky() method, Java passes the references by value just like any other parameter. This means the references passed to the method are actually copies of the original references.</t>
+  </si>
+  <si>
+    <t>What is memory leak?</t>
+  </si>
+  <si>
+    <t>Ans) A memory leak is where an unreferenced object that will never be used again still hangs around in memory and doesnt get garbage collected.</t>
+  </si>
+  <si>
+    <t>What is the difference between equals() and ==?</t>
+  </si>
+  <si>
+    <t>Ans) == operator is used to compare the references of the objects. 
+public bollean equals(Object o) is the method provided by the Object class. The default implementation uses == operator to compare two objects.
+But since the method can be overriden like for String class. equals() method can be used to compare the values of two objects.
+ String str1 = "MyName"; 
+ String str2 = "MyName";
+ String str3 = str2;
+ if(str1 == str2){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ if(str1.equals(str2)){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ Output:
+ Objects are not equal
+ Objects are equal
+ String str2 = "MyName";
+ String str3 = str2;
+ if(str2 == str3){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ if(str3.equals(str2)){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ OutPut:
+ Objects are equal
+ Objects are equal</t>
+  </si>
+  <si>
+    <t>How to make sure that Childclass method actually overrides the method of the superclass?</t>
+  </si>
+  <si>
+    <t>Ans) The @Override annotation can be added to the javadoc for the new method. If you accidently miss an argument or capitalize the method name wrong, the compiler will generate a compile-time error.</t>
+  </si>
+  <si>
+    <t>How to find the size of an object?</t>
+  </si>
+  <si>
+    <t>Ans)The heap size of an object can be found using -
+         Runtime.totalMemory()-Runtime.freeMemory() .</t>
+  </si>
+  <si>
+    <t>Ans) The old generation''s default heap size can be overridden by using the -Xms and -Xmx switches to specify the initial and maximum sizes respectively: 
+java -Xms &lt;initial size&gt; -Xmx &lt;maximum size&gt; program
+For example: 
+java -Xms64m -Xmx128m program</t>
   </si>
 </sst>
 </file>
@@ -3071,7 +3222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3401,7 +3554,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3423,7 +3576,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -5238,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5256,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5274,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5292,7 +5445,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5310,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5328,7 +5481,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5346,7 +5499,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5364,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5382,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5400,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5418,7 +5571,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5436,7 +5589,7 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5454,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5472,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5490,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5508,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5526,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5544,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5562,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5580,7 +5733,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5598,7 +5751,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5616,7 +5769,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -5634,7 +5787,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -5652,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -5670,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5688,7 +5841,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5706,7 +5859,7 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -5724,7 +5877,7 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5742,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -5760,7 +5913,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5778,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5796,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -5814,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5832,7 +5985,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5850,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -5868,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5886,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5904,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -5922,7 +6075,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -5940,7 +6093,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -5958,7 +6111,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5976,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5994,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6012,7 +6165,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6030,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6048,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6066,7 +6219,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6084,7 +6237,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6102,7 +6255,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6121,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6140,7 +6293,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6158,7 +6311,7 @@
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6177,7 +6330,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6195,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6213,7 +6366,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -6232,7 +6385,7 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6250,7 +6403,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6268,7 +6421,7 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6286,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6304,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6322,7 +6475,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -6340,7 +6493,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -6358,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -6376,7 +6529,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -6394,7 +6547,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6412,7 +6565,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -6448,7 +6601,7 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -6466,7 +6619,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -6484,7 +6637,7 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -6502,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -6520,7 +6673,7 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -6538,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -6556,7 +6709,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -6574,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -6592,7 +6745,7 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -6610,7 +6763,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -6628,7 +6781,7 @@
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -6646,7 +6799,7 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -6664,7 +6817,7 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -6682,7 +6835,7 @@
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -6700,7 +6853,7 @@
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -6718,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -6737,7 +6890,7 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -6755,7 +6908,7 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -6773,7 +6926,7 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -6791,7 +6944,7 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -6809,7 +6962,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6827,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6845,7 +6998,7 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -6863,7 +7016,7 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -6881,7 +7034,7 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -6899,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -6917,7 +7070,7 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -6935,13 +7088,13 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ref="E196:E199" si="3">"insert into Questions values("&amp;A196&amp;","&amp;B196&amp;",'Q) "&amp;C196&amp;"',"&amp;D196&amp;");"</f>
+        <f t="shared" ref="E196:E209" si="3">"insert into Questions values("&amp;A196&amp;","&amp;B196&amp;",'Q) "&amp;C196&amp;"',"&amp;D196&amp;");"</f>
         <v>insert into Questions values(195,11,'Q) How do I prevent the output of my JSP or Servlet pages from being cached by the browser?',0);</v>
       </c>
     </row>
@@ -6953,7 +7106,7 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -6971,7 +7124,7 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -6989,7 +7142,7 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -6997,6 +7150,186 @@
       <c r="E199" t="str">
         <f t="shared" si="3"/>
         <v>insert into Questions values(198,11,'Q) Why is it not a good practice to create HttpSessions in JSPs by default?',0);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>422</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(199,2,'Q) Does java support multiple interitance? Why?',0);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>424</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(200,2,'Q) Can this keyword be assigned null value?',0);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(201,2,'Q) What are the different types of references in java?',0);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>428</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(202,2,'Q) How to change the heap size of a JVM?',0);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>429</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(203,2,'Q) What is difference between instanceof and isInstance(Object obj)?',0);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>431</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(204,2,'Q) Java supports pass by value or pass by reference?',0);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>433</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(205,2,'Q) What is memory leak?',0);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>435</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(206,2,'Q) What is the difference between equals() and ==?',0);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>437</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(207,2,'Q) How to make sure that Childclass method actually overrides the method of the superclass?',0);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>439</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(208,2,'Q) How to find the size of an object?',0);</v>
       </c>
     </row>
   </sheetData>
@@ -7006,9 +7339,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200:E209"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9396,7 +9731,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -9410,7 +9745,7 @@
 The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you""d see that main() is the first method on the stack&amp;mdash; the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that""s separate from the main() call stack.',1);</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9418,7 +9753,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -9427,7 +9762,7 @@
         <f t="shared" si="1"/>
         <v>insert into Answers values(102,102,'Ans)
 Differences between threads and processes are:-
-1. Threads share the address space of the process that &amp;nbsp;created it; processes have their own address.
+1. Threads share the address space of the process that  created it; processes have their own address.
 2. Threads have direct access to the data segment of its process;  processes have their own copy of the data segment of the parent process.
 3. Threads can directly communicate with other threads of its  process; processes must use interprocess communication to communicate with  sibling processes.
 4. Threads have almost no overhead; processes have considerable  overhead.
@@ -9444,7 +9779,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -9452,18 +9787,17 @@
       <c r="E104" t="str">
         <f t="shared" si="1"/>
         <v>insert into Answers values(103,103,'Ans)
-&amp;nbsp;
 Threads support  concurrent operations. For example,
-&amp;nbsp;&amp;bull; Multiple requests by a client on  a server can be handled as an individual client thread.
-&amp;nbsp;&amp;bull; Long computations or high-latency  disk and network operations can be handled in the background without disturbing  foreground computations or screen updates.
+ - Multiple requests by a client on  a server can be handled as an individual client thread.
+ - Long computations or high-latency  disk and network operations can be handled in the background without disturbing  foreground computations or screen updates.
 Threads often result in simpler programs.
-&amp;bull; In sequential programming,  updating multiple displays normally requires a big while-loop that performs  small parts of each display update. Unfortunately, this loop basically  simulates an operating system scheduler. In Java, each view can be assigned a  thread to provide continuous updates.
-&amp;bull; Programs that need to respond to  user-initiated events can set up service routines to handle the events without  having to insert code in the main routine to look for these events.
+- In sequential programming,  updating multiple displays normally requires a big while-loop that performs  small parts of each display update. Unfortunately, this loop basically  simulates an operating system scheduler. In Java, each view can be assigned a  thread to provide continuous updates.
+- Programs that need to respond to  user-initiated events can set up service routines to handle the events without  having to insert code in the main routine to look for these events.
 Threads provide a high degree of control.
-&amp;bull; Imagine launching a complex  computation that occasionally takes longer than is satisfactory. A  "watchdog" thread can be activated that will "kill" the computation  if it becomes costly, perhaps in favor of an alternate, approximate solution. Note  that sequential programs must muddy the computation with termination code,  whereas, a Java program can use thread control to non-intrusively supervise any  operation.
+- Imagine launching a complex  computation that occasionally takes longer than is satisfactory. A  "watchdog" thread can be activated that will "kill" the computation  if it becomes costly, perhaps in favor of an alternate, approximate solution. Note  that sequential programs must muddy the computation with termination code,  whereas, a Java program can use thread control to non-intrusively supervise any  operation.
 Threaded applications exploit parallelism.
-&amp;bull; A computer with multiple CPUs can  literally execute multiple threads on different functional units without having  to simulating multi-tasking ("time sharing").
-&amp;bull; On some computers, one CPU  handles the display while another handles computations or database accesses,  thus, providing extremely fast user interface response times.',1);</v>
+- A computer with multiple CPUs can  literally execute multiple threads on different functional units without having  to simulating multi-tasking ("time sharing").
+- On some computers, one CPU  handles the display while another handles computations or database accesses,  thus, providing extremely fast user interface response times.',1);</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -9474,7 +9808,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -9513,7 +9847,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -9535,7 +9869,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -9559,14 +9893,14 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>249</v>
+        <v>421</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Answers values(107,107,'Ans) When a synch non static method is called a lock is obtained on the object. When a synch static method is called a lock is obtained on the class and not on the object. The lock on the object and the lock on the class donâ€™t interfere with each other. It means, a thread accessing a synch non static method, then the other thread can access the synch static method at the same time but canâ€™t access the synch non static method.',1);</v>
+        <v>insert into Answers values(107,107,'Ans) When a synch non static method is called a lock is obtained on the object. When a synch static method is called a lock is obtained on the class and not on the object. The lock on the object and the lock on the class don''t interfere with each other. It means, a thread accessing a synch non static method, then the other thread can access the synch static method at the same time but can''t access the synch non static method.',1);</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -9577,7 +9911,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -9595,7 +9929,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -9614,7 +9948,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -9634,7 +9968,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -9654,7 +9988,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -9672,7 +10006,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -9690,7 +10024,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -9708,7 +10042,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -9726,7 +10060,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -9746,7 +10080,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -9767,7 +10101,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -9785,7 +10119,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -9803,7 +10137,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -9821,7 +10155,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -9839,7 +10173,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9857,7 +10191,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -9875,7 +10209,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -9893,7 +10227,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -9911,7 +10245,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -9930,7 +10264,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -9948,7 +10282,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -9968,7 +10302,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -9987,13 +10321,13 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E199" si="2">"insert into Answers values("&amp;A131&amp;","&amp;B131&amp;",'"&amp;C131&amp;"',"&amp;D131&amp;");"</f>
+        <f t="shared" ref="E131:E200" si="2">"insert into Answers values("&amp;A131&amp;","&amp;B131&amp;",'"&amp;C131&amp;"',"&amp;D131&amp;");"</f>
         <v>insert into Answers values(130,130,'Ans) If a class is made to extend the thread class to have a multithreaded application then this subclass of Thread can not extend any other class and the required application will have to be added to this class as it can not be inherited from any other class.
       If a class is made to implement Runnable interface, then the class can extend other class or implement other interface.',1);</v>
       </c>
@@ -10006,7 +10340,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -10024,7 +10358,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -10049,7 +10383,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -10070,7 +10404,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -10096,7 +10430,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -10118,7 +10452,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -10136,7 +10470,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -10158,7 +10492,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -10176,7 +10510,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -10194,7 +10528,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -10217,7 +10551,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -10250,7 +10584,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -10321,7 +10655,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -10339,7 +10673,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -10390,7 +10724,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -10418,7 +10752,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -10501,7 +10835,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -10534,7 +10868,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -10568,7 +10902,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -10600,7 +10934,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -10632,7 +10966,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -10658,7 +10992,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -10690,7 +11024,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -10709,7 +11043,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -10727,7 +11061,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -10747,7 +11081,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -10791,7 +11125,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -10813,7 +11147,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -10834,7 +11168,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -10852,7 +11186,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -10905,7 +11239,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -10926,7 +11260,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -10947,7 +11281,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -10965,7 +11299,7 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10983,7 +11317,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -11038,7 +11372,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -11056,7 +11390,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -11074,7 +11408,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -11130,7 +11464,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -11148,7 +11482,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -11204,7 +11538,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -11266,7 +11600,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -11287,7 +11621,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -11308,17 +11642,13 @@
 final
 class
 FinalPersonClass {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 private
 final
 String name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 private
 final
 int
 age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 public
 FinalPersonClass(
 final
@@ -11326,32 +11656,24 @@
 final
 int
 age) {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 super
 ();
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 this
 .name = name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 this
 .age = age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+      }
 public
 int
 getAge() {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 return
 age;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+      }
 public
 String getName() {
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
 return
 name;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; }
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+      }
 }',1);</v>
       </c>
     </row>
@@ -11363,7 +11685,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -11382,7 +11704,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -11402,7 +11724,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -11424,7 +11746,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -11442,7 +11764,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -11466,7 +11788,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -11501,7 +11823,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -11526,7 +11848,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -11546,7 +11868,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -11567,7 +11889,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -11591,7 +11913,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -11619,7 +11941,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -11661,7 +11983,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -11703,7 +12025,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -11732,7 +12054,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -11754,7 +12076,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -11772,7 +12094,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -11841,7 +12163,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11886,7 +12208,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11907,7 +12229,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11925,7 +12247,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11952,7 +12274,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11975,7 +12297,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11995,7 +12317,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -12017,7 +12339,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -12032,6 +12354,290 @@
 &lt;%@ page session="false"%&gt;',1);</v>
       </c>
     </row>
+    <row r="200" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Answers values(199,199,'Ans) Java doesnt support multiple inheritance but it provide a way through which it can enact it. 
+Consider the scenario is C++
+Class A{
+public void add(){
+// some text
+}
+}
+Class B{
+public void add(){
+// some text
+}
+}
+Class C extends A,B{
+public static void main(String arg[]){
+C objC = new C();
+objC.add(); // problem, compiler gets confused and cant
+decide to call Class A or B method.
+}
+This problem is called Diamond problem.
+This problem in java is taken care with the use of interfaces
+In Java similar problem would look like:
+interface A{
+add();
+}
+interface B{
+add();
+}
+class C implements A,B{
+add(){
+// doesnt matter which interface it belong to
+}
+}',1);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" ref="E201:E209" si="3">"insert into Answers values("&amp;A201&amp;","&amp;B201&amp;",'"&amp;C201&amp;"',"&amp;D201&amp;");"</f>
+        <v>insert into Answers values(200,200,'NO',1);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(201,201,'Ans) Java has a more expressive system of reference than most other garbage-collected programming languages, which allows for special behavior for garbage collection. A normal reference in Java is known as a strong reference. The java.lang.ref package defines three other types of references—soft, weak, and phantom references. Each type of reference is designed for a specific use.
+A SoftReference can be used to implement a cache. An object that is not reachable by a strong reference (that is, not strongly reachable), but is referenced by a soft reference is called softly reachable. A softly reachable object may be garbage collected at the discretion of the garbage collector. This generally means that softly reachable objects will only be garbage collected when free memory is low, but again, it is at the discretion of the garbage collector. Semantically, a soft reference means "keep this object unless the memory is needed."
+A WeakReference is used to implement weak maps. An object that is not strongly or softly reachable, but is referenced by a weak reference is called weakly reachable. A weakly reachable object will be garbage collected during the next collection cycle. This behavior is used in the class java.util.WeakHashMap. A weak map allows the programmer to put key/value pairs in the map and not worry about the objects taking up memory when the key is no longer reachable anywhere else. Another possible application of weak references is the string intern pool. Semantically, a weak reference means "get rid of this object when nothing else references it."
+A PhantomReference is used to reference objects that have been marked for garbage collection and have been finalized, but have not yet been reclaimed. An object that is not strongly, softly or weakly reachable, but is referenced by a phantom reference is called phantom reachable. This allows for more flexible cleanup than is possible with the finalization mechanism alone. Semantically, a phantom reference means "this object is no longer needed and has been finalized in preparation for being collected."',1);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(202,202,'Ans) The old generation''s default heap size can be overridden by using the -Xms and -Xmx switches to specify the initial and maximum sizes respectively: 
+java -Xms &lt;initial size&gt; -Xmx &lt;maximum size&gt; program
+For example: 
+java -Xms64m -Xmx128m program',1);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(203,203,'Ans) Differences are as follows:
+1) instanceof is a reserved word of Java, but isInstance(Object obj) is a method of java.lang.Class.
+if (obj instanceof MyType) {
+...
+}else if (MyType.class.isInstance(obj)) {
+...
+}
+2) instanceof is used of identify whether the object is type of a particular class or its subclass but isInstance(obj) is used to identify object of a particular class.',1);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(204,204,'Ans) Java supports only pass by value. The arguments passed as a parameter to a method is mainly primitive data types or objects. For the data type the actual value is passed.
+Java passes the references by value just like any other parameter. This means the references passed to the method are actually copies of the original references.Java copies and passes the reference by value, not the object. Thus, method manipulation will alter the objects, since the references point to the original objects.Consider the example:
+ public void tricky(Point arg1, Point arg2)
+ {
+   arg1.x = 100;
+   arg1.y = 100;
+   Point temp = arg1;
+   arg1 = arg2;
+   arg2 = temp;
+ }
+ public static void main(String [] args)
+ {
+   Point pnt1 = new Point(0,0);
+   Point pnt2 = new Point(0,0);
+   System.out.println("X: " + pnt1.x + " Y: " +pnt1.y); 
+   System.out.println("X: " + pnt2.x + " Y: " +pnt2.y);
+   System.out.println(" ");
+   tricky(pnt1,pnt2);
+   System.out.println("X: " + pnt1.x + " Y:" + pnt1.y); 
+   System.out.println("X: " + pnt2.x + " Y: " +pnt2.y); 
+ }
+OutPut:
+X: 0 Y: 0
+X: 0 Y: 0
+X: 100 Y: 100
+X: 0 Y: 0
+The method successfully alters the value of pnt1, even though it is passed by value; however, a swap of pnt1 and pnt2 fails! This is the major source of confusion. In the main() method, pnt1 and pnt2 are nothing more than object references. When you pass pnt1 and pnt2 to the tricky() method, Java passes the references by value just like any other parameter. This means the references passed to the method are actually copies of the original references.',1);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(205,205,'Ans) A memory leak is where an unreferenced object that will never be used again still hangs around in memory and doesnt get garbage collected.',1);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(206,206,'Ans) == operator is used to compare the references of the objects. 
+public bollean equals(Object o) is the method provided by the Object class. The default implementation uses == operator to compare two objects.
+But since the method can be overriden like for String class. equals() method can be used to compare the values of two objects.
+ String str1 = "MyName"; 
+ String str2 = "MyName";
+ String str3 = str2;
+ if(str1 == str2){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ if(str1.equals(str2)){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ Output:
+ Objects are not equal
+ Objects are equal
+ String str2 = "MyName";
+ String str3 = str2;
+ if(str2 == str3){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ if(str3.equals(str2)){
+ System.out.println("Objects are equal")
+ }else{
+ System.out.println("Objects are not equal")
+ }
+ OutPut:
+ Objects are equal
+ Objects are equal',1);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(207,207,'Ans) The @Override annotation can be added to the javadoc for the new method. If you accidently miss an argument or capitalize the method name wrong, the compiler will generate a compile-time error.',1);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(208,208,'Ans)The heap size of an object can be found using -
+         Runtime.totalMemory()-Runtime.freeMemory() .',1);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB/DB_JIQ.xlsx
+++ b/DB/DB_JIQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="13395" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="13395" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="816">
   <si>
     <t>ID</t>
   </si>
@@ -2872,6 +2872,1669 @@
 java -Xms &lt;initial size&gt; -Xmx &lt;maximum size&gt; program
 For example: 
 java -Xms64m -Xmx128m program</t>
+  </si>
+  <si>
+    <t>What is Spring?</t>
+  </si>
+  <si>
+    <t>what are benefits of using spring?</t>
+  </si>
+  <si>
+    <t>What are the different modules in Spring framework?</t>
+  </si>
+  <si>
+    <t>What is Spring configuration file?</t>
+  </si>
+  <si>
+    <t>What is Dependency Injection?</t>
+  </si>
+  <si>
+    <t>What are the different types of IoC (dependency injection)?</t>
+  </si>
+  <si>
+    <t>Which DI would you suggest Constructor-based or setter-based DI?</t>
+  </si>
+  <si>
+    <t>What are the benefits of IOC?</t>
+  </si>
+  <si>
+    <t>What is AOP?</t>
+  </si>
+  <si>
+    <t>What is Spring IoC container?</t>
+  </si>
+  <si>
+    <t>What are types of IoC containers? Explain them.</t>
+  </si>
+  <si>
+    <t>Give an example of BeanFactory implementation.</t>
+  </si>
+  <si>
+    <t>What are the common implementations of the ApplicationContext?</t>
+  </si>
+  <si>
+    <t>What is the difference between Bean Factory and ApplicationContext?</t>
+  </si>
+  <si>
+    <t>What are Spring beans?</t>
+  </si>
+  <si>
+    <t>What does a bean definition contain?</t>
+  </si>
+  <si>
+    <t>How do you provide configuration metadata to the Spring Container?</t>
+  </si>
+  <si>
+    <t>How do add a bean in spring application?</t>
+  </si>
+  <si>
+    <t>How do you define a bean scope?</t>
+  </si>
+  <si>
+    <t>What bean scopes does Spring support? Explain them.</t>
+  </si>
+  <si>
+    <t>What is default scope of bean in Spring framework?</t>
+  </si>
+  <si>
+    <t>Are Singleton beans thread safe in Spring Framework?</t>
+  </si>
+  <si>
+    <t>Explain Bean lifecycle in Spring framework?</t>
+  </si>
+  <si>
+    <t>What are inner beans in Spring?</t>
+  </si>
+  <si>
+    <t>How can you inject Java Collection in Spring?</t>
+  </si>
+  <si>
+    <t>What is bean auto wiring?</t>
+  </si>
+  <si>
+    <t>What are different Modes of auto wiring?</t>
+  </si>
+  <si>
+    <t>What are the limitations with autowiring?</t>
+  </si>
+  <si>
+    <t>Can you inject null and empty string values in Spring?</t>
+  </si>
+  <si>
+    <t>What is Annotation-based container configuration?</t>
+  </si>
+  <si>
+    <t>How do you turn on annotation wiring?</t>
+  </si>
+  <si>
+    <t>What does @Required annotation mean?</t>
+  </si>
+  <si>
+    <t>What does @Autowired annotation mean?</t>
+  </si>
+  <si>
+    <t>What does @Qualifier annotation mean?</t>
+  </si>
+  <si>
+    <t>What are the JSR-250 Annotations? Explain them.</t>
+  </si>
+  <si>
+    <t>What is Spring Java Based Configuration? Give some annotation example.</t>
+  </si>
+  <si>
+    <t>How is event handling done in Spring?</t>
+  </si>
+  <si>
+    <t>Describe some of the standard Spring events.</t>
+  </si>
+  <si>
+    <t>What is Aspect?</t>
+  </si>
+  <si>
+    <t>What is the difference between concern and cross-cutting concern in Spring AOP?</t>
+  </si>
+  <si>
+    <t>What is Join point?</t>
+  </si>
+  <si>
+    <t>What is Advice?</t>
+  </si>
+  <si>
+    <t>What is Pointcut?</t>
+  </si>
+  <si>
+    <t>What is Introduction?</t>
+  </si>
+  <si>
+    <t>What is Target object?</t>
+  </si>
+  <si>
+    <t>What is Weaving?</t>
+  </si>
+  <si>
+    <t>What are the different points where weaving can be applied?</t>
+  </si>
+  <si>
+    <t>What are the types of advice?</t>
+  </si>
+  <si>
+    <t>What is XML Schema based aspect implementation?</t>
+  </si>
+  <si>
+    <t>What is @AspectJ? based aspect implementation?</t>
+  </si>
+  <si>
+    <t>How JDBC can be used more efficiently in spring framework?</t>
+  </si>
+  <si>
+    <t>How JdbcTemplate can be used?</t>
+  </si>
+  <si>
+    <t>What are the types of the transaction management Spring supports?</t>
+  </si>
+  <si>
+    <t>Which of the above transaction management type is preferable?</t>
+  </si>
+  <si>
+    <t>What is Spring MVC framework?</t>
+  </si>
+  <si>
+    <t>What is a DispatcherServlet?</t>
+  </si>
+  <si>
+    <t>What is WebApplicationContext ?</t>
+  </si>
+  <si>
+    <t>What are the advantages of Spring MVC over Struts MVC ?</t>
+  </si>
+  <si>
+    <t>What is Controller in Spring MVC framework?</t>
+  </si>
+  <si>
+    <t>What are the ways to access Hibernate by using Spring?</t>
+  </si>
+  <si>
+    <t>What are ORM''s Spring supports ?</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring is an open source development framework for enterprise Java. The core features of the Spring Framework can be used in developing any Java application, but there are extensions for building web applications on top of the Java EE platform. Spring framework targets to make J2EE development easier to use and promote good programming practice by enabling a POJO-based programming model.</t>
+  </si>
+  <si>
+    <t>Ans)
+Following is the list of few of the great benefits of using Spring Framework:
+Lightweight:
+Spring is lightweight when it comes to size and transparency. The basic version of spring framework is around 2MB.
+Inversion of control (IOC):
+Loose coupling is achieved in spring using the technique Inversion of Control. The objects give their dependencies instead of creating or looking for dependent objects.
+Aspect oriented (AOP):
+Spring supports Aspect oriented programming and enables cohesive development by separating application business logic from system services.
+Container:
+Spring contains and manages the life cycle and configuration of application objects.
+MVC Framework:
+Spring''s web framework is a well-designed web MVC framework, which provides a great alternative to web frameworks such as Struts or other over engineered or less popular web frameworks.
+Transaction Management:
+Spring provides a consistent transaction management interface that can scale down to a local transaction (using a single database, for example) and scale up to global transactions (using JTA, for example).
+Exception Handling:
+Spring provides a convenient API to translate technology-specific exceptions (thrown by JDBC, Hibernate, or JDO, for example) into consistent, unchecked exceptions.</t>
+  </si>
+  <si>
+    <t>Ans)
+Following are the modules of the Spring framework:
+Core module
+Bean module
+Context module
+Expression Language module
+JDBC module
+ORM module
+OXM module
+Java Messaging Service(JMS) module
+Transaction module
+Web module
+Web-Servlet module
+Web-Struts module
+Web-Portlet module</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring configuration file is an XML file. This file contains the classes information and describes how these classes are configured and introduced to each other.</t>
+  </si>
+  <si>
+    <t>Ans)
+Inversion of Control (IoC) is a general concept, and it can be expressed in many different ways and Dependency Injection is merely one concrete example of Inversion of Control.
+This concept says that you do not create your objects but describe how they should be created. You don''t directly connect your components and services together in code but describe which services are needed by which components in a configuration file. A container (the IOC container) is then responsible for hooking it all up.</t>
+  </si>
+  <si>
+    <t>Ans)
+Types of IoC are:
+Constructor-based dependency injection:
+Constructor-based DI is accomplished when the container invokes a class constructor with a number of arguments, each representing a dependency on other class.
+Setter-based dependency injection:
+Setter-based DI is accomplished by the container calling setter methods on your beans after invoking a no-argument constructor or no-argument static factory method to instantiate your bean.</t>
+  </si>
+  <si>
+    <t>Ans)
+Since you can mix both, Constructor- and Setter-based DI, it is a good rule of thumb to use constructor arguments for mandatory dependencies and setters for optional dependencies. Note that the use of a
+@Required
+annotation on a setter can be used to make setters required dependencies.</t>
+  </si>
+  <si>
+    <t>Ans)
+The main benefits of IOC or dependency injection are:
+It minimizes the amount of code in your application.
+It makes your application easy to test as it doesn''t require any singletons or JNDI lookup mechanisms in your unit test cases.
+Loose coupling is promoted with minimal effort and least intrusive mechanism.
+IOC containers support eager instantiation and lazy loading of services.</t>
+  </si>
+  <si>
+    <t>Ans)
+Aspect-oriented programming, or AOP, is a programming technique that allows programmers to modularize crosscutting concerns, or behavior that cuts across the typical divisions of responsibility, such as logging and transaction management. The core construct of AOP is the aspect, which encapsulates behaviors affecting multiple classes into reusable modules.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Spring IoC creates the objects, wire them together, configure them, and manage their complete lifecycle from creation till destruction. The Spring container uses dependency injection (DI) to manage the components that make up an application.</t>
+  </si>
+  <si>
+    <t>Ans)
+There are two types of IoC containers:
+Bean Factory container:
+This is the simplest container providing basic support for DI .The BeanFactory is usually preferred where the resources are limited like mobile devices or applet based applications
+Spring ApplicationContext Container:
+This container adds more enterprise-specific functionality such as the ability to resolve textual messages from a properties file and the ability to publish application events to interested event listeners.</t>
+  </si>
+  <si>
+    <t>Ans)
+The most commonly used BeanFactory implementation is the
+XmlBeanFactory
+class. This container reads the configuration metadata from an XML file and uses it to create a fully configured system or application.</t>
+  </si>
+  <si>
+    <t>Ans)
+The three commonly used implementation of ''Application Context'' are:
+FileSystemXmlApplicationContext:
+This container loads the definitions of the beans from an XML file. Here you need to provide the full path of the XML bean configuration file to the constructor.
+ClassPathXmlApplicationContext:
+This container loads the definitions of the beans from an XML file. Here you do not need to provide the full path of the XML file but you need to set CLASSPATH properly because this container will look bean configuration XML file in CLASSPATH.
+WebXmlApplicationContext:
+This container loads the XML file with definitions of all beans from within a web application.</t>
+  </si>
+  <si>
+    <t>Ans)
+Following are some of the differences:
+Application contexts provide a means for resolving text messages, including support for i18n of those messages.
+Application contexts provide a generic way to load file resources, such as images.
+Application contexts can publish events to beans that are registered as listeners.
+Certain operations on the container or beans in the container, which have to be handled in a programmatic fashion with a bean factory, can be handled declaratively in an application context.
+The application context implements MessageSource, an interface used to obtain localized messages, with the actual implementation being pluggable.</t>
+  </si>
+  <si>
+    <t>Ans)
+The objects that form the backbone of your application and that are managed by the Spring IoC container are called beans. A bean is an object that is instantiated, assembled, and otherwise managed by a Spring IoC container. These beans are created with the configuration metadata that you supply to the container, for example, in the form of XML &lt;bean/&gt; definitions.</t>
+  </si>
+  <si>
+    <t>Ans)
+The bean definition contains the information called configuration metadata which is needed for the container to know the followings:
+How to create a bean
+Bean''s lifecycle details
+Bean''s dependencies</t>
+  </si>
+  <si>
+    <t>Ans)
+There are following three important methods to provide configuration metadata to the Spring Container:
+XML based configuration file.
+Annotation-based configuration
+Java-based configuration</t>
+  </si>
+  <si>
+    <t>Ans)
+Check the following example:
+&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;beans xmlns="http://www.springframework.org/schema/beans"
+    xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+    xsi:schemaLocation="http://www.springframework.org/schema/beans
+    http://www.springframework.org/schema/beans/spring-beans-3.0.xsd"&gt;
+   &lt;bean id="helloWorld" class="com.tutorialspoint.HelloWorld"&gt;
+       &lt;property name="message" value="Hello World!"/&gt;
+   &lt;/bean&gt;
+&lt;/beans&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+When defining a &lt;bean&gt; in Spring, you have the option of declaring a scope for that bean. For example, to force Spring to produce a new bean instance each time one is needed, you should declare the bean''s scope attribute to be
+prototype
+.  Similar way if you want Spring to return the same bean instance each time one is needed, you should declare the bean''s scope attribute to be
+singleton.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Spring Framework supports following five scopes, three of which are available only if you use a web-aware ApplicationContext.
+singleton:
+This scopes the bean definition to a single instance per Spring IoC container.
+prototype:
+This scopes a single bean definition to have any number of object instances.
+request:
+This scopes a bean definition to an HTTP request. Only valid in the context of a web-aware Spring ApplicationContext.
+session:
+This scopes a bean definition to an HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.
+global-session:
+This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.</t>
+  </si>
+  <si>
+    <t>Ans)
+The default scope of bean is Singleton for Spring framework.</t>
+  </si>
+  <si>
+    <t>Ans)
+No, singleton beans are not thread-safe in Spring framework.</t>
+  </si>
+  <si>
+    <t>Ans)
+Following is sequence of a bean lifecycle in Spring:
+Instantiate
+- First the spring container finds the bean''s definition from the XML file and instantiates the bean..
+Populate properties
+- Using the dependency injection, spring populates all of the properties as specified in the bean definition..
+Set Bean Name
+- If the bean implements BeanNameAware interface, spring passes the  bean''s id to setBeanName() method.
+Set Bean factory
+- If Bean implements BeanFactoryAware interface, spring passes the beanfactory to setBeanFactory() method.
+Pre Initialization
+-  Also called postprocess of bean. If there are any bean BeanPostProcessors associated with the bean,  Spring calls postProcesserBeforeInitialization() method.
+Initialize beans
+- If the bean implements IntializingBean,its afterPropertySet() method is called. If the bean has init method declaration, the specified initialization method is called.
+Post Initialization
+-  If there are any BeanPostProcessors associated with the bean, their postProcessAfterInitialization() methods will be called.
+Ready to use
+- Now the bean is ready to use by the application.
+Destroy
+- If the bean implements DisposableBean , it will call the destroy() method .</t>
+  </si>
+  <si>
+    <t>Ans)
+A &lt;bean/&gt; element inside the &lt;property/&gt; or &lt;constructor-arg/&gt; elements defines a so-called inner bean. An inner bean definition does not require a defined id or name; the container ignores these values. It also ignores the scope flag.  Inner beans are always anonymous and they are always scoped as prototypes.</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring offers four types of collection configuration elements which are as follows:
+&lt;list&gt;
+: This helps in wiring i.e. injecting a list of values, allowing duplicates.
+&lt;set&gt;
+: This helps in wiring a set of values but without any duplicates.
+&lt;map&gt;
+: This can be used to inject a collection of name-value pairs where name and value can be of any type.
+&lt;props&gt;
+: This can be used to inject a collection of name-value pairs where the name and value are both Strings.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Spring container is able to autowire relationships between collaborating beans. This means that it is possible to automatically let Spring resolve collaborators (other beans) for your bean by inspecting the contents of the BeanFactory without using &lt;constructor-arg&gt; and &lt;property&gt; elements.</t>
+  </si>
+  <si>
+    <t>Ans)
+The autowiring functionality has five modes which can be used to instruct Spring container to use autowiring for dependency injection:
+no
+: This is default setting which means no autowiring and you should use explicit bean reference for wiring. You have nothing to do special for this wiring. This is what you already have seen in Dependency Injection chapter.
+byName
+: Autowiring by property name. Spring container looks at the properties of the beans on which autowire attribute is set to byName in the XML configuration file. It then tries to match and wire its properties with the beans defined by the same names in the configuration file.
+byType
+: Autowiring by property datatype. Spring container looks at the properties of the beans on which autowire attribute is set to byType in the XML configuration file. It then tries to match and wire a property if its type matches with exactly one of the beans name in configuration file. If more than one such beans exist, a fatal exception is thrown.
+constructor
+: Similar to byType, but type applies to constructor arguments. If there is not exactly one bean of the constructor argument type in the container, a fatal error is raised.
+autodetect
+: Spring first tries to wire using autowire by constructor, if it does not work, Spring tries to autowire by byType.</t>
+  </si>
+  <si>
+    <t>Ans)
+Limitations of autowiring are:
+Overriding possibility
+: You can still specify dependencies using &lt;constructor-arg&gt; and &lt;property&gt; settings which will always override autowiring.
+Primitive data types
+: You cannot autowire so-called simple properties such as primitives, Strings, and Classes.
+Confusing nature
+: Autowiring is less exact than explicit wiring, so if possible prefer using explicit wiring.</t>
+  </si>
+  <si>
+    <t>Ans)
+Yes.</t>
+  </si>
+  <si>
+    <t>Ans)
+An alternative to XML setups is provided by annotation-based configuration which relies on the bytecode metadata for wiring up components instead of angle-bracket declarations. Instead of using XML to describe a bean wiring, the developer moves the configuration into the component class itself by using annotations on the relevant class, method, or field declaration.</t>
+  </si>
+  <si>
+    <t>Ans)
+Annotation wiring is not turned on in the Spring container by default. So, before we can use annotation-based wiring, we will need to enable it in our Spring configuration file by configuring &lt;context:annotation-config/&gt;.</t>
+  </si>
+  <si>
+    <t>Ans)
+This annotation simply indicates that the affected bean property must be populated at configuration time, through an explicit property value in a bean definition or through autowiring. The container throws BeanInitializationException if the affected bean property has not been populated.</t>
+  </si>
+  <si>
+    <t>Ans)
+This annotation provides more fine-grained control over where and how autowiring should be accomplished. The @Autowired annotation can be used to autowire bean on the setter method just like @Required annotation, constructor, a property or methods with arbitrary names and/or multiple arguments.</t>
+  </si>
+  <si>
+    <t>Ans)
+There may be a situation when you create more than one bean of the same type and want to wire only one of them with a property, in such case you can use @Qualifier annotation along with @Autowired to remove the confusion by specifying which exact bean will be wired.</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring has JSR-250 based annotations which include @PostConstruct, @PreDestroy and @Resource annotations.
+@PostConstruct
+: This annotation can be used as an alternate of initialization callback.
+@PreDestroy
+: This annotation can be used as an alternate of destruction callback.
+@Resource
+: This annotation can be used on fields or setter methods. The @Resource annotation takes a ''name'' attribute which will be interpreted as the bean name to be injected. You can say, it follows by-name autowiring semantics.</t>
+  </si>
+  <si>
+    <t>Ans)
+Java based configuration option enables you to write most of your Spring configuration without XML but with the help of few Java-based annotations.
+For example: Annotation
+@Configuration
+indicates that the class can be used by the Spring IoC container as a source of bean definitions. The
+@Bean
+annotation tells Spring that a method annotated with @Bean will return an object that should be registered as a bean in the Spring application context.</t>
+  </si>
+  <si>
+    <t>Ans)
+Event handling in the
+ApplicationContext
+is provided through the
+ApplicationEvent
+class and
+ApplicationListener
+interface. So if a bean implements the
+ApplicationListener
+, then every time an
+ApplicationEvent
+gets published to the ApplicationContext, that bean is notified.</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring provides the following standard events:
+ContextRefreshedEvent
+: This event is published when the ApplicationContext is either initialized or refreshed. This can also be raised using the refresh() method on the ConfigurableApplicationContext interface.
+ContextStartedEvent
+: This event is published when the ApplicationContext is started using the start() method on the ConfigurableApplicationContext interface. You can poll your database or you can re/start any stopped application after receiving this event.
+ContextStoppedEvent
+: This event is published when the ApplicationContext is stopped using the stop() method on the ConfigurableApplicationContext interface. You can do required housekeep work after receiving this event.
+ContextClosedEvent
+: This event is published when the ApplicationContext is closed using the close() method on the ConfigurableApplicationContext interface. A closed context reaches its end of life; it cannot be refreshed or restarted.
+RequestHandledEvent
+: This is a web-specific event telling all beans that an HTTP request has been serviced.</t>
+  </si>
+  <si>
+    <t>Ans)
+A module which has a set of APIs providing cross-cutting requirements. For example, a logging module would be called AOP aspect for logging. An application can have any number of aspects depending on the requirement. In Spring AOP, aspects are implemented using regular classes (the schema-based approach) or regular classes annotated with the @Aspect annotation (@AspectJ style).</t>
+  </si>
+  <si>
+    <t>Ans)
+Concern
+: Concern is behavior which we want to have in a module of an application. Concern may be defined as a functionality we want to implement. Issues in which we are interested define our concerns.
+Cross-cutting concern
+: It''s a concern which is applicable throughout the application and it affects the entire application. e.g. logging , security and data transfer are the concerns which are needed in almost every module of an application, hence are cross-cutting concerns.</t>
+  </si>
+  <si>
+    <t>Ans)
+This represents a point in your application where you can plug-in AOP aspect. You can also say, it is the actual place in the application where an action will be taken using Spring AOP framework.</t>
+  </si>
+  <si>
+    <t>Ans)
+This is the actual action to be taken either before or after the method execution. This is actual piece of code that is invoked during program execution by Spring AOP framework.</t>
+  </si>
+  <si>
+    <t>Ans)
+This is a set of one or more joinpoints where an advice should be executed. You can specify pointcuts using expressions or patterns as we will see in our AOP examples.</t>
+  </si>
+  <si>
+    <t>Ans)
+An introduction allows you to add new methods or attributes to existing classes.</t>
+  </si>
+  <si>
+    <t>Ans)
+The object being advised by one or more aspects, this object will always be a proxy object. Also referred to as the advised object.</t>
+  </si>
+  <si>
+    <t>Ans)
+Weaving is the process of linking aspects with other application types or objects to create an advised object.</t>
+  </si>
+  <si>
+    <t>Ans)
+Weaving can be done at compile time, load time, or at runtime.</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring aspects can work with five kinds of advice mentioned below:
+before
+: Run advice before the a method execution.
+after
+: Run advice after the a method execution regardless of its outcome.
+after-returning
+: Run advice after the a method execution only if method completes successfully.
+after-throwing
+: Run advice after the a method execution only if method exits by throwing an exception.
+around
+: Run advice before and after the advised method is invoked.</t>
+  </si>
+  <si>
+    <t>Ans)
+Aspects are implemented using regular classes along with XML based configuration.</t>
+  </si>
+  <si>
+    <t>Ans)
+@AspectJ refers to a style of declaring aspects as regular Java classes annotated with Java 5 annotations.</t>
+  </si>
+  <si>
+    <t>Ans)
+JDBC can be used more efficiently with the help of a template class provided by spring framework called as JdbcTemplate.</t>
+  </si>
+  <si>
+    <t>Ans)
+With use of Spring JDBC framework the burden of resource management and error handling is reduced a lot. So it leaves developers to write the statements and queries to get the data to and from the database. JdbcTemplate provides many convenience methods for doing things such as converting database data into primitives or objects, executing prepared and callable statements, and providing custom database error handling.</t>
+  </si>
+  <si>
+    <t>Ans)
+Spring supports two types of transaction management:
+Programmatic transaction management:
+This means that you have managed the transaction with the help of programming. That gives you extreme flexibility, but it is difficult to maintain.
+Declarative transaction management:
+This means you separate transaction management from the business code. You only use annotations or XML based configuration to manage the transactions.</t>
+  </si>
+  <si>
+    <t>Ans)
+Declarative transaction management is preferable over programmatic transaction management though it is less flexible than programmatic transaction management, which allows you to control transactions through your code.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Spring web MVC framework provides model-view-controller architecture and ready components that can be used to develop flexible and loosely coupled web applications. The MVC pattern results in separating the different aspects of the application (input logic, business logic, and UI logic), while providing a loose coupling between these elements.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Spring Web MVC framework is designed around a DispatcherServlet that handles all the HTTP requests and responses.</t>
+  </si>
+  <si>
+    <t>Ans)
+The
+WebApplicationContext
+is an extension of the plain
+ApplicationContext
+that has some extra features necessary for web applications. It differs from a normal
+ApplicationContext
+in that it is capable of resolving themes, and that it knows which servlet it is associated with.</t>
+  </si>
+  <si>
+    <t>Ans)
+Following are some of the advantages of Spring MVC over Struts MVC:
+Spring''s MVC is very versatile and flexible based on interfaces but Struts forces Actions and Form object into concrete inheritance.
+Spring provides both interceptors and controllers, thus helps to factor out common behavior to the handling of many requests.
+Spring can be configured with different view technologies like Freemarker, JSP, Tiles, Velocity, XLST etc. and also you can create your own custom view mechanism by implementing Spring View interface.
+In Spring MVC Controllers can be configured using DI (IOC) that makes its testing and integration easy.
+Web tier of Spring MVC is easy to test than Struts web tier, because of the avoidance of forced concrete inheritance and explicit dependence of controllers on the dispatcher servlet.
+Struts force your Controllers to extend a Struts class but Spring doesn''t, there are many convenience Controller implementations that you can choose to extend.
+In Struts, Actions are coupled to the view by defining ActionForwards within a ActionMapping or globally. SpringMVC has HandlerMapping interface to support this functionality.
+With Struts, validation is usually performed (implemented) in the validate method of an ActionForm. In SpringMVC, validators are business objects that are NOT dependent on the Servlet API which makes these validators to be reused in your business logic before persisting a domain object to a database.</t>
+  </si>
+  <si>
+    <t>Ans)
+Controllers provide access to the application behavior that you typically define through a service interface. Controllers interpret user input and transform it into a model that is represented to the user by the view. Spring implements a controller in a very abstract way, which enables you to create a wide variety of controllers.</t>
+  </si>
+  <si>
+    <t>Ans)
+The
+@Controller
+annotation indicates that a particular class serves the role of a controller. Spring does not require you to extend any controller base class or reference the Servlet API.</t>
+  </si>
+  <si>
+    <t>Ans)
+@RequestMapping
+annotation is used to map a URL to either an entire class or a particular handler method.</t>
+  </si>
+  <si>
+    <t>Ans)
+There are two ways to access hibernate using spring:
+Inversion of Control with a Hibernate Template and Callback.
+Extending HibernateDAOSupport and Applying an AOP Interceptor node.</t>
+  </si>
+  <si>
+    <t>Ans) Spring supports the following ORM''s :
+Hibernate
+iBatis
+JPA (Java Persistence API)
+TopLink
+JDO (Java Data Objects)
+OJB</t>
+  </si>
+  <si>
+    <t>Explain the @Controller annotation.</t>
+  </si>
+  <si>
+    <t>Explain @RequestMapping annotation.</t>
+  </si>
+  <si>
+    <t>What is servlet?</t>
+  </si>
+  <si>
+    <t>What is the use of servlet?</t>
+  </si>
+  <si>
+    <t>What is the life cycle of servlet?</t>
+  </si>
+  <si>
+    <t>Why do we need constructor in servlet if we use the init ()?</t>
+  </si>
+  <si>
+    <t>How servlet is loaded?</t>
+  </si>
+  <si>
+    <t>When the servlet is unloaded?</t>
+  </si>
+  <si>
+    <t>What is servlet interface?</t>
+  </si>
+  <si>
+    <t>What is the generic servlet class?</t>
+  </si>
+  <si>
+    <t>What is the difference between GenericServlet and HttpServlet?</t>
+  </si>
+  <si>
+    <t>Why HttpServlet class is declared abstract?</t>
+  </si>
+  <si>
+    <t>Can servlet have a constructor?</t>
+  </si>
+  <si>
+    <t>What are the type of protocols supported by the HttpServlet?</t>
+  </si>
+  <si>
+    <t>What is the difference between the doGet () and doPost ()?</t>
+  </si>
+  <si>
+    <t>When to use doGet() and when doPost()?</t>
+  </si>
+  <si>
+    <t>How do I support both doGet () and doPost () from same servlet?</t>
+  </si>
+  <si>
+    <t>Should I override the service () method?</t>
+  </si>
+  <si>
+    <t>What is the ServletContext?</t>
+  </si>
+  <si>
+    <t>What is the difference between the ServletConfig and ServletContext interface?</t>
+  </si>
+  <si>
+    <t>What is the difference between forward () and sendRedirect ()?</t>
+  </si>
+  <si>
+    <t>What is the difference between forward() and include()?</t>
+  </si>
+  <si>
+    <t>What is the use of servlet wrapper classes?</t>
+  </si>
+  <si>
+    <t>What is a deployment descriptor?</t>
+  </si>
+  <si>
+    <t>What is the preinitialization of servlet?</t>
+  </si>
+  <si>
+    <t>What is the &lt;load-on-startup&gt; element?</t>
+  </si>
+  <si>
+    <t>What is session?</t>
+  </si>
+  <si>
+    <t>What is the session tracking?</t>
+  </si>
+  <si>
+    <t>What is the need of session tracking in web application?</t>
+  </si>
+  <si>
+    <t>What are the different types of session tracking?</t>
+  </si>
+  <si>
+    <t>How do I use cookies to store session state on client?</t>
+  </si>
+  <si>
+    <t>What are the advantages of storing session state in cookies?</t>
+  </si>
+  <si>
+    <t>What is URL rewriting?</t>
+  </si>
+  <si>
+    <t>How can destroyed session in servlet?</t>
+  </si>
+  <si>
+    <t>What is servlet lazy loading?</t>
+  </si>
+  <si>
+    <t>What is servlet chaining?</t>
+  </si>
+  <si>
+    <t>What is filter?</t>
+  </si>
+  <si>
+    <t>What are the advantages of jsp over servlet?</t>
+  </si>
+  <si>
+    <t>What is the life cycle of jsp?</t>
+  </si>
+  <si>
+    <t>What is the jspInit() method?</t>
+  </si>
+  <si>
+    <t>What is the _jspService ()?</t>
+  </si>
+  <si>
+    <t>What is the jspDestroy ()?</t>
+  </si>
+  <si>
+    <t>What jsp life cycle method can I override?</t>
+  </si>
+  <si>
+    <t>What are implicit objects in jsp?</t>
+  </si>
+  <si>
+    <t>How many implicit objects are available in jsp?</t>
+  </si>
+  <si>
+    <t>What are jsp directives?</t>
+  </si>
+  <si>
+    <t>What is page directive?</t>
+  </si>
+  <si>
+    <t>What are the attributes of page directive?</t>
+  </si>
+  <si>
+    <t>What is the include directive?</t>
+  </si>
+  <si>
+    <t>What are the jsp standard actions?</t>
+  </si>
+  <si>
+    <t>What are the standards actions available in jsp?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: useBean&gt; standard action?</t>
+  </si>
+  <si>
+    <t>What is the scope available in &lt;jsp: useBean&gt;?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp:forward&gt; standard action?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: include&gt; standard action?</t>
+  </si>
+  <si>
+    <t>What is the difference between include directive and include action?</t>
+  </si>
+  <si>
+    <t>What is the difference between pageContext.include () and &lt;jsp: include&gt;?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: setProperty&gt; action?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: getProperty&gt; action?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: param&gt; standard action?</t>
+  </si>
+  <si>
+    <t>What is the &lt;jsp: plugin&gt; action?</t>
+  </si>
+  <si>
+    <t>What is the scripting element?</t>
+  </si>
+  <si>
+    <t>What is the scriptlet?</t>
+  </si>
+  <si>
+    <t>What is the jsp declaration?</t>
+  </si>
+  <si>
+    <t>What is the jsp expression?</t>
+  </si>
+  <si>
+    <t>How is scripting disabled?</t>
+  </si>
+  <si>
+    <t>Why is _jspService () start with ‘_’?</t>
+  </si>
+  <si>
+    <t>How to pre-compile jsp?</t>
+  </si>
+  <si>
+    <t>What is the benefit of pre-compile jsp page?</t>
+  </si>
+  <si>
+    <t>What is the difference between variable declared inside the declaration tag and variable declared in scriptlet?</t>
+  </si>
+  <si>
+    <t>What are the three kind of comment in jsp?</t>
+  </si>
+  <si>
+    <t>What is the output comment?</t>
+  </si>
+  <si>
+    <t>What is a hidden comment?</t>
+  </si>
+  <si>
+    <t>How does jsp handle the run time exception?</t>
+  </si>
+  <si>
+    <t>How can I implement the thread safe jsp page?</t>
+  </si>
+  <si>
+    <t>Is there a way to reference the “this” variable within the jsp?</t>
+  </si>
+  <si>
+    <t>Can you make the use of servletOutputStream object within jsp?</t>
+  </si>
+  <si>
+    <t>What is autoflush?</t>
+  </si>
+  <si>
+    <t>What is the different scope available in jsp?</t>
+  </si>
+  <si>
+    <t>When to use application scope?</t>
+  </si>
+  <si>
+    <t>Can a jsp page instantiate a serialized bean?</t>
+  </si>
+  <si>
+    <t>In which situation we can use the static include and dynamic include?</t>
+  </si>
+  <si>
+    <t>What is the JDBC?</t>
+  </si>
+  <si>
+    <t>What are the basic steps of using jdbc in java?</t>
+  </si>
+  <si>
+    <t>What are the main component of jdbc?</t>
+  </si>
+  <si>
+    <t>What is DriverManager?</t>
+  </si>
+  <si>
+    <t>What is Driver?</t>
+  </si>
+  <si>
+    <t>What is the connection?</t>
+  </si>
+  <si>
+    <t>What is the statement?</t>
+  </si>
+  <si>
+    <t>What is the resultset?</t>
+  </si>
+  <si>
+    <t>How we load a database driver with JDBC?</t>
+  </si>
+  <si>
+    <t>What is the JDBC Driver interface?</t>
+  </si>
+  <si>
+    <t>What does the connection objects represents?</t>
+  </si>
+  <si>
+    <t>What is the prepared statement?</t>
+  </si>
+  <si>
+    <t>What is the difference between statement and PreparedStatement?</t>
+  </si>
+  <si>
+    <t>What is the callable statement?</t>
+  </si>
+  <si>
+    <t>How to call a stored procedure from jdbc?</t>
+  </si>
+  <si>
+    <t>What are the types of JDBC Driver?</t>
+  </si>
+  <si>
+    <t>Which type of jdbc driver is the faster one?</t>
+  </si>
+  <si>
+    <t>Does the JDBC-ODBC Bridge support multiple concurrent open statements per connection?</t>
+  </si>
+  <si>
+    <t>What are the standard isolation levels defined by the jdbc?</t>
+  </si>
+  <si>
+    <t>What are the types of resultset?</t>
+  </si>
+  <si>
+    <t>What is the difference between TYPE_SCROLL_INSENSITIVE and TYPE_SCOLL_SENSITIVE?</t>
+  </si>
+  <si>
+    <t>What is the RowSet?</t>
+  </si>
+  <si>
+    <t>What are the different types of RowSet?</t>
+  </si>
+  <si>
+    <t>What is the need of BatchUpdates?</t>
+  </si>
+  <si>
+    <t>What is the data source?</t>
+  </si>
+  <si>
+    <t>What are the advantages of data source?</t>
+  </si>
+  <si>
+    <t>What is the main advantage of connection pooling?</t>
+  </si>
+  <si>
+    <t>What is the multi programming?</t>
+  </si>
+  <si>
+    <t>What is the difference between TCP and UDP?</t>
+  </si>
+  <si>
+    <t>What is socket?</t>
+  </si>
+  <si>
+    <t>What is the advantage of java socket?</t>
+  </si>
+  <si>
+    <t>What is the disadvantage of java socket?</t>
+  </si>
+  <si>
+    <t>What is RMI?</t>
+  </si>
+  <si>
+    <t>What is socket()?</t>
+  </si>
+  <si>
+    <t>What is ServerSocket?</t>
+  </si>
+  <si>
+    <t>What is bind()?</t>
+  </si>
+  <si>
+    <t>What is the Datagram?</t>
+  </si>
+  <si>
+    <t>What is getLocalPort()?</t>
+  </si>
+  <si>
+    <t>What is accept()?</t>
+  </si>
+  <si>
+    <t>What is the network interface?</t>
+  </si>
+  <si>
+    <t>What is the encapsulation technique?</t>
+  </si>
+  <si>
+    <t>How does the race condition occur?</t>
+  </si>
+  <si>
+    <t>What information is needed to create a TCP Socket?</t>
+  </si>
+  <si>
+    <t>Ans)
+A servlet is a Java programming language class that is used to extend the capabilities of servers that host applications accessed by means of a request- response programming model. Before the servlet, CGI scripting language was used as server side programming language.</t>
+  </si>
+  <si>
+    <t>Ans)
+Uses of servlet includes:
+Processing and storing data submitted by an HTML form.
+Providing dynamic content.
+A Servlet can handle multiple request concurrently and be used to develop high performance system
+Managing state information on top of the stateless HTTP.</t>
+  </si>
+  <si>
+    <t>Ans)
+Life cycle of Servlet:
+Servlet class loading
+Servlet instantiation
+Initialization (call the init method)
+Request handling (call the service method)
+Removal from service (call the destroy method)</t>
+  </si>
+  <si>
+    <t>Ans)
+Even though there is an init method in a servlet which gets called to initialize it, a constructor is still required to instantiate the servlet. Even though you as the developer would never need to explicitly call the servlet''s constructor, it is still being used by the container.</t>
+  </si>
+  <si>
+    <t>Ans)
+The servlet is loaded by:
+First request is made.
+Server starts up (auto-load).
+There is only a single instance which answers all requests concurrently. This saves memory and allows a Servlet to easily manage persistent data.
+Administrator manually loads.</t>
+  </si>
+  <si>
+    <t>Ans)
+Servlet gets unloaded when:
+Server shuts down.
+Administrator manually unloads.</t>
+  </si>
+  <si>
+    <t>Ans)
+The central abstraction in the Servlet API is the Servlet interface. All servlets implement this interface, either directly or more commonly by extending a class that implements it.</t>
+  </si>
+  <si>
+    <t>Ans)
+GenericServlet is an abstract class that implements the Servlet interface and the ServletConfig interface. In addition to the methods declared in these two interfaces, this class also provides simple versions of the lifecycle methods init () and destroy (), and implements the log method declared in the ServletContext interface.</t>
+  </si>
+  <si>
+    <t>Ans)
+The difference is:
+The GenericServlet is an abstract class that is extended by HttpServlet to provide HTTP protocol-specific methods. But HttpServlet extends the GenericServlet base class and provides a framework for handling the HTTP protocol.
+The GenericServlet does not include protocol-specific methods for handling request parameters, cookies, sessions and setting response headers. The HttpServlet subclass passes generic service method requests to the relevant doGet () or doPost () method.
+GenericServlet is not specific to any protocol. HttpServlet only supports HTTP and HTTPS protocol.</t>
+  </si>
+  <si>
+    <t>Ans)
+The HttpServlet class is declared abstract because the default implementations of the main service methods do nothing and must be overridden. This is a convenience implementation of the Servlet interface, which means that developers do not need to implement all service methods.
+If your servlet is required to handle doGet () requests for example, there is no need to write a doPost () method too.</t>
+  </si>
+  <si>
+    <t>Ans)
+Yes</t>
+  </si>
+  <si>
+    <t>Ans)
+It extends the GenericServlet base class and provides a framework for handling the HTTP protocol. So, HttpServlet only supports HTTP and HTTPS protocol.</t>
+  </si>
+  <si>
+    <t>Ans)
+The difference is:
+In doGet() the parameters are appended to the URL and sent along with header information. In doPost (),send the information through a socket back to the webserver and it won''t show up in the URL bar.
+The amount of information you can send back using a GET is restricted as URLs can only be 1024 characters. You can send much more information to the server by using post and it''s not restricted to textual data either. It is possible to send files and even binary data such as serialized Java objects!
+DoGet() is a request for information.It does not change anything on the server. (doGet () should be idempotent). doPost () provides information (such as placing an order for merchandise) that the server is expected to remember.</t>
+  </si>
+  <si>
+    <t>Ans)
+Always prefer to use GET (As because GET is faster than POST), except mentioned in the following reason:
+If data is sensitive.
+Data is greater than 1024 characters.
+If your application don''t need bookmarks.</t>
+  </si>
+  <si>
+    <t>Ans)
+The easy way is, just support POST, then have your doGet method call your doPost method.</t>
+  </si>
+  <si>
+    <t>Ans)
+We never override the service method, since the HTTP Servlets have already taken care of it. The default service function invokes the doXXX() method corresponding to the method of the HTTP request. For example, if the HTTP request method is GET, doGet () method is called by default.
+A servlet should override the doXXX() method for the HTTP methods that servlet supports. Because HTTP service method checks the request method and calls the appropriate handler method, it is not necessary to override the service method itself. Only override the appropriate doXXX() method.</t>
+  </si>
+  <si>
+    <t>Ans)
+A servlet context object contains the information about the Web application of which the servlet is a part. It also provides access to the resources common to all the servlets in the application. Each Web application in a container has a single servlet context associated with it.</t>
+  </si>
+  <si>
+    <t>Ans)
+The ServletConfig interface is implemented by the servlet container in order to pass configuration information to a servlet. The server passes an object that implements the ServletConfig interface to the servlet''s init () method. A ServletContext defines a set of methods that a servlet uses to communicate with its servlet container.</t>
+  </si>
+  <si>
+    <t>Ans)
+The difference is:
+A forward is performed internally by the servlet. A redirect is a two step process, where the web application instructs the browser to fetch a second URL, which differs from the original.
+The browser is completely unaware that it has taken place, so its original URL remains intact. But in sendRedirect, the browser, in this case, is doing the work and knows that it''s making a new request.</t>
+  </si>
+  <si>
+    <t>Ans)
+The RequestDispatcher include() method inserts the contents of the specified resource directly in the flow of the servlet response, as if it were part of the calling servlet. The RequestDispatcher forward() method is used to show a different resource in place of the servlet that was originally called.</t>
+  </si>
+  <si>
+    <t>Ans)
+The HttpServletRequestWrapper and HttpServletResponseWrapper classes are designed to make it easy for developers to create custom implementations of the servlet request and response types.
+The classes are constructed with the standard HttpServletRequest and HttpServletResponse instances respectively and their default behaviour is to pass all method calls directly to the underlying objects.</t>
+  </si>
+  <si>
+    <t>Ans)
+A deployment descriptor is an XML document with an .xml extension. It defines a component''s deployment settings. It declares transaction attributes and security authorization for an enterprise bean.
+The information provided by a deployment descriptor is declarative and therefore it can be modified without changing the source code of a bean.</t>
+  </si>
+  <si>
+    <t>Ans)
+A container does not initialize the servlets as soon as it starts up; it initializes a servlet when it receives a request for that servlet first time. This is called lazy loading.
+The servlet specification defines the element, which can be specified in the deployment descriptor to make the servlet container load and initialize the servlet as soon as it starts up. The process of loading a servlet before any request comes in is called preloading or preinitializing a servlet.</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;load-on-startup&gt; element of a deployment descriptor is used to load a servlet file when the server starts instead of waiting for the first request. It is also used to specify the order in which the files are to be loaded.</t>
+  </si>
+  <si>
+    <t>Ans)
+A session refers to all the requests that a single client might make to a server in the course of viewing any pages associated with a given application. Sessions are specific to both the individual user and the application.</t>
+  </si>
+  <si>
+    <t>Ans)
+Session tracking is a mechanism that servlets use to maintain state about a series of requests from the same user (requests originating from the same browser) across some period of time.</t>
+  </si>
+  <si>
+    <t>Ans)
+HTTP is a stateless protocol. Every request is treated as new request. For web applications to be more realistic they have to retain information across multiple requests. Such information which is part of the application is referred as "state". To keep track of this state we need session tracking.</t>
+  </si>
+  <si>
+    <t>Ans)
+Different types are:
+URL rewriting
+Hidden Form Fields
+Cookies
+Secure Socket Layer (SSL) Sessions</t>
+  </si>
+  <si>
+    <t>Ans)
+In a servlet, the HttpServletResponse and HttpServletRequest objects passed to method HttpServlet. Service () can be used to create cookies on the client and use cookie information transmitted during client requests. JSPs can also use cookies, in scriptlet code or, preferably, from within custom tag code.
+To set a cookie on the client, use the addCookie() method in class HttpServletResponse. Multiple cookies may be set for the same request, and a single cookie name may have multiple values.
+To get all of the cookies associated with a single HTTP request, use the getCookies() method of class HttpServletRequest</t>
+  </si>
+  <si>
+    <t>Ans)
+Cookies are usually persistent, so for low-security sites, user data that needs to be stored long-term (such as a user ID, historical information, etc.) can be maintained easily with no server interaction. 
+For small- and medium-sized session data, the entire session data (instead of just the session ID) can be kept in the cookie.</t>
+  </si>
+  <si>
+    <t>Ans)
+URL rewriting is a method of session tracking in which some extra data is appended at the end of each URL. This extra data identifies the session. The server can associate this session identifier with the data it has stored about that session.</t>
+  </si>
+  <si>
+    <t>Ans)
+Using session.invalidate() method.</t>
+  </si>
+  <si>
+    <t>Ans)
+A container does not initialize the servlets as soon as it starts up; it initializes a servlet when it receives a request for that servlet first time. This is called lazy loading.</t>
+  </si>
+  <si>
+    <t>Ans)
+Servlet Chaining is a method where the output of one servlet is piped into a second servlet. The output of the second servlet could be piped into a third servlet, and so on. The last servlet in the chain returns the output to the Web browser</t>
+  </si>
+  <si>
+    <t>Ans)
+Filters are Java components that are used to intercept an incoming request to a Web resource and a response sent back from the resource. It is used to abstract any useful information contained in the request or response.</t>
+  </si>
+  <si>
+    <t>Ans)
+The advantage of JSP is that they are document-centric. Servlets, on the other hand, look and act like programs. A Java Server Page can contain Java program fragments that instantiate and execute Java classes, but these occur inside an HTML template file and are primarily used to generate dynamic content.
+Some of the JSP functionality can be achieved on the client, using JavaScript. The power of JSP is that it is server-based and provides a framework for Web application development.</t>
+  </si>
+  <si>
+    <t>Ans)
+Life cyle of jsp:
+Translation
+Compilation
+Loading the class
+Instantiating the class
+jspInit()
+_jspService()
+jspDestroy()</t>
+  </si>
+  <si>
+    <t>Ans)
+The jspInit() method of the javax.servlet.jsp.JspPage interface is similar to the init() method of servlets. This method is invoked by the container only once when a JSP page is initialized. It can be overridden by a page author to initialize resources such as database and network connections, and to allow a JSP page to read persistent configuration data.</t>
+  </si>
+  <si>
+    <t>Ans)
+The _jspService() method of the javax.servlet.jsp.HttpJspPage interface is invoked every time a new request comes to a JSP page. This method takes the HttpServletRequest and HttpServletResponse objects as its arguments. A page author cannot override this method, as its implementation is provided by the container.</t>
+  </si>
+  <si>
+    <t>Ans)
+The jspDestroy() method of the javax.servlet.jsp.JspPage interface is invoked by the container when a JSP page is about to be destroyed. This method is similar to destroy() method of servlets. It can be overridden by a page author to perform any cleanup operation such as closing a database connection.</t>
+  </si>
+  <si>
+    <t>Ans)
+You cannot override the _jspService() method within a JSP page. You can however, override the jspInit() and jspDestroy() methods within a JSP page. JspInit() can be useful for allocating resources like database connections, network connections, and so forth for the JSP page. It is good programming practice to free any allocated resources within jspDestroy().</t>
+  </si>
+  <si>
+    <t>Ans)
+Implicit objects in JSP are the Java objects that the JSP Container makes available to developers in each page. These objects need not be declared or instantiated by the JSP author. They are automatically instantiated by the container and are accessed using standard variables; hence, they are called implicit objects.</t>
+  </si>
+  <si>
+    <t>Ans)
+These implicit objects are available in jsp:
+Request
+Response
+PageContext
+session
+application
+Out
+config
+page
+exception</t>
+  </si>
+  <si>
+    <t>Ans)
+JSP directives are messages for the JSP engine. i.e., JSP directives serve as a message from a JSP page to the JSP container and control the processing of the entire page.
+They are used to set global values such as a class declaration, method implementation, output content type, etc. They do not produce any output to the client.</t>
+  </si>
+  <si>
+    <t>Ans)
+Page Directive is:
+A page directive is to inform the JSP engine about the headers or facilities that page should get from the environment.
+The page directive is found at the top of almost all of our JSP pages.
+There can be any number of page directives within a JSP page (although the attribute – value pair must be unique).
+The syntax of the include directive is: &lt;%@ page attribute="value"&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+There are thirteen attributes defined for a page directive of which the important attributes are as follows:
+Import:
+It specifies the packages that are to be imported.
+Session:
+It specifies whether a session data is available to the JSP page.
+ContentType:
+It allows a user to set the content-type for a page.
+IsELIgnored:
+It specifies whether the EL expressions are ignored when a JSP is translated to a servlet.</t>
+  </si>
+  <si>
+    <t>Ans)
+Include directive is used to statically insert the contents of a resource into the current JSP. This enables a user to reuse the code without duplicating it, and includes the contents of the specified file at the translation time.</t>
+  </si>
+  <si>
+    <t>Ans)
+The JSP standard actions affect the overall runtime behaviour of a JSP page and also the response sent back to the client. They can be used to include a file at the request time, to find or instantiate a Java Bean, to forward a request to a new page, to generate a browser-specific code, etc.</t>
+  </si>
+  <si>
+    <t>Ans)
+The standards actions include:
+&lt;jsp:include&gt;
+&lt;jsp:forward&gt;
+&lt;jsp:useBean&gt;
+&lt;jsp:setProperty&gt;
+&lt;jsp:getProperty&gt;
+&lt;jsp:param&gt;
+&lt;jsp:plugin&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp: useBean&gt; standard action is used to locate an existing Java Bean or to create a Java Bean if it does not exist. It has attributes to identify the object instance, to specify the lifetime of the bean, and to specify the fully qualified class path and type.</t>
+  </si>
+  <si>
+    <t>Ans)
+Scope includes:
+Page scope
+Request scope
+application scope
+session scope</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp:forward&gt; standard action forwards a response from a servlet or a JSP page to another page. The execution of the current page is stopped and control is transferred to the forwarded page.</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp: include&gt; standard action enables the current JSP page to include a static or a dynamic resource at runtime. In contrast to the include directive, include action is used for resources that change frequently. The resource to be included must be in the same context.</t>
+  </si>
+  <si>
+    <t>Ans)
+The difference is:
+Include directive, includes the content of the specified file during the translation phase–when the page is converted to a servlet. Include action, includes the response generated by executing the specified page (a JSP page or a servlet) during the request processing phase–when the page is requested by a user.
+Include directive is used to statically insert the contents of a resource into the current JSP.  Include standard action enables the current JSP page to include a static or a dynamic resource at runtime.</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp: include&gt; standard action and the pageContext.include() method are both used to include resources at runtime. However, the pageContext.include () method always flushes the output of the current page before including the other components, whereas &lt;jsp: include&gt; flushes the output of the current page only if the value of flush is explicitly set to true.</t>
+  </si>
+  <si>
+    <t>Ans)
+You use jsp: setProperty to give values to properties of beans that have been referenced earlier.</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp: getProperty&gt; action is used to access the properties of a bean that was set using the
+action. The container converts the property to a String as follows:
+If it is an object, it uses the toString() method to convert it to a String. If it is a primitive, it converts it directly to a String using the valueOf() method of the corresponding Wrapper class.
+The syntax of the &lt;jsp: getProperty&gt; method is: &lt;jsp: getProperty name="Name" property="Property" /&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+The &lt;jsp: param&gt; standard action is used with &lt;jsp: include&gt; or &lt;jsp: forward&gt; to pass parameter names and values to the target resource.</t>
+  </si>
+  <si>
+    <t>Ans)
+This action lets you insert the browser-specific OBJECT or EMBED element needed to specify that the browser run an applet using the Java plugin.</t>
+  </si>
+  <si>
+    <t>Ans)
+JSP scripting elements let you insert Java code into the servlet that will be generated from the current JSP page.
+Expressions
+Scriptlet
+Declarations
+comment</t>
+  </si>
+  <si>
+    <t>Ans)
+A scriptlet contains Java code that is executed every time a JSP is invoked. When a JSP is translated to a servlet, the scriptlet code goes into the service() method.
+Hence, methods and variables written in scriptlet are local to the service() method. A scriptlet is written between the &lt;% and %&gt;tags and is executed by the container at request processing time.</t>
+  </si>
+  <si>
+    <t>Ans)
+JSP declarations are used to declare class variables and methods in a JSP page. They are initialized when the class is initialized. Anything defined in a declaration is available for the whole JSP page. A declaration block is enclosed between the &lt;%! and %&gt;tags. A declaration is not included in the service() method when a JSP is translated to a servlet.</t>
+  </si>
+  <si>
+    <t>Ans)
+A JSP expression is used to write an output without using the out.print statement. It can be said as a shorthand representation for scriptlet. An expression is written between the &lt;%= and %&gt; tags. It is not required to end the expression with a semicolon, as it implicitly adds a semicolon to all the expressions within the expression tags.</t>
+  </si>
+  <si>
+    <t>Ans)
+Scripting is disabled by setting the scripting-invalid element of the deployment descriptor to true. It is a subelement of jsp-property-group. Its valid values are true and false.</t>
+  </si>
+  <si>
+    <t>Ans)
+_jspService() method will be written by the container hence any methods which are not to be overridden by the end user are typically written starting with a ''_''. This is the reason why we don''t override _jspService() method in any JSP page.</t>
+  </si>
+  <si>
+    <t>Ans)
+Add jsp_precompile as a request parameter and send a request to the JSP file. This will make the jsp pre-compile.
+http://localhost:8080/jsp1/test.jsp?jsp_precompile=true
+It causes execution of JSP life cycle until jspInit() method without executing _jspService() method.</t>
+  </si>
+  <si>
+    <t>Ans)
+It removes the start-up lag that occurs when a container must translate a JSP page upon receipt of the first request.</t>
+  </si>
+  <si>
+    <t>Ans)
+Variable declared inside declaration part is treated as a instance variable and will be placed directly at class level in the generated servlet. Variable declared in a scriptlet will be placed inside _jspService () method of generated servlet. It acts as local variable.</t>
+  </si>
+  <si>
+    <t>Ans)
+These are the three types of commenst in jsp:
+JSP Comment:  &lt;%-- this is jsp comment -- %&gt;
+HTML Comment: &lt;!--  this is HTMl comment -- &gt;
+Java Comments:
+&lt;%
+ // single line java comment
+/* this is multiline comment */
+%&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+The comment which is visible in the source of the response is called output comment.
+     &lt;!--  this is HTMl comment -- &gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+This is also known as JSP comment and it is visible only in the JSP and in rest of phases of JSP life cycle it is not visible.
+  &lt;%-- this is jsp comment -- %&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+You can use the errorPage attribute of the page directive to have uncaught run-time exceptions automatically forwarded to an error processing page.</t>
+  </si>
+  <si>
+    <t>Ans)
+You can make your JSPs thread-safe by having them implement the SingleThreadModel interface. This is done by adding the directive in the JSP.
+  &lt;%@ page isThreadSafe="false" %&gt;</t>
+  </si>
+  <si>
+    <t>Ans)
+Yes, there is. The page implicit object is equivalent to "this", and returns a reference to the generated servlet.</t>
+  </si>
+  <si>
+    <t>Ans)
+Yes. By using getOutputStream () method on response implicit object we can get it.</t>
+  </si>
+  <si>
+    <t>Ans)
+This command is used to autoflush the contents. If a value of true is used it indicates to flush the buffer whenever it is full. In case of false it indicates that an exception should be thrown whenever the buffer is full. If you are trying to access the page at the time of conversion of a JSP into servlet will result in error.</t>
+  </si>
+  <si>
+    <t>Ans)
+The different scopes are:
+Page:
+Within the same page.
+Request:
+After forward or include also you will get the request scope data.
+Session:
+After sendRedirect also you will get the session scope data. All data stored in session is available to end user till session closed or browser closed.
+Application:
+Data will be available throughout the application. One user can store data in application scope and other can get the data from application scope.</t>
+  </si>
+  <si>
+    <t>Ans)
+If we want to make our data available to the entire application then we have to use application scope.</t>
+  </si>
+  <si>
+    <t>Ans)
+No problem! The use Bean action specifies the bean Name attribute, which can be used for indicating a serialized bean.</t>
+  </si>
+  <si>
+    <t>Ans)
+If the target resource won’t change frequently, then it is recommended to use include directives.
+If the target resource will change frequently, then it is recommended to use include action.</t>
+  </si>
+  <si>
+    <t>Ans)
+Java Database Connectivity (JDBC) is a standard Java API to interact with relational databases form Java. JDBC has set of classes and interfaces which can use from Java application and talk to database without learning RDBMS details and using Database Specific JDBC Drivers</t>
+  </si>
+  <si>
+    <t>Ans)
+The basic steps are:
+Load the RDBMS specific JDBC driver because this driver actually communicates with the database.
+Open the connection to database which is then used to send SQL statements and get results back.
+Create JDBC Statement object. This object contains SQL query.
+Execute statement which returns resultset(s). Resultset contains the tuples of database table as a result of SQL query.
+Process the result set.
+Close the connection.</t>
+  </si>
+  <si>
+    <t>Ans)
+The main components are:
+DriverManager
+Driver
+Connection
+Statement
+Resultset</t>
+  </si>
+  <si>
+    <t>Ans)
+DriverManager is a static class. It manages a list of database drivers. Matches connection requests from the java application with the proper database driver using communication sub protocol. The first driver that recognizes a certain sub protocol under JDBC will be used to establish a database Connection.</t>
+  </si>
+  <si>
+    <t>Ans)
+The JDBC API defines the Java interfaces and classes that programmers use to connect to databases and send queries. A JDBC driver implements these interfaces and classes for a particular DBMS vendor.database communications link, handling all communication with the database.
+Normally, once the driver is loaded, the developer need not call it explicitly.</t>
+  </si>
+  <si>
+    <t>Ans)
+Interface with all methods for contacting a database. The connection object represents communication context, i.e., all communication with database is through connection object only</t>
+  </si>
+  <si>
+    <t>Ans)
+Encapsulates an SQL statement which is passed to the database.</t>
+  </si>
+  <si>
+    <t>Ans)
+The Resultset represents set of rows retrieved due to query execution.</t>
+  </si>
+  <si>
+    <t>Ans)
+Provided the JAR file containing the driver is properly configured, just place the JAR file in the classpath. Java developers NO longer need to explicitly load JDBC drivers using code like Class.forName() to register a JDBC driver.
+The DriverManager class takes care of this by automatically locating a suitable driver when the DriverManager.getConnection() method is called. This feature is backward-compatible, so no changes are needed to the existing JDBC code.</t>
+  </si>
+  <si>
+    <t>Ans)
+The JDBC Driver interface provides vendor-specific implementations of the abstract classes provided by the JDBC API. Each vendor driver must provide implementations of the java.sql.Connection,Statement,PreparedStatement, CallableStatement, ResultSet and Driver</t>
+  </si>
+  <si>
+    <t>Ans)
+The connection object represents communication context, i.e., all communication with database is through connection object only.</t>
+  </si>
+  <si>
+    <t>Ans)
+Statement acts like a vehicle through which SQL commands can be sent. Through the connection object we create statement kind of objects.</t>
+  </si>
+  <si>
+    <t>Ans)
+A prepared statement is an SQL statement that is precompiled by the database. Through precompilation, prepared statements improve the performance of SQL commands that are executed multiple times. Once compiled, prepared statements can be customized prior to each execution by altering predefined SQL parameters.</t>
+  </si>
+  <si>
+    <t>Ans)
+The difference is:
+A standard Statement is used to create a Java representation of a literal SQL statement and execute it on the database. A PreparedStatement is a precompiled statement. This means that when the PreparedStatement is executed, the RDBMS can just run the PreparedStatement SQL statement without having to compile it first.
+Statement has to verify its metadata against the database every time. While a prepared statement has to verify its metadata against the database only once.
+If you want to execute the SQL statement once go for STATEMENT. If you want to execute a single SQL statement multiple number of times, then go for PREPAREDSTATEMENT. PreparedStatement objects can be reused with passing different values to the queries</t>
+  </si>
+  <si>
+    <t>Ans)
+Callable statements are used from JDBC application to invoke stored procedures and functions.</t>
+  </si>
+  <si>
+    <t>Ans)
+PL/SQL stored procedures are called from within JDBC programs by means of the prepareCall() method of the Connection object created. A call to this method takes variable bind parameters as input parameters as well as output variables and creates an object instance of the CallableStatement class.</t>
+  </si>
+  <si>
+    <t>Ans)
+The types are:
+Type 1: JDBC/ODBC
+Type2: Native API (partly-Java driver)
+Type 3: Open Protocol-Net
+Type 4: Proprietary Protocol-Net(pure Java driver)</t>
+  </si>
+  <si>
+    <t>Ans)
+JDBC Net pure Java driver(Type IV) is the fastest driver because it converts the JDBC calls into vendor specific protocol calls and it directly interacts with the database.</t>
+  </si>
+  <si>
+    <t>Ans)
+No, You can open only one Statement object per connection when you are using the JDBC-ODBC Bridge.</t>
+  </si>
+  <si>
+    <t>Ans)
+The standard isolation levels are:
+TRANSACTION_NONE
+TRANSACTION_READ_COMMITTED
+TRANSACTION_READ_UNCOMMITTED
+TRANSACTION_REPEATABLE_READ
+TRANSACTION_SERIALIZABLE</t>
+  </si>
+  <si>
+    <t>Ans)
+The ResultSet represents set of rows retrieved due to query execution.
+Example: ResultSetrs = stmt.executeQuery(sqlQuery);</t>
+  </si>
+  <si>
+    <t>Ans)
+The types are:
+TYPE_FORWARD_ONLY specifies that a resultset is not scrollable, that is, rows within it can be advanced only in the forward direction.
+TYPE_SCROLL_INSENSITIVE specifies that a resultset is scrollable in either direction but is insensitive to changes committed by other transactions or other statements in the same transaction.
+TYPE_SCROLL_SENSITIVE specifies that a resultset is scrollable in either direction and is affected by changes committed by other transactions or statements within the same transaction.</t>
+  </si>
+  <si>
+    <t>Ans)
+An insensitive resultset is like the snapshot of the data in the database when query was executed. A sensitive resultset does NOT represent a snapshot of data; rather it contains points to those rows which satisfy the query condition.
+After we get the resultset the changes made to data are not visible through the resultset, and hence they are known as insensitive. After we obtain the resultset if the data is modified then such modifications are visible through resultset.</t>
+  </si>
+  <si>
+    <t>Ans)
+A RowSet is an object that encapsulates a set of rows from either Java Database Connectivity (JDBC) result sets or tabular data sources like a file or spreadsheet. RowSets support component-based development models like JavaBeans, with a standard set of properties and an event notification mechanism.</t>
+  </si>
+  <si>
+    <t>Ans)
+The different types are:
+Connected - A connected RowSet object connects to the database once and remains connected until the application terminates.
+Disconnected - A disconnected RowSet object connects to the database, executes a query to retrieve the data from the database and then closes the connection. A program may change the data in a disconnected RowSet while it is disconnected. Modified data can be updated in the database after a disconnected RowSet re-establishes the connection with the database.</t>
+  </si>
+  <si>
+    <t>Ans)
+The BatchUpdates feature allows us to group SQL statements together and send to database server in one single trip.</t>
+  </si>
+  <si>
+    <t>Ans)
+A DataSource object is the representation of a data source in the Java programming language. In basic terms,
+A DataSource is a facility for storing data.
+DataSource can be referenced by JNDI.
+Data Source may point to RDBMS; file System, any DBMS etc.</t>
+  </si>
+  <si>
+    <t>Ans)
+The advantages are:
+An application does not need to hardcode driver information, as it does with the DriverManager.
+The DataSource implementations can easily change the properties of data sources.
+The DataSource facility allows developers to implement a DataSource class to take advantage of features like connection pooling and distributed transactions.</t>
+  </si>
+  <si>
+    <t>Ans)
+A connection pool is a mechanism to reuse connections created. Connection pooling can increase performance dramatically by reusing connections rather than creating a new physical connection each time a connection is requested.</t>
+  </si>
+  <si>
+    <t>Ans)
+Multiprogramming is a rapid switching of the CPU back and forth between processes.</t>
+  </si>
+  <si>
+    <t>Ans)
+TCP is designed to provide reliable communication across a variety of reliable and unreliable networks and internets.UDP provides a connectionless so it isbasically an unreliable service. Delivery and duplicate protection are not guaranteed.</t>
+  </si>
+  <si>
+    <t>Ans)
+The combination of an IP address and a port number is called a socket.</t>
+  </si>
+  <si>
+    <t>Ans)
+The advantages are:
+Sockets are flexible and sufficient.
+Efficient socket based programming can be easily implemented for general communications.
+Sockets cause low network traffic.</t>
+  </si>
+  <si>
+    <t>Ans)
+The disadvantages are:
+Security restrictions are sometimes overbearing because a Java applet running in a Web browser is only able to establish connections to the machine where it came from, and to nowhere else on the network.
+Despite all of the useful and helpful Java features, Socket based communications allows only to send packets of raw data between applications. Both the client-side and server-side have to provide mechanisms to make the data useful in any way.
+Since the data formats and protocols remain application specific, the re-use of socket based implementations is limited.</t>
+  </si>
+  <si>
+    <t>Ans)
+It stands for Remote Method Invocation. RMI is a set of APIs that allows to build distributed applications. RMI uses interfaces to define remote objects to turn local method invocations into remote method invocations.</t>
+  </si>
+  <si>
+    <t>Ans)
+The socket () is very similar to socketPair() except that only one socket is created instead of two. This is most commonly used when if the process you wish to communicate with is not the child process.</t>
+  </si>
+  <si>
+    <t>Ans)
+The ServerSocket class is used to create serverSocket. This object is used to communicate with client.</t>
+  </si>
+  <si>
+    <t>Ans)
+It binds the socket to the specified server and port in the SocketAddress object. Use this method if you instantiated the ServerSocket using the no-argument constructor.</t>
+  </si>
+  <si>
+    <t>Ans)
+A datagram is an independent, self-contained message sent over the network whose arrival, arrival time, and content are not guaranteed.</t>
+  </si>
+  <si>
+    <t>Ans)
+It returns the port that the server socket is listening on. This method is useful if you passed in 0 as the port number in a constructor and let the server find a port for you.</t>
+  </si>
+  <si>
+    <t>Ans)
+It waits for an incoming client. This method blocks until either a client connects to the server on the specified port or the socket times out, assuming that the time-out value has been set using the setSoTimeout() method. Otherwise, this method blocks indefinitely.</t>
+  </si>
+  <si>
+    <t>Ans)
+A network interface is the point of interconnection between a computer and a private or public network. A network interface is generally a network interface card (NIC), but does not have to have a physical form.</t>
+  </si>
+  <si>
+    <t>Ans)
+Hiding data within the class and making it available only through the methods. This technique is used to protect your class against accidental changes to fields, which might leave the class in an inconsistent state.</t>
+  </si>
+  <si>
+    <t>Ans)
+It occurs when two or more processes are reading or writing some shared data and the final result depends on who runs precisely when.</t>
+  </si>
+  <si>
+    <t>Ans)
+Socket is created from this information:
+Local System's: IP Address and Port Number
+Remote System’s: IPAddress and Port Number</t>
   </si>
 </sst>
 </file>
@@ -3223,7 +4886,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,14 +5095,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into categories values (13,'EJB','EJB');</v>
+        <v>insert into categories values (13,'Spring','Spring');</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3477,14 +5140,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into categories values (16,'Spring','Spring');</v>
+        <v>insert into categories values (16,'EJB','EJB');</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,9 +5217,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A397" sqref="A397"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7094,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ref="E196:E209" si="3">"insert into Questions values("&amp;A196&amp;","&amp;B196&amp;",'Q) "&amp;C196&amp;"',"&amp;D196&amp;");"</f>
+        <f t="shared" ref="E196:E259" si="3">"insert into Questions values("&amp;A196&amp;","&amp;B196&amp;",'Q) "&amp;C196&amp;"',"&amp;D196&amp;");"</f>
         <v>insert into Questions values(195,11,'Q) How do I prevent the output of my JSP or Servlet pages from being cached by the browser?',0);</v>
       </c>
     </row>
@@ -7330,6 +8995,3390 @@
       <c r="E209" t="str">
         <f t="shared" si="3"/>
         <v>insert into Questions values(208,2,'Q) How to find the size of an object?',0);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>442</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(209,13,'Q) What is Spring?',0);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(210,13,'Q) what are benefits of using spring?',0);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>444</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(211,13,'Q) What are the different modules in Spring framework?',0);</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>445</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(212,13,'Q) What is Spring configuration file?',0);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>446</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(213,13,'Q) What is Dependency Injection?',0);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>447</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(214,13,'Q) What are the different types of IoC (dependency injection)?',0);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>448</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(215,13,'Q) Which DI would you suggest Constructor-based or setter-based DI?',0);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>449</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(216,13,'Q) What are the benefits of IOC?',0);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>450</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(217,13,'Q) What is AOP?',0);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>451</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(218,13,'Q) What is Spring IoC container?',0);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>452</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(219,13,'Q) What are types of IoC containers? Explain them.',0);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>453</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(220,13,'Q) Give an example of BeanFactory implementation.',0);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>454</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(221,13,'Q) What are the common implementations of the ApplicationContext?',0);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>455</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(222,13,'Q) What is the difference between Bean Factory and ApplicationContext?',0);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>456</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(223,13,'Q) What are Spring beans?',0);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>13</v>
+      </c>
+      <c r="C225" t="s">
+        <v>457</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(224,13,'Q) What does a bean definition contain?',0);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>13</v>
+      </c>
+      <c r="C226" t="s">
+        <v>458</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(225,13,'Q) How do you provide configuration metadata to the Spring Container?',0);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>13</v>
+      </c>
+      <c r="C227" t="s">
+        <v>459</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(226,13,'Q) How do add a bean in spring application?',0);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>13</v>
+      </c>
+      <c r="C228" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(227,13,'Q) How do you define a bean scope?',0);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s">
+        <v>461</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(228,13,'Q) What bean scopes does Spring support? Explain them.',0);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="C230" t="s">
+        <v>462</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(229,13,'Q) What is default scope of bean in Spring framework?',0);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>13</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(230,13,'Q) Are Singleton beans thread safe in Spring Framework?',0);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>13</v>
+      </c>
+      <c r="C232" t="s">
+        <v>464</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(231,13,'Q) Explain Bean lifecycle in Spring framework?',0);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>13</v>
+      </c>
+      <c r="C233" t="s">
+        <v>465</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(232,13,'Q) What are inner beans in Spring?',0);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>466</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(233,13,'Q) How can you inject Java Collection in Spring?',0);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>467</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(234,13,'Q) What is bean auto wiring?',0);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>468</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(235,13,'Q) What are different Modes of auto wiring?',0);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>13</v>
+      </c>
+      <c r="C237" t="s">
+        <v>469</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(236,13,'Q) What are the limitations with autowiring?',0);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>470</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(237,13,'Q) Can you inject null and empty string values in Spring?',0);</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>13</v>
+      </c>
+      <c r="C239" t="s">
+        <v>471</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(238,13,'Q) What is Annotation-based container configuration?',0);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>472</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(239,13,'Q) How do you turn on annotation wiring?',0);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>473</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(240,13,'Q) What does @Required annotation mean?',0);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>13</v>
+      </c>
+      <c r="C242" t="s">
+        <v>474</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(241,13,'Q) What does @Autowired annotation mean?',0);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>13</v>
+      </c>
+      <c r="C243" t="s">
+        <v>475</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(242,13,'Q) What does @Qualifier annotation mean?',0);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>13</v>
+      </c>
+      <c r="C244" t="s">
+        <v>476</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(243,13,'Q) What are the JSR-250 Annotations? Explain them.',0);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>13</v>
+      </c>
+      <c r="C245" t="s">
+        <v>477</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(244,13,'Q) What is Spring Java Based Configuration? Give some annotation example.',0);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>13</v>
+      </c>
+      <c r="C246" t="s">
+        <v>478</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(245,13,'Q) How is event handling done in Spring?',0);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>479</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(246,13,'Q) Describe some of the standard Spring events.',0);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>13</v>
+      </c>
+      <c r="C248" t="s">
+        <v>480</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(247,13,'Q) What is Aspect?',0);</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>481</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(248,13,'Q) What is the difference between concern and cross-cutting concern in Spring AOP?',0);</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>482</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(249,13,'Q) What is Join point?',0);</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s">
+        <v>483</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(250,13,'Q) What is Advice?',0);</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>13</v>
+      </c>
+      <c r="C252" t="s">
+        <v>484</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(251,13,'Q) What is Pointcut?',0);</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>13</v>
+      </c>
+      <c r="C253" t="s">
+        <v>485</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(252,13,'Q) What is Introduction?',0);</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>486</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(253,13,'Q) What is Target object?',0);</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>13</v>
+      </c>
+      <c r="C255" t="s">
+        <v>487</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(254,13,'Q) What is Weaving?',0);</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>13</v>
+      </c>
+      <c r="C256" t="s">
+        <v>488</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(255,13,'Q) What are the different points where weaving can be applied?',0);</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>489</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(256,13,'Q) What are the types of advice?',0);</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>13</v>
+      </c>
+      <c r="C258" t="s">
+        <v>490</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(257,13,'Q) What is XML Schema based aspect implementation?',0);</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>491</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Questions values(258,13,'Q) What is @AspectJ? based aspect implementation?',0);</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>13</v>
+      </c>
+      <c r="C260" t="s">
+        <v>492</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" t="str">
+        <f t="shared" ref="E260:E323" si="4">"insert into Questions values("&amp;A260&amp;","&amp;B260&amp;",'Q) "&amp;C260&amp;"',"&amp;D260&amp;");"</f>
+        <v>insert into Questions values(259,13,'Q) How JDBC can be used more efficiently in spring framework?',0);</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>13</v>
+      </c>
+      <c r="C261" t="s">
+        <v>493</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(260,13,'Q) How JdbcTemplate can be used?',0);</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>13</v>
+      </c>
+      <c r="C262" t="s">
+        <v>494</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(261,13,'Q) What are the types of the transaction management Spring supports?',0);</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263" t="s">
+        <v>495</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(262,13,'Q) Which of the above transaction management type is preferable?',0);</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264" t="s">
+        <v>496</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(263,13,'Q) What is Spring MVC framework?',0);</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s">
+        <v>497</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(264,13,'Q) What is a DispatcherServlet?',0);</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" t="s">
+        <v>498</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(265,13,'Q) What is WebApplicationContext ?',0);</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>499</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(266,13,'Q) What are the advantages of Spring MVC over Struts MVC ?',0);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>13</v>
+      </c>
+      <c r="C268" t="s">
+        <v>500</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(267,13,'Q) What is Controller in Spring MVC framework?',0);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>566</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(268,13,'Q) Explain the @Controller annotation.',0);</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270" t="s">
+        <v>567</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(269,13,'Q) Explain @RequestMapping annotation.',0);</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>501</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(270,13,'Q) What are the ways to access Hibernate by using Spring?',0);</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" t="s">
+        <v>502</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(271,13,'Q) What are ORM''s Spring supports ?',0);</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>568</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(272,12,'Q) What is servlet?',0);</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>569</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(273,12,'Q) What is the use of servlet?',0);</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>570</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(274,12,'Q) What is the life cycle of servlet?',0);</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>571</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(275,12,'Q) Why do we need constructor in servlet if we use the init ()?',0);</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>572</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(276,12,'Q) How servlet is loaded?',0);</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>573</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(277,12,'Q) When the servlet is unloaded?',0);</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>574</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(278,12,'Q) What is servlet interface?',0);</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>575</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(279,12,'Q) What is the generic servlet class?',0);</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>576</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(280,12,'Q) What is the difference between GenericServlet and HttpServlet?',0);</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>577</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(281,12,'Q) Why HttpServlet class is declared abstract?',0);</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>578</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(282,12,'Q) Can servlet have a constructor?',0);</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>579</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(283,12,'Q) What are the type of protocols supported by the HttpServlet?',0);</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>580</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(284,12,'Q) What is the difference between the doGet () and doPost ()?',0);</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>581</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(285,12,'Q) When to use doGet() and when doPost()?',0);</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>582</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(286,12,'Q) How do I support both doGet () and doPost () from same servlet?',0);</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
+      </c>
+      <c r="C288" t="s">
+        <v>583</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(287,12,'Q) Should I override the service () method?',0);</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>12</v>
+      </c>
+      <c r="C289" t="s">
+        <v>584</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(288,12,'Q) What is the ServletContext?',0);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>12</v>
+      </c>
+      <c r="C290" t="s">
+        <v>585</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(289,12,'Q) What is the difference between the ServletConfig and ServletContext interface?',0);</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>586</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(290,12,'Q) What is the difference between forward () and sendRedirect ()?',0);</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>12</v>
+      </c>
+      <c r="C292" t="s">
+        <v>587</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(291,12,'Q) What is the difference between forward() and include()?',0);</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>588</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(292,12,'Q) What is the use of servlet wrapper classes?',0);</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>589</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(293,12,'Q) What is a deployment descriptor?',0);</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>590</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(294,12,'Q) What is the preinitialization of servlet?',0);</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>591</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(295,12,'Q) What is the &lt;load-on-startup&gt; element?',0);</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>592</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(296,12,'Q) What is session?',0);</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>593</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(297,12,'Q) What is the session tracking?',0);</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>594</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(298,12,'Q) What is the need of session tracking in web application?',0);</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>595</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(299,12,'Q) What are the different types of session tracking?',0);</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>596</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(300,12,'Q) How do I use cookies to store session state on client?',0);</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>597</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(301,12,'Q) What are the advantages of storing session state in cookies?',0);</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>598</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(302,12,'Q) What is URL rewriting?',0);</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>599</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(303,12,'Q) How can destroyed session in servlet?',0);</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>600</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(304,12,'Q) What is servlet lazy loading?',0);</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>601</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(305,12,'Q) What is servlet chaining?',0);</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>602</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(306,12,'Q) What is filter?',0);</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>603</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(307,12,'Q) What are the advantages of jsp over servlet?',0);</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>604</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(308,12,'Q) What is the life cycle of jsp?',0);</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>605</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(309,12,'Q) What is the jspInit() method?',0);</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>606</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(310,12,'Q) What is the _jspService ()?',0);</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>607</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(311,12,'Q) What is the jspDestroy ()?',0);</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>608</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(312,12,'Q) What jsp life cycle method can I override?',0);</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>609</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(313,12,'Q) What are implicit objects in jsp?',0);</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>610</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(314,12,'Q) How many implicit objects are available in jsp?',0);</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>611</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(315,12,'Q) What are jsp directives?',0);</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>612</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(316,12,'Q) What is page directive?',0);</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>613</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(317,12,'Q) What are the attributes of page directive?',0);</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>614</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(318,12,'Q) What is the include directive?',0);</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>615</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(319,12,'Q) What are the jsp standard actions?',0);</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>616</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(320,12,'Q) What are the standards actions available in jsp?',0);</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>617</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(321,12,'Q) What is the &lt;jsp: useBean&gt; standard action?',0);</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>618</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Questions values(322,12,'Q) What is the scope available in &lt;jsp: useBean&gt;?',0);</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>619</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324" t="str">
+        <f t="shared" ref="E324:E387" si="5">"insert into Questions values("&amp;A324&amp;","&amp;B324&amp;",'Q) "&amp;C324&amp;"',"&amp;D324&amp;");"</f>
+        <v>insert into Questions values(323,12,'Q) What is the &lt;jsp:forward&gt; standard action?',0);</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>12</v>
+      </c>
+      <c r="C325" t="s">
+        <v>620</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(324,12,'Q) What is the &lt;jsp: include&gt; standard action?',0);</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>12</v>
+      </c>
+      <c r="C326" t="s">
+        <v>621</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(325,12,'Q) What is the difference between include directive and include action?',0);</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>622</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(326,12,'Q) What is the difference between pageContext.include () and &lt;jsp: include&gt;?',0);</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>623</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(327,12,'Q) What is the &lt;jsp: setProperty&gt; action?',0);</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>624</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(328,12,'Q) What is the &lt;jsp: getProperty&gt; action?',0);</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>625</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(329,12,'Q) What is the &lt;jsp: param&gt; standard action?',0);</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>626</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(330,12,'Q) What is the &lt;jsp: plugin&gt; action?',0);</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>12</v>
+      </c>
+      <c r="C332" t="s">
+        <v>627</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(331,12,'Q) What is the scripting element?',0);</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>12</v>
+      </c>
+      <c r="C333" t="s">
+        <v>628</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(332,12,'Q) What is the scriptlet?',0);</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>629</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(333,12,'Q) What is the jsp declaration?',0);</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335" t="s">
+        <v>630</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(334,12,'Q) What is the jsp expression?',0);</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>12</v>
+      </c>
+      <c r="C336" t="s">
+        <v>631</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(335,12,'Q) How is scripting disabled?',0);</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>12</v>
+      </c>
+      <c r="C337" t="s">
+        <v>632</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(336,12,'Q) Why is _jspService () start with ‘_’?',0);</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>12</v>
+      </c>
+      <c r="C338" t="s">
+        <v>633</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(337,12,'Q) How to pre-compile jsp?',0);</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>12</v>
+      </c>
+      <c r="C339" t="s">
+        <v>634</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(338,12,'Q) What is the benefit of pre-compile jsp page?',0);</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>12</v>
+      </c>
+      <c r="C340" t="s">
+        <v>635</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(339,12,'Q) What is the difference between variable declared inside the declaration tag and variable declared in scriptlet?',0);</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>12</v>
+      </c>
+      <c r="C341" t="s">
+        <v>636</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(340,12,'Q) What are the three kind of comment in jsp?',0);</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s">
+        <v>637</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(341,12,'Q) What is the output comment?',0);</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>12</v>
+      </c>
+      <c r="C343" t="s">
+        <v>638</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(342,12,'Q) What is a hidden comment?',0);</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>12</v>
+      </c>
+      <c r="C344" t="s">
+        <v>639</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(343,12,'Q) How does jsp handle the run time exception?',0);</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>12</v>
+      </c>
+      <c r="C345" t="s">
+        <v>640</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(344,12,'Q) How can I implement the thread safe jsp page?',0);</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>12</v>
+      </c>
+      <c r="C346" t="s">
+        <v>641</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(345,12,'Q) Is there a way to reference the “this” variable within the jsp?',0);</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>12</v>
+      </c>
+      <c r="C347" t="s">
+        <v>642</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(346,12,'Q) Can you make the use of servletOutputStream object within jsp?',0);</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>643</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(347,12,'Q) What is autoflush?',0);</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>12</v>
+      </c>
+      <c r="C349" t="s">
+        <v>644</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(348,12,'Q) What is the different scope available in jsp?',0);</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>12</v>
+      </c>
+      <c r="C350" t="s">
+        <v>645</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(349,12,'Q) When to use application scope?',0);</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>12</v>
+      </c>
+      <c r="C351" t="s">
+        <v>646</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(350,12,'Q) Can a jsp page instantiate a serialized bean?',0);</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>12</v>
+      </c>
+      <c r="C352" t="s">
+        <v>647</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(351,12,'Q) In which situation we can use the static include and dynamic include?',0);</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>648</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(352,12,'Q) What is the JDBC?',0);</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>12</v>
+      </c>
+      <c r="C354" t="s">
+        <v>649</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(353,12,'Q) What are the basic steps of using jdbc in java?',0);</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>12</v>
+      </c>
+      <c r="C355" t="s">
+        <v>650</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(354,12,'Q) What are the main component of jdbc?',0);</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>12</v>
+      </c>
+      <c r="C356" t="s">
+        <v>651</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(355,12,'Q) What is DriverManager?',0);</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>652</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(356,12,'Q) What is Driver?',0);</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>12</v>
+      </c>
+      <c r="C358" t="s">
+        <v>653</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(357,12,'Q) What is the connection?',0);</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>654</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(358,12,'Q) What is the statement?',0);</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>12</v>
+      </c>
+      <c r="C360" t="s">
+        <v>655</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(359,12,'Q) What is the resultset?',0);</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>656</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(360,12,'Q) How we load a database driver with JDBC?',0);</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>12</v>
+      </c>
+      <c r="C362" t="s">
+        <v>657</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(361,12,'Q) What is the JDBC Driver interface?',0);</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>12</v>
+      </c>
+      <c r="C363" t="s">
+        <v>658</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(362,12,'Q) What does the connection objects represents?',0);</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>12</v>
+      </c>
+      <c r="C364" t="s">
+        <v>654</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(363,12,'Q) What is the statement?',0);</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>12</v>
+      </c>
+      <c r="C365" t="s">
+        <v>659</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(364,12,'Q) What is the prepared statement?',0);</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>12</v>
+      </c>
+      <c r="C366" t="s">
+        <v>660</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(365,12,'Q) What is the difference between statement and PreparedStatement?',0);</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>12</v>
+      </c>
+      <c r="C367" t="s">
+        <v>661</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(366,12,'Q) What is the callable statement?',0);</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>12</v>
+      </c>
+      <c r="C368" t="s">
+        <v>662</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(367,12,'Q) How to call a stored procedure from jdbc?',0);</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>12</v>
+      </c>
+      <c r="C369" t="s">
+        <v>663</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(368,12,'Q) What are the types of JDBC Driver?',0);</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>12</v>
+      </c>
+      <c r="C370" t="s">
+        <v>664</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(369,12,'Q) Which type of jdbc driver is the faster one?',0);</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>12</v>
+      </c>
+      <c r="C371" t="s">
+        <v>665</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(370,12,'Q) Does the JDBC-ODBC Bridge support multiple concurrent open statements per connection?',0);</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>12</v>
+      </c>
+      <c r="C372" t="s">
+        <v>666</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(371,12,'Q) What are the standard isolation levels defined by the jdbc?',0);</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>12</v>
+      </c>
+      <c r="C373" t="s">
+        <v>655</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(372,12,'Q) What is the resultset?',0);</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>12</v>
+      </c>
+      <c r="C374" t="s">
+        <v>667</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(373,12,'Q) What are the types of resultset?',0);</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>12</v>
+      </c>
+      <c r="C375" t="s">
+        <v>668</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(374,12,'Q) What is the difference between TYPE_SCROLL_INSENSITIVE and TYPE_SCOLL_SENSITIVE?',0);</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>12</v>
+      </c>
+      <c r="C376" t="s">
+        <v>669</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(375,12,'Q) What is the RowSet?',0);</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>12</v>
+      </c>
+      <c r="C377" t="s">
+        <v>670</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(376,12,'Q) What are the different types of RowSet?',0);</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>12</v>
+      </c>
+      <c r="C378" t="s">
+        <v>671</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(377,12,'Q) What is the need of BatchUpdates?',0);</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>12</v>
+      </c>
+      <c r="C379" t="s">
+        <v>672</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(378,12,'Q) What is the data source?',0);</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>12</v>
+      </c>
+      <c r="C380" t="s">
+        <v>673</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(379,12,'Q) What are the advantages of data source?',0);</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>12</v>
+      </c>
+      <c r="C381" t="s">
+        <v>674</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(380,12,'Q) What is the main advantage of connection pooling?',0);</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>12</v>
+      </c>
+      <c r="C382" t="s">
+        <v>675</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(381,12,'Q) What is the multi programming?',0);</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>12</v>
+      </c>
+      <c r="C383" t="s">
+        <v>676</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(382,12,'Q) What is the difference between TCP and UDP?',0);</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>12</v>
+      </c>
+      <c r="C384" t="s">
+        <v>677</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(383,12,'Q) What is socket?',0);</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>12</v>
+      </c>
+      <c r="C385" t="s">
+        <v>678</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(384,12,'Q) What is the advantage of java socket?',0);</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>12</v>
+      </c>
+      <c r="C386" t="s">
+        <v>679</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(385,12,'Q) What is the disadvantage of java socket?',0);</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>12</v>
+      </c>
+      <c r="C387" t="s">
+        <v>680</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Questions values(386,12,'Q) What is RMI?',0);</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>12</v>
+      </c>
+      <c r="C388" t="s">
+        <v>681</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388" t="str">
+        <f t="shared" ref="E388:E397" si="6">"insert into Questions values("&amp;A388&amp;","&amp;B388&amp;",'Q) "&amp;C388&amp;"',"&amp;D388&amp;");"</f>
+        <v>insert into Questions values(387,12,'Q) What is socket()?',0);</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>682</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(388,12,'Q) What is ServerSocket?',0);</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>12</v>
+      </c>
+      <c r="C390" t="s">
+        <v>683</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(389,12,'Q) What is bind()?',0);</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>12</v>
+      </c>
+      <c r="C391" t="s">
+        <v>684</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(390,12,'Q) What is the Datagram?',0);</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>12</v>
+      </c>
+      <c r="C392" t="s">
+        <v>685</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(391,12,'Q) What is getLocalPort()?',0);</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>686</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(392,12,'Q) What is accept()?',0);</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>12</v>
+      </c>
+      <c r="C394" t="s">
+        <v>687</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(393,12,'Q) What is the network interface?',0);</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>688</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(394,12,'Q) What is the encapsulation technique?',0);</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>12</v>
+      </c>
+      <c r="C396" t="s">
+        <v>689</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(395,12,'Q) How does the race condition occur?',0);</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>12</v>
+      </c>
+      <c r="C397" t="s">
+        <v>690</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Questions values(396,12,'Q) What information is needed to create a TCP Socket?',0);</v>
       </c>
     </row>
   </sheetData>
@@ -7339,10 +12388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200:E209"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12417,7 +17466,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" ref="E201:E209" si="3">"insert into Answers values("&amp;A201&amp;","&amp;B201&amp;",'"&amp;C201&amp;"',"&amp;D201&amp;");"</f>
+        <f t="shared" ref="E201:E264" si="3">"insert into Answers values("&amp;A201&amp;","&amp;B201&amp;",'"&amp;C201&amp;"',"&amp;D201&amp;");"</f>
         <v>insert into Answers values(200,200,'NO',1);</v>
       </c>
     </row>
@@ -12638,6 +17687,3931 @@
          Runtime.totalMemory()-Runtime.freeMemory() .',1);</v>
       </c>
     </row>
+    <row r="210" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(209,209,'Ans)
+Spring is an open source development framework for enterprise Java. The core features of the Spring Framework can be used in developing any Java application, but there are extensions for building web applications on top of the Java EE platform. Spring framework targets to make J2EE development easier to use and promote good programming practice by enabling a POJO-based programming model.',1);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(210,210,'Ans)
+Following is the list of few of the great benefits of using Spring Framework:
+Lightweight:
+Spring is lightweight when it comes to size and transparency. The basic version of spring framework is around 2MB.
+Inversion of control (IOC):
+Loose coupling is achieved in spring using the technique Inversion of Control. The objects give their dependencies instead of creating or looking for dependent objects.
+Aspect oriented (AOP):
+Spring supports Aspect oriented programming and enables cohesive development by separating application business logic from system services.
+Container:
+Spring contains and manages the life cycle and configuration of application objects.
+MVC Framework:
+Spring''s web framework is a well-designed web MVC framework, which provides a great alternative to web frameworks such as Struts or other over engineered or less popular web frameworks.
+Transaction Management:
+Spring provides a consistent transaction management interface that can scale down to a local transaction (using a single database, for example) and scale up to global transactions (using JTA, for example).
+Exception Handling:
+Spring provides a convenient API to translate technology-specific exceptions (thrown by JDBC, Hibernate, or JDO, for example) into consistent, unchecked exceptions.',1);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(211,211,'Ans)
+Following are the modules of the Spring framework:
+Core module
+Bean module
+Context module
+Expression Language module
+JDBC module
+ORM module
+OXM module
+Java Messaging Service(JMS) module
+Transaction module
+Web module
+Web-Servlet module
+Web-Struts module
+Web-Portlet module',1);</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(212,212,'Ans)
+Spring configuration file is an XML file. This file contains the classes information and describes how these classes are configured and introduced to each other.',1);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(213,213,'Ans)
+Inversion of Control (IoC) is a general concept, and it can be expressed in many different ways and Dependency Injection is merely one concrete example of Inversion of Control.
+This concept says that you do not create your objects but describe how they should be created. You don''t directly connect your components and services together in code but describe which services are needed by which components in a configuration file. A container (the IOC container) is then responsible for hooking it all up.',1);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(214,214,'Ans)
+Types of IoC are:
+Constructor-based dependency injection:
+Constructor-based DI is accomplished when the container invokes a class constructor with a number of arguments, each representing a dependency on other class.
+Setter-based dependency injection:
+Setter-based DI is accomplished by the container calling setter methods on your beans after invoking a no-argument constructor or no-argument static factory method to instantiate your bean.',1);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(215,215,'Ans)
+Since you can mix both, Constructor- and Setter-based DI, it is a good rule of thumb to use constructor arguments for mandatory dependencies and setters for optional dependencies. Note that the use of a
+@Required
+annotation on a setter can be used to make setters required dependencies.',1);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(216,216,'Ans)
+The main benefits of IOC or dependency injection are:
+It minimizes the amount of code in your application.
+It makes your application easy to test as it doesn''t require any singletons or JNDI lookup mechanisms in your unit test cases.
+Loose coupling is promoted with minimal effort and least intrusive mechanism.
+IOC containers support eager instantiation and lazy loading of services.',1);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(217,217,'Ans)
+Aspect-oriented programming, or AOP, is a programming technique that allows programmers to modularize crosscutting concerns, or behavior that cuts across the typical divisions of responsibility, such as logging and transaction management. The core construct of AOP is the aspect, which encapsulates behaviors affecting multiple classes into reusable modules.',1);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(218,218,'Ans)
+The Spring IoC creates the objects, wire them together, configure them, and manage their complete lifecycle from creation till destruction. The Spring container uses dependency injection (DI) to manage the components that make up an application.',1);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(219,219,'Ans)
+There are two types of IoC containers:
+Bean Factory container:
+This is the simplest container providing basic support for DI .The BeanFactory is usually preferred where the resources are limited like mobile devices or applet based applications
+Spring ApplicationContext Container:
+This container adds more enterprise-specific functionality such as the ability to resolve textual messages from a properties file and the ability to publish application events to interested event listeners.',1);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(220,220,'Ans)
+The most commonly used BeanFactory implementation is the
+XmlBeanFactory
+class. This container reads the configuration metadata from an XML file and uses it to create a fully configured system or application.',1);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(221,221,'Ans)
+The three commonly used implementation of ''Application Context'' are:
+FileSystemXmlApplicationContext:
+This container loads the definitions of the beans from an XML file. Here you need to provide the full path of the XML bean configuration file to the constructor.
+ClassPathXmlApplicationContext:
+This container loads the definitions of the beans from an XML file. Here you do not need to provide the full path of the XML file but you need to set CLASSPATH properly because this container will look bean configuration XML file in CLASSPATH.
+WebXmlApplicationContext:
+This container loads the XML file with definitions of all beans from within a web application.',1);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(222,222,'Ans)
+Following are some of the differences:
+Application contexts provide a means for resolving text messages, including support for i18n of those messages.
+Application contexts provide a generic way to load file resources, such as images.
+Application contexts can publish events to beans that are registered as listeners.
+Certain operations on the container or beans in the container, which have to be handled in a programmatic fashion with a bean factory, can be handled declaratively in an application context.
+The application context implements MessageSource, an interface used to obtain localized messages, with the actual implementation being pluggable.',1);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(223,223,'Ans)
+The objects that form the backbone of your application and that are managed by the Spring IoC container are called beans. A bean is an object that is instantiated, assembled, and otherwise managed by a Spring IoC container. These beans are created with the configuration metadata that you supply to the container, for example, in the form of XML &lt;bean/&gt; definitions.',1);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(224,224,'Ans)
+The bean definition contains the information called configuration metadata which is needed for the container to know the followings:
+How to create a bean
+Bean''s lifecycle details
+Bean''s dependencies',1);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(225,225,'Ans)
+There are following three important methods to provide configuration metadata to the Spring Container:
+XML based configuration file.
+Annotation-based configuration
+Java-based configuration',1);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(226,226,'Ans)
+Check the following example:
+&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;beans xmlns="http://www.springframework.org/schema/beans"
+    xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+    xsi:schemaLocation="http://www.springframework.org/schema/beans
+    http://www.springframework.org/schema/beans/spring-beans-3.0.xsd"&gt;
+   &lt;bean id="helloWorld" class="com.tutorialspoint.HelloWorld"&gt;
+       &lt;property name="message" value="Hello World!"/&gt;
+   &lt;/bean&gt;
+&lt;/beans&gt;',1);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(227,227,'Ans)
+When defining a &lt;bean&gt; in Spring, you have the option of declaring a scope for that bean. For example, to force Spring to produce a new bean instance each time one is needed, you should declare the bean''s scope attribute to be
+prototype
+.  Similar way if you want Spring to return the same bean instance each time one is needed, you should declare the bean''s scope attribute to be
+singleton.',1);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(228,228,'Ans)
+The Spring Framework supports following five scopes, three of which are available only if you use a web-aware ApplicationContext.
+singleton:
+This scopes the bean definition to a single instance per Spring IoC container.
+prototype:
+This scopes a single bean definition to have any number of object instances.
+request:
+This scopes a bean definition to an HTTP request. Only valid in the context of a web-aware Spring ApplicationContext.
+session:
+This scopes a bean definition to an HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.
+global-session:
+This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.',1);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(229,229,'Ans)
+The default scope of bean is Singleton for Spring framework.',1);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(230,230,'Ans)
+No, singleton beans are not thread-safe in Spring framework.',1);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(231,231,'Ans)
+Following is sequence of a bean lifecycle in Spring:
+Instantiate
+- First the spring container finds the bean''s definition from the XML file and instantiates the bean..
+Populate properties
+- Using the dependency injection, spring populates all of the properties as specified in the bean definition..
+Set Bean Name
+- If the bean implements BeanNameAware interface, spring passes the  bean''s id to setBeanName() method.
+Set Bean factory
+- If Bean implements BeanFactoryAware interface, spring passes the beanfactory to setBeanFactory() method.
+Pre Initialization
+-  Also called postprocess of bean. If there are any bean BeanPostProcessors associated with the bean,  Spring calls postProcesserBeforeInitialization() method.
+Initialize beans
+- If the bean implements IntializingBean,its afterPropertySet() method is called. If the bean has init method declaration, the specified initialization method is called.
+Post Initialization
+-  If there are any BeanPostProcessors associated with the bean, their postProcessAfterInitialization() methods will be called.
+Ready to use
+- Now the bean is ready to use by the application.
+Destroy
+- If the bean implements DisposableBean , it will call the destroy() method .',1);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(232,232,'Ans)
+A &lt;bean/&gt; element inside the &lt;property/&gt; or &lt;constructor-arg/&gt; elements defines a so-called inner bean. An inner bean definition does not require a defined id or name; the container ignores these values. It also ignores the scope flag.  Inner beans are always anonymous and they are always scoped as prototypes.',1);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(233,233,'Ans)
+Spring offers four types of collection configuration elements which are as follows:
+&lt;list&gt;
+: This helps in wiring i.e. injecting a list of values, allowing duplicates.
+&lt;set&gt;
+: This helps in wiring a set of values but without any duplicates.
+&lt;map&gt;
+: This can be used to inject a collection of name-value pairs where name and value can be of any type.
+&lt;props&gt;
+: This can be used to inject a collection of name-value pairs where the name and value are both Strings.',1);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(234,234,'Ans)
+The Spring container is able to autowire relationships between collaborating beans. This means that it is possible to automatically let Spring resolve collaborators (other beans) for your bean by inspecting the contents of the BeanFactory without using &lt;constructor-arg&gt; and &lt;property&gt; elements.',1);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(235,235,'Ans)
+The autowiring functionality has five modes which can be used to instruct Spring container to use autowiring for dependency injection:
+no
+: This is default setting which means no autowiring and you should use explicit bean reference for wiring. You have nothing to do special for this wiring. This is what you already have seen in Dependency Injection chapter.
+byName
+: Autowiring by property name. Spring container looks at the properties of the beans on which autowire attribute is set to byName in the XML configuration file. It then tries to match and wire its properties with the beans defined by the same names in the configuration file.
+byType
+: Autowiring by property datatype. Spring container looks at the properties of the beans on which autowire attribute is set to byType in the XML configuration file. It then tries to match and wire a property if its type matches with exactly one of the beans name in configuration file. If more than one such beans exist, a fatal exception is thrown.
+constructor
+: Similar to byType, but type applies to constructor arguments. If there is not exactly one bean of the constructor argument type in the container, a fatal error is raised.
+autodetect
+: Spring first tries to wire using autowire by constructor, if it does not work, Spring tries to autowire by byType.',1);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(236,236,'Ans)
+Limitations of autowiring are:
+Overriding possibility
+: You can still specify dependencies using &lt;constructor-arg&gt; and &lt;property&gt; settings which will always override autowiring.
+Primitive data types
+: You cannot autowire so-called simple properties such as primitives, Strings, and Classes.
+Confusing nature
+: Autowiring is less exact than explicit wiring, so if possible prefer using explicit wiring.',1);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(237,237,'Ans)
+Yes.',1);</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(238,238,'Ans)
+An alternative to XML setups is provided by annotation-based configuration which relies on the bytecode metadata for wiring up components instead of angle-bracket declarations. Instead of using XML to describe a bean wiring, the developer moves the configuration into the component class itself by using annotations on the relevant class, method, or field declaration.',1);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(239,239,'Ans)
+Annotation wiring is not turned on in the Spring container by default. So, before we can use annotation-based wiring, we will need to enable it in our Spring configuration file by configuring &lt;context:annotation-config/&gt;.',1);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(240,240,'Ans)
+This annotation simply indicates that the affected bean property must be populated at configuration time, through an explicit property value in a bean definition or through autowiring. The container throws BeanInitializationException if the affected bean property has not been populated.',1);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(241,241,'Ans)
+This annotation provides more fine-grained control over where and how autowiring should be accomplished. The @Autowired annotation can be used to autowire bean on the setter method just like @Required annotation, constructor, a property or methods with arbitrary names and/or multiple arguments.',1);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(242,242,'Ans)
+There may be a situation when you create more than one bean of the same type and want to wire only one of them with a property, in such case you can use @Qualifier annotation along with @Autowired to remove the confusion by specifying which exact bean will be wired.',1);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(243,243,'Ans)
+Spring has JSR-250 based annotations which include @PostConstruct, @PreDestroy and @Resource annotations.
+@PostConstruct
+: This annotation can be used as an alternate of initialization callback.
+@PreDestroy
+: This annotation can be used as an alternate of destruction callback.
+@Resource
+: This annotation can be used on fields or setter methods. The @Resource annotation takes a ''name'' attribute which will be interpreted as the bean name to be injected. You can say, it follows by-name autowiring semantics.',1);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(244,244,'Ans)
+Java based configuration option enables you to write most of your Spring configuration without XML but with the help of few Java-based annotations.
+For example: Annotation
+@Configuration
+indicates that the class can be used by the Spring IoC container as a source of bean definitions. The
+@Bean
+annotation tells Spring that a method annotated with @Bean will return an object that should be registered as a bean in the Spring application context.',1);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(245,245,'Ans)
+Event handling in the
+ApplicationContext
+is provided through the
+ApplicationEvent
+class and
+ApplicationListener
+interface. So if a bean implements the
+ApplicationListener
+, then every time an
+ApplicationEvent
+gets published to the ApplicationContext, that bean is notified.',1);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(246,246,'Ans)
+Spring provides the following standard events:
+ContextRefreshedEvent
+: This event is published when the ApplicationContext is either initialized or refreshed. This can also be raised using the refresh() method on the ConfigurableApplicationContext interface.
+ContextStartedEvent
+: This event is published when the ApplicationContext is started using the start() method on the ConfigurableApplicationContext interface. You can poll your database or you can re/start any stopped application after receiving this event.
+ContextStoppedEvent
+: This event is published when the ApplicationContext is stopped using the stop() method on the ConfigurableApplicationContext interface. You can do required housekeep work after receiving this event.
+ContextClosedEvent
+: This event is published when the ApplicationContext is closed using the close() method on the ConfigurableApplicationContext interface. A closed context reaches its end of life; it cannot be refreshed or restarted.
+RequestHandledEvent
+: This is a web-specific event telling all beans that an HTTP request has been serviced.',1);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(247,247,'Ans)
+A module which has a set of APIs providing cross-cutting requirements. For example, a logging module would be called AOP aspect for logging. An application can have any number of aspects depending on the requirement. In Spring AOP, aspects are implemented using regular classes (the schema-based approach) or regular classes annotated with the @Aspect annotation (@AspectJ style).',1);</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(248,248,'Ans)
+Concern
+: Concern is behavior which we want to have in a module of an application. Concern may be defined as a functionality we want to implement. Issues in which we are interested define our concerns.
+Cross-cutting concern
+: It''s a concern which is applicable throughout the application and it affects the entire application. e.g. logging , security and data transfer are the concerns which are needed in almost every module of an application, hence are cross-cutting concerns.',1);</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(249,249,'Ans)
+This represents a point in your application where you can plug-in AOP aspect. You can also say, it is the actual place in the application where an action will be taken using Spring AOP framework.',1);</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(250,250,'Ans)
+This is the actual action to be taken either before or after the method execution. This is actual piece of code that is invoked during program execution by Spring AOP framework.',1);</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(251,251,'Ans)
+This is a set of one or more joinpoints where an advice should be executed. You can specify pointcuts using expressions or patterns as we will see in our AOP examples.',1);</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(252,252,'Ans)
+An introduction allows you to add new methods or attributes to existing classes.',1);</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(253,253,'Ans)
+The object being advised by one or more aspects, this object will always be a proxy object. Also referred to as the advised object.',1);</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(254,254,'Ans)
+Weaving is the process of linking aspects with other application types or objects to create an advised object.',1);</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(255,255,'Ans)
+Weaving can be done at compile time, load time, or at runtime.',1);</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(256,256,'Ans)
+Spring aspects can work with five kinds of advice mentioned below:
+before
+: Run advice before the a method execution.
+after
+: Run advice after the a method execution regardless of its outcome.
+after-returning
+: Run advice after the a method execution only if method completes successfully.
+after-throwing
+: Run advice after the a method execution only if method exits by throwing an exception.
+around
+: Run advice before and after the advised method is invoked.',1);</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(257,257,'Ans)
+Aspects are implemented using regular classes along with XML based configuration.',1);</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(258,258,'Ans)
+@AspectJ refers to a style of declaring aspects as regular Java classes annotated with Java 5 annotations.',1);</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(259,259,'Ans)
+JDBC can be used more efficiently with the help of a template class provided by spring framework called as JdbcTemplate.',1);</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(260,260,'Ans)
+With use of Spring JDBC framework the burden of resource management and error handling is reduced a lot. So it leaves developers to write the statements and queries to get the data to and from the database. JdbcTemplate provides many convenience methods for doing things such as converting database data into primitives or objects, executing prepared and callable statements, and providing custom database error handling.',1);</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(261,261,'Ans)
+Spring supports two types of transaction management:
+Programmatic transaction management:
+This means that you have managed the transaction with the help of programming. That gives you extreme flexibility, but it is difficult to maintain.
+Declarative transaction management:
+This means you separate transaction management from the business code. You only use annotations or XML based configuration to manage the transactions.',1);</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(262,262,'Ans)
+Declarative transaction management is preferable over programmatic transaction management though it is less flexible than programmatic transaction management, which allows you to control transactions through your code.',1);</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into Answers values(263,263,'Ans)
+The Spring web MVC framework provides model-view-controller architecture and ready components that can be used to develop flexible and loosely coupled web applications. The MVC pattern results in separating the different aspects of the application (input logic, business logic, and UI logic), while providing a loose coupling between these elements.',1);</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265" t="str">
+        <f t="shared" ref="E265:E328" si="4">"insert into Answers values("&amp;A265&amp;","&amp;B265&amp;",'"&amp;C265&amp;"',"&amp;D265&amp;");"</f>
+        <v>insert into Answers values(264,264,'Ans)
+The Spring Web MVC framework is designed around a DispatcherServlet that handles all the HTTP requests and responses.',1);</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(265,265,'Ans)
+The
+WebApplicationContext
+is an extension of the plain
+ApplicationContext
+that has some extra features necessary for web applications. It differs from a normal
+ApplicationContext
+in that it is capable of resolving themes, and that it knows which servlet it is associated with.',1);</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(266,266,'Ans)
+Following are some of the advantages of Spring MVC over Struts MVC:
+Spring''s MVC is very versatile and flexible based on interfaces but Struts forces Actions and Form object into concrete inheritance.
+Spring provides both interceptors and controllers, thus helps to factor out common behavior to the handling of many requests.
+Spring can be configured with different view technologies like Freemarker, JSP, Tiles, Velocity, XLST etc. and also you can create your own custom view mechanism by implementing Spring View interface.
+In Spring MVC Controllers can be configured using DI (IOC) that makes its testing and integration easy.
+Web tier of Spring MVC is easy to test than Struts web tier, because of the avoidance of forced concrete inheritance and explicit dependence of controllers on the dispatcher servlet.
+Struts force your Controllers to extend a Struts class but Spring doesn''t, there are many convenience Controller implementations that you can choose to extend.
+In Struts, Actions are coupled to the view by defining ActionForwards within a ActionMapping or globally. SpringMVC has HandlerMapping interface to support this functionality.
+With Struts, validation is usually performed (implemented) in the validate method of an ActionForm. In SpringMVC, validators are business objects that are NOT dependent on the Servlet API which makes these validators to be reused in your business logic before persisting a domain object to a database.',1);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(267,267,'Ans)
+Controllers provide access to the application behavior that you typically define through a service interface. Controllers interpret user input and transform it into a model that is represented to the user by the view. Spring implements a controller in a very abstract way, which enables you to create a wide variety of controllers.',1);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(268,268,'Ans)
+The
+@Controller
+annotation indicates that a particular class serves the role of a controller. Spring does not require you to extend any controller base class or reference the Servlet API.',1);</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(269,269,'Ans)
+@RequestMapping
+annotation is used to map a URL to either an entire class or a particular handler method.',1);</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(270,270,'Ans)
+There are two ways to access hibernate using spring:
+Inversion of Control with a Hibernate Template and Callback.
+Extending HibernateDAOSupport and Applying an AOP Interceptor node.',1);</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(271,271,'Ans) Spring supports the following ORM''s :
+Hibernate
+iBatis
+JPA (Java Persistence API)
+TopLink
+JDO (Java Data Objects)
+OJB',1);</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(272,272,'Ans)
+A servlet is a Java programming language class that is used to extend the capabilities of servers that host applications accessed by means of a request- response programming model. Before the servlet, CGI scripting language was used as server side programming language.',1);</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(273,273,'Ans)
+Uses of servlet includes:
+Processing and storing data submitted by an HTML form.
+Providing dynamic content.
+A Servlet can handle multiple request concurrently and be used to develop high performance system
+Managing state information on top of the stateless HTTP.',1);</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(274,274,'Ans)
+Life cycle of Servlet:
+Servlet class loading
+Servlet instantiation
+Initialization (call the init method)
+Request handling (call the service method)
+Removal from service (call the destroy method)',1);</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(275,275,'Ans)
+Even though there is an init method in a servlet which gets called to initialize it, a constructor is still required to instantiate the servlet. Even though you as the developer would never need to explicitly call the servlet''s constructor, it is still being used by the container.',1);</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(276,276,'Ans)
+The servlet is loaded by:
+First request is made.
+Server starts up (auto-load).
+There is only a single instance which answers all requests concurrently. This saves memory and allows a Servlet to easily manage persistent data.
+Administrator manually loads.',1);</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(277,277,'Ans)
+Servlet gets unloaded when:
+Server shuts down.
+Administrator manually unloads.',1);</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(278,278,'Ans)
+The central abstraction in the Servlet API is the Servlet interface. All servlets implement this interface, either directly or more commonly by extending a class that implements it.',1);</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(279,279,'Ans)
+GenericServlet is an abstract class that implements the Servlet interface and the ServletConfig interface. In addition to the methods declared in these two interfaces, this class also provides simple versions of the lifecycle methods init () and destroy (), and implements the log method declared in the ServletContext interface.',1);</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(280,280,'Ans)
+The difference is:
+The GenericServlet is an abstract class that is extended by HttpServlet to provide HTTP protocol-specific methods. But HttpServlet extends the GenericServlet base class and provides a framework for handling the HTTP protocol.
+The GenericServlet does not include protocol-specific methods for handling request parameters, cookies, sessions and setting response headers. The HttpServlet subclass passes generic service method requests to the relevant doGet () or doPost () method.
+GenericServlet is not specific to any protocol. HttpServlet only supports HTTP and HTTPS protocol.',1);</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(281,281,'Ans)
+The HttpServlet class is declared abstract because the default implementations of the main service methods do nothing and must be overridden. This is a convenience implementation of the Servlet interface, which means that developers do not need to implement all service methods.
+If your servlet is required to handle doGet () requests for example, there is no need to write a doPost () method too.',1);</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(282,282,'Ans)
+Yes',1);</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(283,283,'Ans)
+It extends the GenericServlet base class and provides a framework for handling the HTTP protocol. So, HttpServlet only supports HTTP and HTTPS protocol.',1);</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(284,284,'Ans)
+The difference is:
+In doGet() the parameters are appended to the URL and sent along with header information. In doPost (),send the information through a socket back to the webserver and it won''t show up in the URL bar.
+The amount of information you can send back using a GET is restricted as URLs can only be 1024 characters. You can send much more information to the server by using post and it''s not restricted to textual data either. It is possible to send files and even binary data such as serialized Java objects!
+DoGet() is a request for information.It does not change anything on the server. (doGet () should be idempotent). doPost () provides information (such as placing an order for merchandise) that the server is expected to remember.',1);</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(285,285,'Ans)
+Always prefer to use GET (As because GET is faster than POST), except mentioned in the following reason:
+If data is sensitive.
+Data is greater than 1024 characters.
+If your application don''t need bookmarks.',1);</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(286,286,'Ans)
+The easy way is, just support POST, then have your doGet method call your doPost method.',1);</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(287,287,'Ans)
+We never override the service method, since the HTTP Servlets have already taken care of it. The default service function invokes the doXXX() method corresponding to the method of the HTTP request. For example, if the HTTP request method is GET, doGet () method is called by default.
+A servlet should override the doXXX() method for the HTTP methods that servlet supports. Because HTTP service method checks the request method and calls the appropriate handler method, it is not necessary to override the service method itself. Only override the appropriate doXXX() method.',1);</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(288,288,'Ans)
+A servlet context object contains the information about the Web application of which the servlet is a part. It also provides access to the resources common to all the servlets in the application. Each Web application in a container has a single servlet context associated with it.',1);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(289,289,'Ans)
+The ServletConfig interface is implemented by the servlet container in order to pass configuration information to a servlet. The server passes an object that implements the ServletConfig interface to the servlet''s init () method. A ServletContext defines a set of methods that a servlet uses to communicate with its servlet container.',1);</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(290,290,'Ans)
+The difference is:
+A forward is performed internally by the servlet. A redirect is a two step process, where the web application instructs the browser to fetch a second URL, which differs from the original.
+The browser is completely unaware that it has taken place, so its original URL remains intact. But in sendRedirect, the browser, in this case, is doing the work and knows that it''s making a new request.',1);</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(291,291,'Ans)
+The RequestDispatcher include() method inserts the contents of the specified resource directly in the flow of the servlet response, as if it were part of the calling servlet. The RequestDispatcher forward() method is used to show a different resource in place of the servlet that was originally called.',1);</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(292,292,'Ans)
+The HttpServletRequestWrapper and HttpServletResponseWrapper classes are designed to make it easy for developers to create custom implementations of the servlet request and response types.
+The classes are constructed with the standard HttpServletRequest and HttpServletResponse instances respectively and their default behaviour is to pass all method calls directly to the underlying objects.',1);</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(293,293,'Ans)
+A deployment descriptor is an XML document with an .xml extension. It defines a component''s deployment settings. It declares transaction attributes and security authorization for an enterprise bean.
+The information provided by a deployment descriptor is declarative and therefore it can be modified without changing the source code of a bean.',1);</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(294,294,'Ans)
+A container does not initialize the servlets as soon as it starts up; it initializes a servlet when it receives a request for that servlet first time. This is called lazy loading.
+The servlet specification defines the element, which can be specified in the deployment descriptor to make the servlet container load and initialize the servlet as soon as it starts up. The process of loading a servlet before any request comes in is called preloading or preinitializing a servlet.',1);</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(295,295,'Ans)
+The &lt;load-on-startup&gt; element of a deployment descriptor is used to load a servlet file when the server starts instead of waiting for the first request. It is also used to specify the order in which the files are to be loaded.',1);</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(296,296,'Ans)
+A session refers to all the requests that a single client might make to a server in the course of viewing any pages associated with a given application. Sessions are specific to both the individual user and the application.',1);</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(297,297,'Ans)
+Session tracking is a mechanism that servlets use to maintain state about a series of requests from the same user (requests originating from the same browser) across some period of time.',1);</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(298,298,'Ans)
+HTTP is a stateless protocol. Every request is treated as new request. For web applications to be more realistic they have to retain information across multiple requests. Such information which is part of the application is referred as "state". To keep track of this state we need session tracking.',1);</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(299,299,'Ans)
+Different types are:
+URL rewriting
+Hidden Form Fields
+Cookies
+Secure Socket Layer (SSL) Sessions',1);</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(300,300,'Ans)
+In a servlet, the HttpServletResponse and HttpServletRequest objects passed to method HttpServlet. Service () can be used to create cookies on the client and use cookie information transmitted during client requests. JSPs can also use cookies, in scriptlet code or, preferably, from within custom tag code.
+To set a cookie on the client, use the addCookie() method in class HttpServletResponse. Multiple cookies may be set for the same request, and a single cookie name may have multiple values.
+To get all of the cookies associated with a single HTTP request, use the getCookies() method of class HttpServletRequest',1);</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(301,301,'Ans)
+Cookies are usually persistent, so for low-security sites, user data that needs to be stored long-term (such as a user ID, historical information, etc.) can be maintained easily with no server interaction. 
+For small- and medium-sized session data, the entire session data (instead of just the session ID) can be kept in the cookie.',1);</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(302,302,'Ans)
+URL rewriting is a method of session tracking in which some extra data is appended at the end of each URL. This extra data identifies the session. The server can associate this session identifier with the data it has stored about that session.',1);</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(303,303,'Ans)
+Using session.invalidate() method.',1);</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(304,304,'Ans)
+A container does not initialize the servlets as soon as it starts up; it initializes a servlet when it receives a request for that servlet first time. This is called lazy loading.',1);</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(305,305,'Ans)
+Servlet Chaining is a method where the output of one servlet is piped into a second servlet. The output of the second servlet could be piped into a third servlet, and so on. The last servlet in the chain returns the output to the Web browser',1);</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(306,306,'Ans)
+Filters are Java components that are used to intercept an incoming request to a Web resource and a response sent back from the resource. It is used to abstract any useful information contained in the request or response.',1);</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(307,307,'Ans)
+The advantage of JSP is that they are document-centric. Servlets, on the other hand, look and act like programs. A Java Server Page can contain Java program fragments that instantiate and execute Java classes, but these occur inside an HTML template file and are primarily used to generate dynamic content.
+Some of the JSP functionality can be achieved on the client, using JavaScript. The power of JSP is that it is server-based and provides a framework for Web application development.',1);</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(308,308,'Ans)
+Life cyle of jsp:
+Translation
+Compilation
+Loading the class
+Instantiating the class
+jspInit()
+_jspService()
+jspDestroy()',1);</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(309,309,'Ans)
+The jspInit() method of the javax.servlet.jsp.JspPage interface is similar to the init() method of servlets. This method is invoked by the container only once when a JSP page is initialized. It can be overridden by a page author to initialize resources such as database and network connections, and to allow a JSP page to read persistent configuration data.',1);</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(310,310,'Ans)
+The _jspService() method of the javax.servlet.jsp.HttpJspPage interface is invoked every time a new request comes to a JSP page. This method takes the HttpServletRequest and HttpServletResponse objects as its arguments. A page author cannot override this method, as its implementation is provided by the container.',1);</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(311,311,'Ans)
+The jspDestroy() method of the javax.servlet.jsp.JspPage interface is invoked by the container when a JSP page is about to be destroyed. This method is similar to destroy() method of servlets. It can be overridden by a page author to perform any cleanup operation such as closing a database connection.',1);</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(312,312,'Ans)
+You cannot override the _jspService() method within a JSP page. You can however, override the jspInit() and jspDestroy() methods within a JSP page. JspInit() can be useful for allocating resources like database connections, network connections, and so forth for the JSP page. It is good programming practice to free any allocated resources within jspDestroy().',1);</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(313,313,'Ans)
+Implicit objects in JSP are the Java objects that the JSP Container makes available to developers in each page. These objects need not be declared or instantiated by the JSP author. They are automatically instantiated by the container and are accessed using standard variables; hence, they are called implicit objects.',1);</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(314,314,'Ans)
+These implicit objects are available in jsp:
+Request
+Response
+PageContext
+session
+application
+Out
+config
+page
+exception',1);</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(315,315,'Ans)
+JSP directives are messages for the JSP engine. i.e., JSP directives serve as a message from a JSP page to the JSP container and control the processing of the entire page.
+They are used to set global values such as a class declaration, method implementation, output content type, etc. They do not produce any output to the client.',1);</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(316,316,'Ans)
+Page Directive is:
+A page directive is to inform the JSP engine about the headers or facilities that page should get from the environment.
+The page directive is found at the top of almost all of our JSP pages.
+There can be any number of page directives within a JSP page (although the attribute – value pair must be unique).
+The syntax of the include directive is: &lt;%@ page attribute="value"&gt;',1);</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(317,317,'Ans)
+There are thirteen attributes defined for a page directive of which the important attributes are as follows:
+Import:
+It specifies the packages that are to be imported.
+Session:
+It specifies whether a session data is available to the JSP page.
+ContentType:
+It allows a user to set the content-type for a page.
+IsELIgnored:
+It specifies whether the EL expressions are ignored when a JSP is translated to a servlet.',1);</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(318,318,'Ans)
+Include directive is used to statically insert the contents of a resource into the current JSP. This enables a user to reuse the code without duplicating it, and includes the contents of the specified file at the translation time.',1);</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(319,319,'Ans)
+The JSP standard actions affect the overall runtime behaviour of a JSP page and also the response sent back to the client. They can be used to include a file at the request time, to find or instantiate a Java Bean, to forward a request to a new page, to generate a browser-specific code, etc.',1);</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(320,320,'Ans)
+The standards actions include:
+&lt;jsp:include&gt;
+&lt;jsp:forward&gt;
+&lt;jsp:useBean&gt;
+&lt;jsp:setProperty&gt;
+&lt;jsp:getProperty&gt;
+&lt;jsp:param&gt;
+&lt;jsp:plugin&gt;',1);</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(321,321,'Ans)
+The &lt;jsp: useBean&gt; standard action is used to locate an existing Java Bean or to create a Java Bean if it does not exist. It has attributes to identify the object instance, to specify the lifetime of the bean, and to specify the fully qualified class path and type.',1);</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(322,322,'Ans)
+Scope includes:
+Page scope
+Request scope
+application scope
+session scope',1);</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(323,323,'Ans)
+The &lt;jsp:forward&gt; standard action forwards a response from a servlet or a JSP page to another page. The execution of the current page is stopped and control is transferred to the forwarded page.',1);</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(324,324,'Ans)
+The &lt;jsp: include&gt; standard action enables the current JSP page to include a static or a dynamic resource at runtime. In contrast to the include directive, include action is used for resources that change frequently. The resource to be included must be in the same context.',1);</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(325,325,'Ans)
+The difference is:
+Include directive, includes the content of the specified file during the translation phase–when the page is converted to a servlet. Include action, includes the response generated by executing the specified page (a JSP page or a servlet) during the request processing phase–when the page is requested by a user.
+Include directive is used to statically insert the contents of a resource into the current JSP.  Include standard action enables the current JSP page to include a static or a dynamic resource at runtime.',1);</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(326,326,'Ans)
+The &lt;jsp: include&gt; standard action and the pageContext.include() method are both used to include resources at runtime. However, the pageContext.include () method always flushes the output of the current page before including the other components, whereas &lt;jsp: include&gt; flushes the output of the current page only if the value of flush is explicitly set to true.',1);</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into Answers values(327,327,'Ans)
+You use jsp: setProperty to give values to properties of beans that have been referenced earlier.',1);</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329" t="str">
+        <f t="shared" ref="E329:E392" si="5">"insert into Answers values("&amp;A329&amp;","&amp;B329&amp;",'"&amp;C329&amp;"',"&amp;D329&amp;");"</f>
+        <v>insert into Answers values(328,328,'Ans)
+The &lt;jsp: getProperty&gt; action is used to access the properties of a bean that was set using the
+action. The container converts the property to a String as follows:
+If it is an object, it uses the toString() method to convert it to a String. If it is a primitive, it converts it directly to a String using the valueOf() method of the corresponding Wrapper class.
+The syntax of the &lt;jsp: getProperty&gt; method is: &lt;jsp: getProperty name="Name" property="Property" /&gt;',1);</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(329,329,'Ans)
+The &lt;jsp: param&gt; standard action is used with &lt;jsp: include&gt; or &lt;jsp: forward&gt; to pass parameter names and values to the target resource.',1);</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(330,330,'Ans)
+This action lets you insert the browser-specific OBJECT or EMBED element needed to specify that the browser run an applet using the Java plugin.',1);</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(331,331,'Ans)
+JSP scripting elements let you insert Java code into the servlet that will be generated from the current JSP page.
+Expressions
+Scriptlet
+Declarations
+comment',1);</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(332,332,'Ans)
+A scriptlet contains Java code that is executed every time a JSP is invoked. When a JSP is translated to a servlet, the scriptlet code goes into the service() method.
+Hence, methods and variables written in scriptlet are local to the service() method. A scriptlet is written between the &lt;% and %&gt;tags and is executed by the container at request processing time.',1);</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(333,333,'Ans)
+JSP declarations are used to declare class variables and methods in a JSP page. They are initialized when the class is initialized. Anything defined in a declaration is available for the whole JSP page. A declaration block is enclosed between the &lt;%! and %&gt;tags. A declaration is not included in the service() method when a JSP is translated to a servlet.',1);</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(334,334,'Ans)
+A JSP expression is used to write an output without using the out.print statement. It can be said as a shorthand representation for scriptlet. An expression is written between the &lt;%= and %&gt; tags. It is not required to end the expression with a semicolon, as it implicitly adds a semicolon to all the expressions within the expression tags.',1);</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(335,335,'Ans)
+Scripting is disabled by setting the scripting-invalid element of the deployment descriptor to true. It is a subelement of jsp-property-group. Its valid values are true and false.',1);</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(336,336,'Ans)
+_jspService() method will be written by the container hence any methods which are not to be overridden by the end user are typically written starting with a ''_''. This is the reason why we don''t override _jspService() method in any JSP page.',1);</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(337,337,'Ans)
+Add jsp_precompile as a request parameter and send a request to the JSP file. This will make the jsp pre-compile.
+http://localhost:8080/jsp1/test.jsp?jsp_precompile=true
+It causes execution of JSP life cycle until jspInit() method without executing _jspService() method.',1);</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(338,338,'Ans)
+It removes the start-up lag that occurs when a container must translate a JSP page upon receipt of the first request.',1);</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(339,339,'Ans)
+Variable declared inside declaration part is treated as a instance variable and will be placed directly at class level in the generated servlet. Variable declared in a scriptlet will be placed inside _jspService () method of generated servlet. It acts as local variable.',1);</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(340,340,'Ans)
+These are the three types of commenst in jsp:
+JSP Comment:  &lt;%-- this is jsp comment -- %&gt;
+HTML Comment: &lt;!--  this is HTMl comment -- &gt;
+Java Comments:
+&lt;%
+ // single line java comment
+/* this is multiline comment */
+%&gt;',1);</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(341,341,'Ans)
+The comment which is visible in the source of the response is called output comment.
+     &lt;!--  this is HTMl comment -- &gt;',1);</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(342,342,'Ans)
+This is also known as JSP comment and it is visible only in the JSP and in rest of phases of JSP life cycle it is not visible.
+  &lt;%-- this is jsp comment -- %&gt;',1);</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(343,343,'Ans)
+You can use the errorPage attribute of the page directive to have uncaught run-time exceptions automatically forwarded to an error processing page.',1);</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(344,344,'Ans)
+You can make your JSPs thread-safe by having them implement the SingleThreadModel interface. This is done by adding the directive in the JSP.
+  &lt;%@ page isThreadSafe="false" %&gt;',1);</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(345,345,'Ans)
+Yes, there is. The page implicit object is equivalent to "this", and returns a reference to the generated servlet.',1);</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(346,346,'Ans)
+Yes. By using getOutputStream () method on response implicit object we can get it.',1);</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(347,347,'Ans)
+This command is used to autoflush the contents. If a value of true is used it indicates to flush the buffer whenever it is full. In case of false it indicates that an exception should be thrown whenever the buffer is full. If you are trying to access the page at the time of conversion of a JSP into servlet will result in error.',1);</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(348,348,'Ans)
+The different scopes are:
+Page:
+Within the same page.
+Request:
+After forward or include also you will get the request scope data.
+Session:
+After sendRedirect also you will get the session scope data. All data stored in session is available to end user till session closed or browser closed.
+Application:
+Data will be available throughout the application. One user can store data in application scope and other can get the data from application scope.',1);</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(349,349,'Ans)
+If we want to make our data available to the entire application then we have to use application scope.',1);</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(350,350,'Ans)
+No problem! The use Bean action specifies the bean Name attribute, which can be used for indicating a serialized bean.',1);</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(351,351,'Ans)
+If the target resource won’t change frequently, then it is recommended to use include directives.
+If the target resource will change frequently, then it is recommended to use include action.',1);</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(352,352,'Ans)
+Java Database Connectivity (JDBC) is a standard Java API to interact with relational databases form Java. JDBC has set of classes and interfaces which can use from Java application and talk to database without learning RDBMS details and using Database Specific JDBC Drivers',1);</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(353,353,'Ans)
+The basic steps are:
+Load the RDBMS specific JDBC driver because this driver actually communicates with the database.
+Open the connection to database which is then used to send SQL statements and get results back.
+Create JDBC Statement object. This object contains SQL query.
+Execute statement which returns resultset(s). Resultset contains the tuples of database table as a result of SQL query.
+Process the result set.
+Close the connection.',1);</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(354,354,'Ans)
+The main components are:
+DriverManager
+Driver
+Connection
+Statement
+Resultset',1);</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(355,355,'Ans)
+DriverManager is a static class. It manages a list of database drivers. Matches connection requests from the java application with the proper database driver using communication sub protocol. The first driver that recognizes a certain sub protocol under JDBC will be used to establish a database Connection.',1);</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(356,356,'Ans)
+The JDBC API defines the Java interfaces and classes that programmers use to connect to databases and send queries. A JDBC driver implements these interfaces and classes for a particular DBMS vendor.database communications link, handling all communication with the database.
+Normally, once the driver is loaded, the developer need not call it explicitly.',1);</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(357,357,'Ans)
+Interface with all methods for contacting a database. The connection object represents communication context, i.e., all communication with database is through connection object only',1);</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(358,358,'Ans)
+Encapsulates an SQL statement which is passed to the database.',1);</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(359,359,'Ans)
+The Resultset represents set of rows retrieved due to query execution.',1);</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(360,360,'Ans)
+Provided the JAR file containing the driver is properly configured, just place the JAR file in the classpath. Java developers NO longer need to explicitly load JDBC drivers using code like Class.forName() to register a JDBC driver.
+The DriverManager class takes care of this by automatically locating a suitable driver when the DriverManager.getConnection() method is called. This feature is backward-compatible, so no changes are needed to the existing JDBC code.',1);</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(361,361,'Ans)
+The JDBC Driver interface provides vendor-specific implementations of the abstract classes provided by the JDBC API. Each vendor driver must provide implementations of the java.sql.Connection,Statement,PreparedStatement, CallableStatement, ResultSet and Driver',1);</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(362,362,'Ans)
+The connection object represents communication context, i.e., all communication with database is through connection object only.',1);</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(363,363,'Ans)
+Statement acts like a vehicle through which SQL commands can be sent. Through the connection object we create statement kind of objects.',1);</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(364,364,'Ans)
+A prepared statement is an SQL statement that is precompiled by the database. Through precompilation, prepared statements improve the performance of SQL commands that are executed multiple times. Once compiled, prepared statements can be customized prior to each execution by altering predefined SQL parameters.',1);</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(365,365,'Ans)
+The difference is:
+A standard Statement is used to create a Java representation of a literal SQL statement and execute it on the database. A PreparedStatement is a precompiled statement. This means that when the PreparedStatement is executed, the RDBMS can just run the PreparedStatement SQL statement without having to compile it first.
+Statement has to verify its metadata against the database every time. While a prepared statement has to verify its metadata against the database only once.
+If you want to execute the SQL statement once go for STATEMENT. If you want to execute a single SQL statement multiple number of times, then go for PREPAREDSTATEMENT. PreparedStatement objects can be reused with passing different values to the queries',1);</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(366,366,'Ans)
+Callable statements are used from JDBC application to invoke stored procedures and functions.',1);</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(367,367,'Ans)
+PL/SQL stored procedures are called from within JDBC programs by means of the prepareCall() method of the Connection object created. A call to this method takes variable bind parameters as input parameters as well as output variables and creates an object instance of the CallableStatement class.',1);</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(368,368,'Ans)
+The types are:
+Type 1: JDBC/ODBC
+Type2: Native API (partly-Java driver)
+Type 3: Open Protocol-Net
+Type 4: Proprietary Protocol-Net(pure Java driver)',1);</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(369,369,'Ans)
+JDBC Net pure Java driver(Type IV) is the fastest driver because it converts the JDBC calls into vendor specific protocol calls and it directly interacts with the database.',1);</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(370,370,'Ans)
+No, You can open only one Statement object per connection when you are using the JDBC-ODBC Bridge.',1);</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(371,371,'Ans)
+The standard isolation levels are:
+TRANSACTION_NONE
+TRANSACTION_READ_COMMITTED
+TRANSACTION_READ_UNCOMMITTED
+TRANSACTION_REPEATABLE_READ
+TRANSACTION_SERIALIZABLE',1);</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(372,372,'Ans)
+The ResultSet represents set of rows retrieved due to query execution.
+Example: ResultSetrs = stmt.executeQuery(sqlQuery);',1);</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(373,373,'Ans)
+The types are:
+TYPE_FORWARD_ONLY specifies that a resultset is not scrollable, that is, rows within it can be advanced only in the forward direction.
+TYPE_SCROLL_INSENSITIVE specifies that a resultset is scrollable in either direction but is insensitive to changes committed by other transactions or other statements in the same transaction.
+TYPE_SCROLL_SENSITIVE specifies that a resultset is scrollable in either direction and is affected by changes committed by other transactions or statements within the same transaction.',1);</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(374,374,'Ans)
+An insensitive resultset is like the snapshot of the data in the database when query was executed. A sensitive resultset does NOT represent a snapshot of data; rather it contains points to those rows which satisfy the query condition.
+After we get the resultset the changes made to data are not visible through the resultset, and hence they are known as insensitive. After we obtain the resultset if the data is modified then such modifications are visible through resultset.',1);</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(375,375,'Ans)
+A RowSet is an object that encapsulates a set of rows from either Java Database Connectivity (JDBC) result sets or tabular data sources like a file or spreadsheet. RowSets support component-based development models like JavaBeans, with a standard set of properties and an event notification mechanism.',1);</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(376,376,'Ans)
+The different types are:
+Connected - A connected RowSet object connects to the database once and remains connected until the application terminates.
+Disconnected - A disconnected RowSet object connects to the database, executes a query to retrieve the data from the database and then closes the connection. A program may change the data in a disconnected RowSet while it is disconnected. Modified data can be updated in the database after a disconnected RowSet re-establishes the connection with the database.',1);</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(377,377,'Ans)
+The BatchUpdates feature allows us to group SQL statements together and send to database server in one single trip.',1);</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(378,378,'Ans)
+A DataSource object is the representation of a data source in the Java programming language. In basic terms,
+A DataSource is a facility for storing data.
+DataSource can be referenced by JNDI.
+Data Source may point to RDBMS; file System, any DBMS etc.',1);</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(379,379,'Ans)
+The advantages are:
+An application does not need to hardcode driver information, as it does with the DriverManager.
+The DataSource implementations can easily change the properties of data sources.
+The DataSource facility allows developers to implement a DataSource class to take advantage of features like connection pooling and distributed transactions.',1);</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(380,380,'Ans)
+A connection pool is a mechanism to reuse connections created. Connection pooling can increase performance dramatically by reusing connections rather than creating a new physical connection each time a connection is requested.',1);</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(381,381,'Ans)
+Multiprogramming is a rapid switching of the CPU back and forth between processes.',1);</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(382,382,'Ans)
+TCP is designed to provide reliable communication across a variety of reliable and unreliable networks and internets.UDP provides a connectionless so it isbasically an unreliable service. Delivery and duplicate protection are not guaranteed.',1);</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(383,383,'Ans)
+The combination of an IP address and a port number is called a socket.',1);</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(384,384,'Ans)
+The advantages are:
+Sockets are flexible and sufficient.
+Efficient socket based programming can be easily implemented for general communications.
+Sockets cause low network traffic.',1);</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(385,385,'Ans)
+The disadvantages are:
+Security restrictions are sometimes overbearing because a Java applet running in a Web browser is only able to establish connections to the machine where it came from, and to nowhere else on the network.
+Despite all of the useful and helpful Java features, Socket based communications allows only to send packets of raw data between applications. Both the client-side and server-side have to provide mechanisms to make the data useful in any way.
+Since the data formats and protocols remain application specific, the re-use of socket based implementations is limited.',1);</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(386,386,'Ans)
+It stands for Remote Method Invocation. RMI is a set of APIs that allows to build distributed applications. RMI uses interfaces to define remote objects to turn local method invocations into remote method invocations.',1);</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(387,387,'Ans)
+The socket () is very similar to socketPair() except that only one socket is created instead of two. This is most commonly used when if the process you wish to communicate with is not the child process.',1);</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(388,388,'Ans)
+The ServerSocket class is used to create serverSocket. This object is used to communicate with client.',1);</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(389,389,'Ans)
+It binds the socket to the specified server and port in the SocketAddress object. Use this method if you instantiated the ServerSocket using the no-argument constructor.',1);</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(390,390,'Ans)
+A datagram is an independent, self-contained message sent over the network whose arrival, arrival time, and content are not guaranteed.',1);</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Answers values(391,391,'Ans)
+It returns the port that the server socket is listening on. This method is useful if you passed in 0 as the port number in a constructor and let the server find a port for you.',1);</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393" t="str">
+        <f t="shared" ref="E393:E397" si="6">"insert into Answers values("&amp;A393&amp;","&amp;B393&amp;",'"&amp;C393&amp;"',"&amp;D393&amp;");"</f>
+        <v>insert into Answers values(392,392,'Ans)
+It waits for an incoming client. This method blocks until either a client connects to the server on the specified port or the socket times out, assuming that the time-out value has been set using the setSoTimeout() method. Otherwise, this method blocks indefinitely.',1);</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Answers values(393,393,'Ans)
+A network interface is the point of interconnection between a computer and a private or public network. A network interface is generally a network interface card (NIC), but does not have to have a physical form.',1);</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Answers values(394,394,'Ans)
+Hiding data within the class and making it available only through the methods. This technique is used to protect your class against accidental changes to fields, which might leave the class in an inconsistent state.',1);</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Answers values(395,395,'Ans)
+It occurs when two or more processes are reading or writing some shared data and the final result depends on who runs precisely when.',1);</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into Answers values(396,396,'Ans)
+Socket is created from this information:
+Local System's: IP Address and Port Number
+Remote System’s: IPAddress and Port Number',1);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB/DB_JIQ.xlsx
+++ b/DB/DB_JIQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="13395" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="13395" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>Ans) Yes its possible using reflection.</t>
-  </si>
-  <si>
-    <t>Ans) Local classes can most definitely reference instance variables. The reason they cannot reference non final local variables is because the local class instance can remain in memory after the method returns. When the method returns the local variables go out of scope, so a copy of them is needed. If the variables weren't final then the copy of the variable in the method could change, while the copy in the local class didn't, so they'd be out of synch.
-Anonymous inner classes require final variables because of the way they are implemented in Java. An anonymous inner class (AIC) uses local variables by creating a private instance field which holds a copy of the value of the local variable. The inner class isn't actually using the local variable, but a copy. It should be fairly obvious at this point that a "Bad Thing"™ can happen if either the original value or the copied value changes; there will be some unexpected data synchronization problems. In order to prevent this kind of problem, Java requires you to mark local variables that will be used by the AIC as final (i.e., unchangeable). This guarantees that the inner class' copies of local variables will always match the actual values.</t>
   </si>
   <si>
     <t>Ans) An abstract class which has all methods as abstract and all fields are public static final.</t>
@@ -218,22 +214,6 @@
 Inside init</t>
   </si>
   <si>
-    <t>Ans) Inheritance  is the property which allows a Child class to inherit some properties from its parent  class. In Java this is achieved by using extends keyword. Only properties with access modifier public and protected can be  accessed in child class.
-public class Parent{
-public String parentName;
-public int parentage;
-public String familyName;
-}
-public class Child extends Parent{
-public String childName;
-public int childAge;
-public void printMyName(){
-System.out.println(&amp;ldquo; My name is &amp;ldquo;+ chidName+&amp;rdquo; &amp;ldquo; +familyName)
-}
-}
-In above example the child has inherit its family name from the parent class just by inheriting the class.</t>
-  </si>
-  <si>
     <t>Ans) If a child  class inherits the property from multiple classes is known as multiple  inheritance.
 Java does not allow to extend multiple classes but to  overcome this problem it allows to implement multiple Interfaces.</t>
   </si>
@@ -269,56 +249,10 @@
 }</t>
   </si>
   <si>
-    <t>Ans)
-Polymorphism
-gives us the ultimate flexibility in extensibility. The abiltiy to define more than one function with the same name is called Polymorphism. In java,c++  there are two type of polymorphism: compile time polymorphism (overloading) and  runtime polymorphism (overriding).
-When you override methods, JVM determines the proper methods to call at the  program&amp;rsquo;s run time, not at the compile time. Overriding occurs when a class  method has the same name and signature as a method in parent class.
-Overloading  occurs when several methods have same names with
-Overloading  is determined at the compile time.
-Different  method signature and different number or type of parameters.
-Same  method signature but different number of parameters.
-Same  method signature and same number of parameters but of different type
-Example of Overloading
-     int add(int a,int b)
-     float add(float a,int b)
-     float add(int a ,float b)
-     void add(float a)
-     int add(int a)
-     void add(int a)                 //error conflict with the  method int add(int a)
-Example: Overloading
-Class BookDetails{
-            String title;
-            String publisher;
-            float price;
-setBook(String title){
-}
-setBook(String title, String publisher){
-}
-setBook(String title, String publisher,float price){
-}
-}
-Example: Overriding
-class BookDetails{
-            String title;
-setBook(String title){
-           }
-}
-class ScienceBook extends BookDetails{
-            setBook(String title){}                                             //overriding
-setBook(String title, String publisher,float price){
-       }  //overloading
-}</t>
-  </si>
-  <si>
     <t>Core concepts</t>
   </si>
   <si>
     <t>Ans) To access the static method the  object of the class is not needed. The method can be access directly with the help of  ClassName. So when a program is started the jvm search for the class with main  method and calls it without creating an object of the class.</t>
-  </si>
-  <si>
-    <t>Ans) instance method belongs to the instance of a class therefore it requires an instance before it  can be invoked, whereas static method belongs to the class itself and not to any class instance so it doesn&amp;rsquo;t need an  instance to be invoked.
-Instance methods use dynamic (late) binding, whereas static  methods use static (early) binding.
-When the JVM invokes a class instance method, it selects the method to invoke based on the type  of the object reference, which is always known at run-time. On the other  hand, when the JVM invokes a static  method, it selects the method to invoke based on the actual class of the  object, which may only be known at compile time.</t>
   </si>
   <si>
     <t>Ans) Yes, static block can throw only Runtime exception or can use a try-catch block to catch checked exception.
@@ -490,32 +424,6 @@
     <t>Ans) A class cannot be declared static. But a class can be said a static class if all the variables and methods of the class
 are static and the constructor is private. Making the constructor private will prevent the class to be
 instantiated. So the only possibility to access is using Class name only</t>
-  </si>
-  <si>
-    <t>Ans) The final keyword can be assigned to
-Class level variable
-method
-class
-Objects
-If a final is assigned to a variable, the  variable behaves as a constant. It means that the value of variable once set cannot be  changed.
-final int i=1;
-i =5; // error
-If a  final is assigned to a method then it cannot be  overridden in its child class.
-class Parent {
-final void  print(){
-            System.out.println(&amp;ldquo;Inside&amp;rdquo;);
-}
-}
-class Child extends Parent{
-public final void  print(){             // error cannot  override final method
-            System.out.println(&amp;ldquo;Inside&amp;rdquo;);
-}
-}
-If a  class is made as final, then no other class can  extend it and make it as parent class. E.g. String Class.
-Final  objects are instantiated only once. i.e
-final Map map = new HashMap();
-map.put(&amp;ldquo;key&amp;rdquo;,&amp;rdquo;value&amp;rdquo;);
-map = new HashMap();  // error</t>
   </si>
   <si>
     <t>Ans) This keyword is used to prevent concurrency. Synchronized keyword  can be applied to static/non-static methods or a block of code. Only one thread  at a time can access synchronized methods and if there are multiple threads trying  to access the same method then other threads have to wait for the execution of method  by one thread. Synchronized keyword  provides a lock on the object and thus prevents race condition. E.g.
@@ -669,16 +577,6 @@
   </si>
   <si>
     <t>Ans)
-       Both collections implements Map. Both collections store value as key-value pairs.
-      The key differences between the two are
-1. Hashmap is not synchronized in nature but hshtable is.
-2. Another difference is that iterator in the HashMap is fail-safe while the enumerator for the Hashtable isn''t.
-Fail-safe
-- “if the Hashtable is structurally modified at any time after the iterator is created, in any way except through the iterator''s own remove method, the iterator will throw a ConcurrentModificationException??
-3.  HashMap permits null values and only one null key, while Hashtable doesn''t allow key or value as null.</t>
-  </si>
-  <si>
-    <t>Ans)
 There are three classes that implement List interface:
 1)
 ArrayList
@@ -723,11 +621,6 @@
 To create an array the size should be known or initalized to some value. If not initialized carefully there could me memory wastage. But arrayList is all about dynamic creation and there is no wastage of memory.</t>
   </si>
   <si>
-    <t>Ans)  Adding new elements is pretty fast for either  type of list. For the ArrayList, doing  random  lookup using &amp;quot;get&amp;quot; is fast, but for LinkedList, it''s slow. It''s slow  because there''s no efficient way to index into the middle of a linked list.  When removing elements, using ArrayList is slow. This is because all remaining  elements in the underlying array of Object instances must be shifted down for  each remove operation. But here LinkedList is fast, because deletion can be  done simply by changing a couple of links. So an ArrayList works best for cases  where you''re doing random access on the list, and a LinkedList works better if  you''re doing a lot of editing in the middle of the list.
-Source :
-Read More - from java.sun</t>
-  </si>
-  <si>
     <t>Ans) It can be done in two ways, using for loop or using iterator of ArrayList. The first option is faster than using iterator. Because value stored in arraylist is indexed access. So while accessing the value is accessed directly as per the index.</t>
   </si>
   <si>
@@ -776,12 +669,6 @@
              of the Map.
 2) If the objects are of different type like one of Person class , other of Animal class etc then also one can have single hashmap but different hashmap 
              would score over it as it would have better readability.</t>
-  </si>
-  <si>
-    <t>Ans) It is preferred because:
-If later on code needs to be changed from  ArrayList to Vector then only at the declaration place we can do that.
-The most important one &amp;ndash; If a function is  declared such that it takes list. E.g void showDetails(List list);
-When the parameter is declared as List  to  the function it can be called by passing any subclass of List like ArrayList,Vector,LinkedList making the function more flexible</t>
   </si>
   <si>
     <t>Ans) Index based access allow access of the element directly on the basis of index. The cursor of the datastructure can directly goto the ''n'' location and get the element. It doesnot traverse through n-1 elements.
@@ -1001,28 +888,6 @@
   </si>
   <si>
     <t>Ans) The code is put in a finally block because irrespective of try or catch block execution the control will flow to finally block. Typically finally block contains release of connections, closing of result set etc.</t>
-  </si>
-  <si>
-    <t>Ans) NO. This will result in a compilation error.
-   The try block must be followed by a catch or a finally block.
-   It is legal to omit the either catch or the finally block but not both.
-e.g.  The following code is illegal.
-try{
-int i =0;
-}
-int a = 2;
-System.out.println(&amp;ldquo;a =  &amp;ldquo;+a);</t>
-  </si>
-  <si>
-    <t>Ans) No. There should not be any line of code present between the try and the catch/finally block.
-   e.g.  The following code is wrong.
-try{}
-String str = &amp;ldquo;ABC&amp;rdquo;;
-System.out.println(&amp;ldquo;str  = &amp;ldquo;+str);
-catch(Exception e){}</t>
-  </si>
-  <si>
-    <t>Ans) If the exception is not caught by any of the method in the method&amp;#8217;s stack till you get to the main() method, the main method throws that exception and the JVM halts its execution.</t>
   </si>
   <si>
     <t>Ans) All the exceptions inherit a method printStackTrace() from the Throwable class. This method prints the stack trace from where the exception occurred.
@@ -1076,10 +941,6 @@
 } catch (IOException e){
 // handle FileNotFoundException only
 }</t>
-  </si>
-  <si>
-    <t>Ans) No. If the exceptions are siblings in the Exception class&amp;#8217;s hierarchy i.e. If one Exception class is not a subtype or supertype of the other, then the order in which
-    their handlers(catch clauses) are placed does not matter.</t>
   </si>
   <si>
     <t>Ans) If a method does not throw an checked  Exception directly but calls a method that throws an exception then the calling method must handle the throw exception or declare the exception in its throws clause. If the calling method does not handle and declares the exception, the exceptions is passed to the next method in the method stack. This is called as ducking the exception down the method stack.
@@ -1253,9 +1114,6 @@
     <t>What are the two ways of creating thread?</t>
   </si>
   <si>
-    <t>What are the different states of a thread's lifecycle?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> What is use of synchronized keyword?</t>
   </si>
   <si>
@@ -1299,13 +1157,6 @@
   </si>
   <si>
     <t>Can a class have both Synchronized and non-synchronized methods?</t>
-  </si>
-  <si>
-    <t>Ans) In Java, "thread" means two different things:
-An instance of class java.lang.Thread.
-A thread of execution.
-An instance of Thread is just&amp;hellip;an object. Like any other object in Java, it has variables and methods, and lives and dies on the heap. But a thread of execution is an individual process (a "lightweight" process) that has its own call stack. In Java, there is one thread per call stack&amp;mdash;or, to think of it in reverse, one call stack per thread. Even if you don""t create any new threads in your program, threads are back there running.
-The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you""d see that main() is the first method on the stack&amp;mdash; the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that""s separate from the main() call stack.</t>
   </si>
   <si>
     <t>Ans) There are two ways to create a new thread.
@@ -1539,14 +1390,6 @@
     <t>Ans) Inner class is a class defined inside other class and act like a  member of the enclosing class.</t>
   </si>
   <si>
-    <t>Ans) There are two main types of inner classes &amp;ndash;
-Static member class
-Inner class
-Member class
-Anonymous class
-Local class</t>
-  </si>
-  <si>
     <t>Ans) A static member class behaves much like an ordinary  top-level class, except that it can access the static members of the class that  contains it. The static nested class can be accessed as the other static  members of the enclosing class without having an instance of the outer class.  The static class can contain non-static and static members and methods.
 public class InnerClass {
       static class StaticInner {
@@ -1563,62 +1406,6 @@
       The  static inner class can be accessed from Outer Class in the following manner:
 InnerClass.StaticInner staticObj= new InnerClass. StaticInner ();
 No outer class instance is required to  instantiate the nested static class because the static class is a static member  of the enclosing class.</t>
-  </si>
-  <si>
-    <t>Ans) The different type of static inner classes are:
-  Non - static inner  classes &amp;ndash; classes associated with the object of the enclosing class.
-Member class
--  Classes declared outside a function (hence a &amp;quot;member&amp;quot;) and not  declared &amp;quot;static&amp;quot;.
-The member class can be declared as public, private,  protected, final and abstract. E.g.
-public class InnerClass {
-class MemberClass {
-public void  method1() { }
-}
-}
-Method local class
-&amp;ndash; The inner class declared inside the method is called method local inner  class. Method local inner class can only be declared as final or abstract.        Method local class can only access global variables or  method local variables if declared as final
-public class InnerClass {
-int i = 9;
-public void method1() {
-final int k = 6;
-class MethodLocal {
-MethodLocal() {
-System.out.println(k  + i);
-}
-}
-}
-}
-Anonymous inner  class
-- These are local classes which are automatically declared and  instantiated in the middle of an expression.  Also, like local classes, anonymous classes  cannot be public, private, protected, or static. They can specify arguments to  the constructor of the superclass, but cannot otherwise have a constructor. They  can implement only one interface or extend a class.
-Anonymous class cannot define any static fields, methods,  or classes, except for static final constants.
-Also, like local classes, anonymous classes cannot be  public, private, protected, or static
-Some examples:
-public class MyFrame extends JFrame {
-JButton btn = new JButton();
-MyFrame() {
-btn.addActionListener(new  ActionListener() {
-public void  actionPerformed(ActionEvent e) {
-}
-});
-}
-}
-Anonymous class  used with comparator
-List&amp;lt;Parent&amp;gt; l = new ArrayList&amp;lt;Parent&amp;gt;();
-l.add(new Parent(2));
-l.add(new Parent(3));
-Collections.sort(l, new Comparator() {
-public int compare(Object o1,  Object o2) {
-Parent prt1 = (Parent) o1;
-Parent prt2 = (Parent) o2;
-if (prt1.getAge() &amp;gt;  prt2.getAge()) {
-return -1;
-}else if(prt1.getAge()&amp;lt;prt2.getAge())  {
-return 1;
-} else {
-return 0;
-}
-}
-});</t>
   </si>
   <si>
     <t>Ans) No .</t>
@@ -1673,74 +1460,6 @@
        sometimes annoying for the developer.</t>
   </si>
   <si>
-    <t>Ans 1)
-Plain old anonymous class type one
-&amp;ndash;
-e.g.
-class superClass{
-         void doSomething()
-      {
-      System.out.println(&amp;ldquo;Doing something in the Super
-      class&amp;rdquo;);
-         }
- }
-class hasAnonymous{
-      superClass anon = new superClass(){
-           void doSomething() {
-      System.out.println(&amp;ldquo;Doing something in the Anonymous
-      class&amp;rdquo;);
-      }
-      };
-Here anon is the reference which is of type superClass which is the
-      class extended by the anonymous class i.e. superclass of the
-      anonymous class. The method doSomething() is the super class method
-      overridden by the anonymous class.
-2)
-Plain old anonymous class type two
-&amp;ndash;
-interface Eatable{
-       public void prepareSweets();
- }
-class serveMeal{
- Eatable food = new Eatable(){
-              public void
-      prepareSweets(){ //come implementation code goes here }
-     };
-}
- food is reference variable of type Eatable interface which
-      refers to the anonymous class which is the implementer of the
-      interface Eatable. The anonymous implementer class of the interface
-      Eatable implements its method prepareSweets() inside it.
-3)
-Argument defined anonymous class
-&amp;ndash; e.g.
-interface Vehicle {
-   void getNoOfWheels();
- }
-class Car {
-       void getType(Vehical v) { }
-}
-class BeautifulCars {
-        void
-      getTheBeautifilCar() {
-      Car c = new Car ();
-      c.getType (new Vehicle () {
-              public void getNoOfWheels () {
-      System.out.println(&amp;quot;It has four wheels&amp;quot;);
-              }
-      });
-        }
- }
- Anonymous class is defined as the argument of the method
-      getTheBeautifilCar(), this anonymous class is the implementer of
-      the interface Vehicle. The method of class Car getTheBeautifilCar()
-      expects the argument as an object of type Vehicle. So first we
-      create an object of Car referenced by the variable &amp;lsquo;c&amp;rsquo;.
-      On this object of Car we call the method getTheBeautifilCar() and
-      in the argument we create an anonymous class in place which is the
-      implementer of interface Vehicle hence of type Vehicle.</t>
-  </si>
-  <si>
     <t>Ans) If a inner class enclosed with an outer class is compiled
        then one .class file for each inner class an a .class file for the
        outer class is created. e.g.
@@ -1759,25 +1478,6 @@
 % java EnclosingOuter$Inner</t>
   </si>
   <si>
-    <t>Ans) The inner class is instantiated only through the outer class
-      instance.
-class EnclosingOuter {
-private int noInnerClass = 1;
-public void getNoOfInnerClasses(){
-           Inner
-      in = new Inner();
-System.out.println(&amp;ldquo;No Of Inner classes is : &amp;ldquo;+
-in.getNoOfClassesFromOuter()
-);
-}
-class Inner{
-public int getNoOfClassesFromOuter(){ return noInnerClass; }
-}
-Here the method getNoOfInnerClasses() is called on the outer
-      class&amp;rsquo;s instance through this outer class instance the inner
-      class instance in is created.</t>
-  </si>
-  <si>
     <t>Ans)
 To create an instance of the inner class you must
        have the instance of its enclosing class
@@ -1793,34 +1493,6 @@
 }
 2) class OtherThanOuter{
 EnclosingOuter.Inner out = new EnclosingOuter.Inner (); }</t>
-  </si>
-  <si>
-    <t>Ans) The outer this reference i.e. the outer class&amp;rsquo; current
-      instance&amp;rsquo; reference can be
-refered using &amp;lsquo;OuterClassName.this&amp;rsquo;.
-E.g
- class EnclosingOuter {
-           class
-      Inner{
-      System.out.println(&amp;ldquo;Inner class reference is &amp;ldquo; + this);
-      // inner class instance
-System.out.println(&amp;ldquo;Outer class reference is &amp;ldquo; +
-       EnclosingOuter.this); //outer class instance
- }
-}
-To refer the inner class reference from
-        within the inner class use this.</t>
-  </si>
-  <si>
-    <t>Ans) Following are modifiers that can be applied to the inner:
-     public
-     private
-     abstract
-     final
-     protected
-     strictfp
-     static &amp;ndash; turns the inner class into
-      static nested class.</t>
   </si>
   <si>
     <t>Ans) No, a method local inner class object can not access the
@@ -1852,35 +1524,6 @@
       than static members.</t>
   </si>
   <si>
-    <t>Ans) No. Compilation will fail.As the reference variable type of
-      the anonymous class will be of superclass which will not know of
-      any method defined inside the anonymous class the compilation will
-      fail.
-e.g. class SuperClass{
-      void doSomething() {
-      System.out.println(&amp;quot;In the Super class&amp;quot;);
-      }
- }
-class hasAnonymous{
-SuperClass anon = new SuperClass(){
-                void
-      doSomething() {
-      System.out.println(&amp;quot;In the Anonymous class&amp;quot;);
-                }
-      void doStuff() {
-      System.out.println(&amp;quot;An Anonymous class method not present in
-      superClass&amp;quot;);
-      }
- };
-public void doIt(){
-      anon.doSomething(); // legal
-      superClass has this method
-      anon.doStuff(); // Not legal }
-}
- The above code does not compile as the superClass does not
-      know about the anonymous class method doStuff().</t>
-  </si>
-  <si>
     <t>Ans) Yes. But there will be no way by which the methods defined in
       the anonymous class which are not present in its superclass be
       invoked. As only those methods which are defined in the suprclass
@@ -1928,15 +1571,7 @@
       class instance code?</t>
   </si>
   <si>
-    <t>How to refer to the outer this i.e. outer class&amp;rsquo;s current
-      instance from inside the inner class?</t>
-  </si>
-  <si>
     <t>Which modifiers can be applied to the inner class?</t>
-  </si>
-  <si>
-    <t>Can the method local inner class object access method&amp;rsquo;s
-      local variables?</t>
   </si>
   <si>
     <t>Can a method local inner class access the local final    variables?Why?</t>
@@ -1961,238 +1596,10 @@
     <t>Ans)  Serializable is a marker interface. When an object has to be transferred over a network ( typically through rmi or EJB) or persist the state of an object to a file, the object Class needs to implement Serializable interface. Implementing this interface will allow the object converted into bytestream and transfer over a network.</t>
   </si>
   <si>
-    <t>Ans) During object serialization, the default Java serialization mechanism writes the
- metadata about the object, which includes the class name, field names and types,
- and superclass. This class definition is stored as a part of the serialized
- object. This stored metadata enables the deserialization process to reconstitute
- the objects and map the stream data into the class attributes with the
- appropriate type
-Everytime an object is serialized the java serialization mechanism automatically computes a hash value. ObjectStreamClass''s
-computeSerialVersionUID
-() method passes the class name, sorted member names, modifiers, and interfaces to the secure hash algorithm (SHA), which returns a hash value.The serialVersionUID is also called
-suid
-.
-So when the serilaize object is retrieved , the JVM first evaluates the
-suid
-of the serialized class and compares the
-suid
-value with the one of the object. If the suid values match then the object is said to be compatible with the class and hence it is de-serialized. If not
-InvalidClassException
-exception is thrown.
-Changes to a serializable class can be compatible or incompatible. Following is the list of changes which are compatible:
-Add fields
-Change a field from static to non-static
-Change a field from transient to non-transient
-Add classes to the object tree
-List of incompatible changes:
-Delete fields
-Change class hierarchy
-Change non-static to static
-Change non-transient to transient
-Change type of a primitive field
-So, if no suid is present , inspite of making compatible changes, jvm generates new
-suid
-thus resulting in an exception if prior release version object is used .
-The only way to get rid of the exception is to recompile and deploy the application again.
-If we explicitly metion the suid using the statement:
-private final static long serialVersionUID = &amp;lt;integer value&amp;gt;
-then if any of the metioned compatible changes are made the class need not to be recompiled. But for incompatible changes there is no other way than to compile again.</t>
-  </si>
-  <si>
-    <t>Ans) The serialization is used :-
-To send  state of one or more object&amp;rsquo;s state over the network through a socket.
-To save the state of an  object in a file.
-An  object&amp;rsquo;s state needs to be manipulated as a stream of bytes.</t>
-  </si>
-  <si>
-    <t>Ans) Besides the Serializable interface, at least three alternate approaches can serialize Java objects:
-1)For object serialization, instead of implementing the Serializable interface, a developer can implement the Externalizable interface, which extends Serializable. By implementing Externalizable, a developer is responsible for implementing the writeExternal() and readExternal() methods. As a result, a developer has sole control over reading and writing the serialized objects.
-2)XML serialization is an often-used approach for data interchange. This approach lags runtime performance when compared with Java serialization, both in terms of the size of the object and the processing time. With a speedier XML parser, the performance gap with respect to the processing time narrows. Nonetheless, XML serialization provides a more malleable solution when faced with changes in the serializable object.
-3)Finally, consider a &amp;quot;roll-your-own&amp;quot; serialization approach. You can write an object''s content directly via either the ObjectOutputStream or the DataOutputStream. While this approach is more involved in its initial implementation, it offers the greatest flexibility and extensibility. In addition, this approach provides a performance advantage over Java serialization.</t>
-  </si>
-  <si>
     <t>Ans) No. Serializable is a Marker Interface. It does  not have any methods.</t>
   </si>
   <si>
-    <t>Ans) If the object to be serialized includes the  references to other objects whose class implements serializable then all those  object&amp;rsquo;s state also will be saved as the part of the serialized state of the  object in question. The whole object graph of the object to be serialized will  be saved during serialization automatically provided all the objects included  in the object&amp;rsquo;s graph are serializable.</t>
-  </si>
-  <si>
-    <t>Ans- If you try to serialize an object of a class  which implements serializable, but the object includes a reference to an  non-serializable class then a &amp;lsquo;NotSerializableException&amp;rsquo; will be thrown at  runtime.
-e.g.
-public class NonSerial {
-    //This is a non-serializable  class
-}
-public class MyClass implements Serializable{
-    private static final long
-serialVersionUID
-= 1L;
-    private NonSerial nonSerial;
-    MyClass(NonSerial  nonSerial){
-        this.nonSerial = nonSerial;
-    }
-    public static void main(String [] args)  {
-        NonSerial nonSer = new NonSerial();
-        MyClass c = new MyClass(nonSer);
-        try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;test1.ser&amp;quot;);
-        ObjectOutputStream os = new ObjectOutputStream(fs);
-        os.writeObject(c);
-        os.close();
-        } catch (Exception e) {  e.printStackTrace(); }
-        try {
-        FileInputStream fis = new FileInputStream(&amp;quot;test1.ser&amp;quot;);
-        ObjectInputStream ois = new ObjectInputStream(fis);
-        c = (MyClass)  ois.readObject();
-        ois.close();
-            } catch (Exception e) {
-            e.printStackTrace();
-          }
-    }
-}
-On execution of above code following exception will be thrown  &amp;ndash;
-java.io.NotSerializableException
-: NonSerial
-            at java.io.ObjectOutputStream.writeObject0(
-ObjectOutputStream.java
-)</t>
-  </si>
-  <si>
     <t>Ans) No. The static variables belong to the class  and not to an object they are not the part of the state of the object so they  are not saved as the part of serialized object.</t>
-  </si>
-  <si>
-    <t>Ans) These variables are not included in the  process of serialization and are not the part of the object&amp;rsquo;s serialized state.</t>
-  </si>
-  <si>
-    <t>Ans) It&amp;rsquo;s default value.
-e.g. if the transient variable in question is an int, it&amp;rsquo;s value after  deserialization will be zero.
-public class TestTransientVal implements Serializable{
-    private static final long
-serialVersionUID
-=  -22L;
-    private String name;
-    transient private int age;
-    TestTransientVal(int age, String  name) {
-        this.age = age;
-        this.name = name;
-    }
-    public static void main(String [] args)  {
-        TestTransientVal c = new TestTransientVal(1,&amp;quot;ONE&amp;quot;);
-        System.
-out
-.println(&amp;quot;Before  serialization: - &amp;quot; + c.name + &amp;quot; &amp;quot;+ c.age);
-        try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;testTransients.ser&amp;quot;);
-        ObjectOutputStream os = new ObjectOutputStream(fs);
-        os.writeObject(c);
-        os.close();
-        } catch (Exception e) {  e.printStackTrace(); }
-        try {
-        FileInputStream fis = new FileInputStream(&amp;quot;testTransients.ser&amp;quot;);
-        ObjectInputStream ois = new ObjectInputStream(fis);
-        c = (TestTransientVal)  ois.readObject();
-        ois.close();
-        } catch (Exception e) {  e.printStackTrace(); }
-        System.
-out
-.println(&amp;quot;After  de-serialization:- &amp;quot; + c.name + &amp;quot; &amp;quot;+ c.age);
-        }
-}
-Result of executing above piece of code &amp;ndash;
-Before serialization: - Value of non-transient variable ONE Value of  transient variable 1
-After de-serialization:- Value of non-transient  variable ONE Value of transient variable 0
-Explanation &amp;ndash;
-The transient variable is not saved as the part of  the state of the serailized variable, it&amp;rsquo;s value after de-serialization is it&amp;rsquo;s  default value.</t>
-  </si>
-  <si>
-    <t>Ans) Yes.  As  while restoring the object&amp;rsquo;s state the transient variables and the serializable  variables that are stored must be restored in the same order in which they were  saved.</t>
-  </si>
-  <si>
-    <t>Ans) When you want to store the transient variables  state as a part of the serialized object at the time of serialization the class  must implement the following methods &amp;ndash;
-private void wrtiteObject(ObjectOutputStream outStream)
-{
-//code to save the transient variables state as a part of serialized  object
-}
-private void readObject(ObjectInputStream inStream)
-{
-//code to read the transient variables state and assign it to the  de-serialized object
-}
-e.g.
-public class TestCustomizedSerialization implements Serializable{
-    private static final long
-serialVersionUID
-=-22L;
-    private String noOfSerVar;
-    transient private int noOfTranVar;
-    TestCustomizedSerialization(int noOfTranVar, String  noOfSerVar) {
-        this.noOfTranVar = noOfTranVar;
-        this.noOfSerVar = noOfSerVar;
-    }
-    private void writeObject(ObjectOutputStream os) {
-     try {
-     os.defaultWriteObject();
-     os.writeInt(noOfTranVar);
-     } catch (Exception e) {  e.printStackTrace(); }
-     }
-     private void readObject(ObjectInputStream is) {
-     try {
-     is.defaultReadObject();
-     int noOfTransients =  (is.readInt());
-     } catch (Exception e) {
-         e.printStackTrace(); }
-     }
-     public int getNoOfTranVar() {
-        return noOfTranVar;
-    }
-}
-The value of transient variable &amp;lsquo;noOfTranVar&amp;rsquo; is saved as part of the  serialized object manually by implementing writeObject() and restored by  implementing readObject().
-The normal serializable variables are saved and restored by calling  defaultWriteObject() and defaultReadObject()respectively. These methods perform  the normal serialization and de-sirialization process for the object to be  saved or restored respectively.</t>
-  </si>
-  <si>
-    <t>Ans)  The values of the instance variables inherited  from superclass will be reset to the values they were given during the original  construction of the object as the non-serializable super-class constructor will  run.
-E.g.
-public class ParentNonSerializable {
-    int noOfWheels;
-    ParentNonSerializable(){
-        this.noOfWheels = 4;
-    }
-}
-public class ChildSerializable extends ParentNonSerializable implements Serializable {
-    private static final long
-serialVersionUID
-= 1L;
-    String color;
-    ChildSerializable() {
-        this.noOfWheels = 8;
-        this.color = &amp;quot;blue&amp;quot;;
-    }
-}
-public class SubSerialSuperNotSerial {
-    public static void main(String [] args)  {
-        ChildSerializable c = new ChildSerializable();
-        System.
-out
-.println(&amp;quot;Before : -  &amp;quot; +  c.noOfWheels + &amp;quot; &amp;quot;+ c.color);
-        try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;superNotSerail.ser&amp;quot;);
-        ObjectOutputStream os = new ObjectOutputStream(fs);
-        os.writeObject(c);
-        os.close();
-        } catch (Exception e) {  e.printStackTrace(); }
-        try {
-        FileInputStream fis = new FileInputStream(&amp;quot;superNotSerail.ser&amp;quot;);
-        ObjectInputStream ois = new ObjectInputStream(fis);
-        c = (ChildSerializable) ois.readObject();
-        ois.close();
-        } catch (Exception e) {  e.printStackTrace(); }
-        System.
-out
-.println(&amp;quot;After :-  &amp;quot; +  c.noOfWheels + &amp;quot; &amp;quot;+ c.color);
-        }
-}
-Result  on executing above code &amp;ndash;
-Before : - 8 blue
-After :- 4 blue
-The instance variable &amp;lsquo;noOfWheels&amp;rsquo; is inherited from superclass which is  not serializable. Therefore while restoring it the non-serializable superclass  constructor runs and its value is set to 8 and is not same as the value saved  during serialization which is 4.</t>
   </si>
   <si>
     <t>What are the advantages of immutability?</t>
@@ -2248,18 +1655,7 @@
   </si>
   <si>
     <t>Ans)
-Immutable class is a class which once created, it&amp;rsquo;s contents can  not be changed.
-Immutable objects are the objects whose  state can not be changed once constructed.
-e.g. String class</t>
-  </si>
-  <si>
-    <t>Ans)
 True. Since the state of the immutable objects can not be changed  once they are created they are automatically synchronized/thread-safe.</t>
-  </si>
-  <si>
-    <t>Ans)
-All wrapper classes in java.lang are  immutable &amp;ndash;
-String, Integer, Boolean, Character, Byte, Short,  Long, Float, Double, BigDecimal, BigInteger</t>
   </si>
   <si>
     <t>What are the disadvantages of deep cloning?</t>
@@ -2310,16 +1706,6 @@
 Java Object Serialization is slow, and using it to make a deep copy requires both serializing and deserializing.
 There are ways to speed it up (e.g., by pre-computing serial version ids and defining custom readObject() and writeObject() methods), but this will usually be the primary bottleneck. 
 The byte array stream implementations included in the java.io package are designed to be general enough to perform reasonable well for data of different sizes and to be safe to use in a multi-threaded environment. These characteristics, however, slow down ByteArrayOutputStream and (to a lesser extent) ByteArrayInputStream .</t>
-  </si>
-  <si>
-    <t>Ans) The differences are as follows:
-Consider the class:
-public class MyData{
-String id;
-Map myData;
-}
-The shallow copying of this object will have new id object and values as  &amp;ldquo;&amp;rdquo; but will point to the myData of the original object. So a change in myData  by either original or cloned object will be reflected in other also. But in  deep copying there will be new id object and also new myData object and independent  of original object but with same values.
-Shallow copying is default cloning in Java which can be achieved       using clone() method of Object class. For deep copying some extra logic       need to be provided.</t>
   </si>
   <si>
     <t>Ans) If we do a = clone(b)
@@ -4535,6 +3921,620 @@
 Socket is created from this information:
 Local System's: IP Address and Port Number
 Remote System’s: IPAddress and Port Number</t>
+  </si>
+  <si>
+    <t>How to refer to the outer this i.e. outer class'' current
+      instance from inside the inner class?</t>
+  </si>
+  <si>
+    <t>Can the method local inner class object access method''s
+      local variables?</t>
+  </si>
+  <si>
+    <t>What are the different states of a thread''s lifecycle?</t>
+  </si>
+  <si>
+    <t>Ans) NO. This will result in a compilation error.
+   The try block must be followed by a catch or a finally block.
+   It is legal to omit the either catch or the finally block but not both.
+e.g.  The following code is illegal.
+try{
+int i =0;
+}
+int a = 2;
+System.out.println("a =  "+a);</t>
+  </si>
+  <si>
+    <t>Ans) Inheritance  is the property which allows a Child class to inherit some properties from its parent  class. In Java this is achieved by using extends keyword. Only properties with access modifier public and protected can be  accessed in child class.
+public class Parent{
+public String parentName;
+public int parentage;
+public String familyName;
+}
+public class Child extends Parent{
+public String childName;
+public int childAge;
+public void printMyName(){
+System.out.println(" My name is "+ chidName+":" +familyName)
+}
+}
+In above example the child has inherit its family name from the parent class just by inheriting the class.</t>
+  </si>
+  <si>
+    <t>Ans) The final keyword can be assigned to
+Class level variable
+method
+class
+Objects
+If a final is assigned to a variable, the  variable behaves as a constant. It means that the value of variable once set cannot be  changed.
+final int i=1;
+i =5; // error
+If a  final is assigned to a method then it cannot be  overridden in its child class.
+class Parent {
+final void  print(){
+            System.out.println("Inside");
+}
+}
+class Child extends Parent{
+public final void  print(){             // error cannot  override final method
+            System.out.println("Inside");
+}
+}
+If a  class is made as final, then no other class can  extend it and make it as parent class. E.g. String Class.
+Final  objects are instantiated only once. i.e
+final Map map = new HashMap();
+map.put("key","value");
+map = new HashMap();  // error</t>
+  </si>
+  <si>
+    <t>Ans) No. There should not be any line of code present between the try and the catch/finally block.
+   e.g.  The following code is wrong.
+try{}
+String str = "ABC";
+System.out.println("str  = "+str);
+catch(Exception e){}</t>
+  </si>
+  <si>
+    <t>Ans) The differences are as follows:
+Consider the class:
+public class MyData{
+String id;
+Map myData;
+}
+The shallow copying of this object will have new id object and values as  "" but will point to the myData of the original object. So a change in myData  by either original or cloned object will be reflected in other also. But in  deep copying there will be new id object and also new myData object and independent  of original object but with same values.
+Shallow copying is default cloning in Java which can be achieved       using clone() method of Object class. For deep copying some extra logic       need to be provided.</t>
+  </si>
+  <si>
+    <t>Ans)
+Polymorphism
+gives us the ultimate flexibility in extensibility. The abiltiy to define more than one function with the same name is called Polymorphism. In java,c++  there are two type of polymorphism: compile time polymorphism (overloading) and  runtime polymorphism (overriding).
+When you override methods, JVM determines the proper methods to call at the  program''s run time, not at the compile time. Overriding occurs when a class  method has the same name and signature as a method in parent class.
+Overloading  occurs when several methods have same names with
+Overloading  is determined at the compile time.
+Different  method signature and different number or type of parameters.
+Same  method signature but different number of parameters.
+Same  method signature and same number of parameters but of different type
+Example of Overloading
+     int add(int a,int b)
+     float add(float a,int b)
+     float add(int a ,float b)
+     void add(float a)
+     int add(int a)
+     void add(int a)                 //error conflict with the  method int add(int a)
+Example: Overloading
+Class BookDetails{
+            String title;
+            String publisher;
+            float price;
+setBook(String title){
+}
+setBook(String title, String publisher){
+}
+setBook(String title, String publisher,float price){
+}
+}
+Example: Overriding
+class BookDetails{
+            String title;
+setBook(String title){
+           }
+}
+class ScienceBook extends BookDetails{
+            setBook(String title){}                                             //overriding
+setBook(String title, String publisher,float price){
+       }  //overloading
+}</t>
+  </si>
+  <si>
+    <t>Ans) instance method belongs to the instance of a class therefore it requires an instance before it  can be invoked, whereas static method belongs to the class itself and not to any class instance so it doesn''t need an  instance to be invoked.
+Instance methods use dynamic (late) binding, whereas static  methods use static (early) binding.
+When the JVM invokes a class instance method, it selects the method to invoke based on the type  of the object reference, which is always known at run-time. On the other  hand, when the JVM invokes a static  method, it selects the method to invoke based on the actual class of the  object, which may only be known at compile time.</t>
+  </si>
+  <si>
+    <t>Ans) The inner class is instantiated only through the outer class
+      instance.
+class EnclosingOuter {
+private int noInnerClass = 1;
+public void getNoOfInnerClasses(){
+           Inner
+      in = new Inner();
+System.out.println("No Of Inner classes is : "+
+in.getNoOfClassesFromOuter()
+);
+}
+class Inner{
+public int getNoOfClassesFromOuter(){ return noInnerClass; }
+}
+Here the method getNoOfInnerClasses() is called on the outer
+      class''s instance through this outer class instance the inner
+      class instance in is created.</t>
+  </si>
+  <si>
+    <t>Ans) The serialization is used :-
+To send  state of one or more object''s state over the network through a socket.
+To save the state of an  object in a file.
+An  object''s state needs to be manipulated as a stream of bytes.</t>
+  </si>
+  <si>
+    <t>Ans) If the object to be serialized includes the  references to other objects whose class implements serializable then all those  object''s state also will be saved as the part of the serialized state of the  object in question. The whole object graph of the object to be serialized will  be saved during serialization automatically provided all the objects included  in the object''s graph are serializable.</t>
+  </si>
+  <si>
+    <t>Ans) These variables are not included in the  process of serialization and are not the part of the object''s serialized state.</t>
+  </si>
+  <si>
+    <t>Ans) Yes.  As  while restoring the object''s state the transient variables and the serializable  variables that are stored must be restored in the same order in which they were  saved.</t>
+  </si>
+  <si>
+    <t>Ans)
+Immutable class is a class which once created, it''s contents can  not be changed.
+Immutable objects are the objects whose  state can not be changed once constructed.
+e.g. String class</t>
+  </si>
+  <si>
+    <t>Ans)  Adding new elements is pretty fast for either  type of list. For the ArrayList, doing  random  lookup using "get" is fast, but for LinkedList, it''s slow. It''s slow  because there''s no efficient way to index into the middle of a linked list.  When removing elements, using ArrayList is slow. This is because all remaining  elements in the underlying array of Object instances must be shifted down for  each remove operation. But here LinkedList is fast, because deletion can be  done simply by changing a couple of links. So an ArrayList works best for cases  where you''re doing random access on the list, and a LinkedList works better if  you''re doing a lot of editing in the middle of the list.
+Source :
+Read More - from java.sun</t>
+  </si>
+  <si>
+    <t>Ans) No. Compilation will fail.As the reference variable type of
+      the anonymous class will be of superclass which will not know of
+      any method defined inside the anonymous class the compilation will
+      fail.
+e.g. class SuperClass{
+      void doSomething() {
+      System.out.println("In the Super class");
+      }
+ }
+class hasAnonymous{
+SuperClass anon = new SuperClass(){
+                void
+      doSomething() {
+      System.out.println("In the Anonymous class");
+                }
+      void doStuff() {
+      System.out.println("An Anonymous class method not present in
+      superClass");
+      }
+ };
+public void doIt(){
+      anon.doSomething(); // legal
+      superClass has this method
+      anon.doStuff(); // Not legal }
+}
+ The above code does not compile as the superClass does not
+      know about the anonymous class method doStuff().</t>
+  </si>
+  <si>
+    <t>Ans) Besides the Serializable interface, at least three alternate approaches can serialize Java objects:
+1)For object serialization, instead of implementing the Serializable interface, a developer can implement the Externalizable interface, which extends Serializable. By implementing Externalizable, a developer is responsible for implementing the writeExternal() and readExternal() methods. As a result, a developer has sole control over reading and writing the serialized objects.
+2)XML serialization is an often-used approach for data interchange. This approach lags runtime performance when compared with Java serialization, both in terms of the size of the object and the processing time. With a speedier XML parser, the performance gap with respect to the processing time narrows. Nonetheless, XML serialization provides a more malleable solution when faced with changes in the serializable object.
+3)Finally, consider a "roll-your-own" serialization approach. You can write an object''s content directly via either the ObjectOutputStream or the DataOutputStream. While this approach is more involved in its initial implementation, it offers the greatest flexibility and extensibility. In addition, this approach provides a performance advantage over Java serialization.</t>
+  </si>
+  <si>
+    <t>Ans) It is preferred because:
+If later on code needs to be changed from  ArrayList to Vector then only at the declaration place we can do that.
+The most important one - If a function is  declared such that it takes list. E.g void showDetails(List list);
+When the parameter is declared as List  to  the function it can be called by passing any subclass of List like ArrayList,Vector,LinkedList making the function more flexible</t>
+  </si>
+  <si>
+    <t>Ans) There are two main types of inner classes -
+Static member class
+Inner class
+Member class
+Anonymous class
+Local class</t>
+  </si>
+  <si>
+    <t>Ans) Following are modifiers that can be applied to the inner:
+     public
+     private
+     abstract
+     final
+     protected
+     strictfp
+     static - turns the inner class into
+      static nested class.</t>
+  </si>
+  <si>
+    <t>Ans) It''s default value.
+e.g. if the transient variable in question is an int, it''s value after  deserialization will be zero.
+public class TestTransientVal implements Serializable{
+    private static final long
+serialVersionUID
+=  -22L;
+    private String name;
+    transient private int age;
+    TestTransientVal(int age, String  name) {
+        this.age = age;
+        this.name = name;
+    }
+    public static void main(String [] args)  {
+        TestTransientVal c = new TestTransientVal(1,"ONE");
+        System.
+out
+.println("Before  serialization: - " + c.name + " "+ c.age);
+        try {
+        FileOutputStream fs = new FileOutputStream("testTransients.ser");
+        ObjectOutputStream os = new ObjectOutputStream(fs);
+        os.writeObject(c);
+        os.close();
+        } catch (Exception e) {  e.printStackTrace(); }
+        try {
+        FileInputStream fis = new FileInputStream("testTransients.ser");
+        ObjectInputStream ois = new ObjectInputStream(fis);
+        c = (TestTransientVal)  ois.readObject();
+        ois.close();
+        } catch (Exception e) {  e.printStackTrace(); }
+        System.
+out
+.println("After  de-serialization:- " + c.name + " "+ c.age);
+        }
+}
+Result of executing above piece of code -
+Before serialization: - Value of non-transient variable ONE Value of  transient variable 1
+After de-serialization:- Value of non-transient  variable ONE Value of transient variable 0
+Explanation -
+The transient variable is not saved as the part of  the state of the serailized variable, it''s value after de-serialization is it''s  default value.</t>
+  </si>
+  <si>
+    <t>Ans)
+All wrapper classes in java.lang are  immutable -
+String, Integer, Boolean, Character, Byte, Short,  Long, Float, Double, BigDecimal, BigInteger</t>
+  </si>
+  <si>
+    <t>Ans) If the exception is not caught by any of the method in the methods stack till you get to the main() method, the main method throws that exception and the JVM halts its execution.</t>
+  </si>
+  <si>
+    <t>Ans) No. If the exceptions are siblings in the Exception class''s hierarchy i.e. If one Exception class is not a subtype or supertype of the other, then the order in which
+    their handlers(catch clauses) are placed does not matter.</t>
+  </si>
+  <si>
+    <t>Ans) In Java, "thread" means two different things:
+An instance of class java.lang.Thread.
+A thread of execution.
+An instance of Thread is just an object. Like any other object in Java, it has variables and methods, and lives and dies on the heap. But a thread of execution is an individual process (a "lightweight" process) that has its own call stack. In Java, there is one thread per call stack-or, to think of it in reverse, one call stack per thread. Even if you don"t create any new threads in your program, threads are back there running.
+The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you''d see that main() is the first method on the stack- the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that"s separate from the main() call stack.</t>
+  </si>
+  <si>
+    <t>Ans) The different type of static inner classes are:
+  Non - static inner  classes - classes associated with the object of the enclosing class.
+Member class
+-  Classes declared outside a function (hence a "member") and not  declared "static".
+The member class can be declared as public, private,  protected, final and abstract. E.g.
+public class InnerClass {
+class MemberClass {
+public void  method1() { }
+}
+}
+Method local class
+- The inner class declared inside the method is called method local inner  class. Method local inner class can only be declared as final or abstract.        Method local class can only access global variables or  method local variables if declared as final
+public class InnerClass {
+int i = 9;
+public void method1() {
+final int k = 6;
+class MethodLocal {
+MethodLocal() {
+System.out.println(k  + i);
+}
+}
+}
+}
+Anonymous inner  class
+- These are local classes which are automatically declared and  instantiated in the middle of an expression.  Also, like local classes, anonymous classes  cannot be public, private, protected, or static. They can specify arguments to  the constructor of the superclass, but cannot otherwise have a constructor. They  can implement only one interface or extend a class.
+Anonymous class cannot define any static fields, methods,  or classes, except for static final constants.
+Also, like local classes, anonymous classes cannot be  public, private, protected, or static
+Some examples:
+public class MyFrame extends JFrame {
+JButton btn = new JButton();
+MyFrame() {
+btn.addActionListener(new  ActionListener() {
+public void  actionPerformed(ActionEvent e) {
+}
+});
+}
+}
+Anonymous class  used with comparator
+List&lt;Parent&gt; l = new ArrayList&lt;Parent&gt;();
+l.add(new Parent(2));
+l.add(new Parent(3));
+Collections.sort(l, new Comparator() {
+public int compare(Object o1,  Object o2) {
+Parent prt1 = (Parent) o1;
+Parent prt2 = (Parent) o2;
+if (prt1.getAge() &gt;  prt2.getAge()) {
+return -1;
+}else if(prt1.getAge()&lt;prt2.getAge())  {
+return 1;
+} else {
+return 0;
+}
+}
+});</t>
+  </si>
+  <si>
+    <t>Ans) During object serialization, the default Java serialization mechanism writes the
+ metadata about the object, which includes the class name, field names and types,
+ and superclass. This class definition is stored as a part of the serialized
+ object. This stored metadata enables the deserialization process to reconstitute
+ the objects and map the stream data into the class attributes with the
+ appropriate type
+Everytime an object is serialized the java serialization mechanism automatically computes a hash value. ObjectStreamClass''s
+computeSerialVersionUID
+() method passes the class name, sorted member names, modifiers, and interfaces to the secure hash algorithm (SHA), which returns a hash value.The serialVersionUID is also called
+suid
+.
+So when the serilaize object is retrieved , the JVM first evaluates the
+suid
+of the serialized class and compares the
+suid
+value with the one of the object. If the suid values match then the object is said to be compatible with the class and hence it is de-serialized. If not
+InvalidClassException
+exception is thrown.
+Changes to a serializable class can be compatible or incompatible. Following is the list of changes which are compatible:
+Add fields
+Change a field from static to non-static
+Change a field from transient to non-transient
+Add classes to the object tree
+List of incompatible changes:
+Delete fields
+Change class hierarchy
+Change non-static to static
+Change non-transient to transient
+Change type of a primitive field
+So, if no suid is present , inspite of making compatible changes, jvm generates new
+suid
+thus resulting in an exception if prior release version object is used .
+The only way to get rid of the exception is to recompile and deploy the application again.
+If we explicitly metion the suid using the statement:
+private final static long serialVersionUID = &lt;integer value&gt;
+then if any of the metioned compatible changes are made the class need not to be recompiled. But for incompatible changes there is no other way than to compile again.</t>
+  </si>
+  <si>
+    <t>Ans 1)
+Plain old anonymous class type one
+-
+e.g.
+class superClass{
+         void doSomething()
+      {
+      System.out.println("Doing something in the Super
+      class");
+         }
+ }
+class hasAnonymous{
+      superClass anon = new superClass(){
+           void doSomething() {
+      System.out.println("Doing something in the Anonymous
+      class");
+      }
+      };
+Here anon is the reference which is of type superClass which is the
+      class extended by the anonymous class i.e. superclass of the
+      anonymous class. The method doSomething() is the super class method
+      overridden by the anonymous class.
+2)
+Plain old anonymous class type two
+-
+interface Eatable{
+       public void prepareSweets();
+ }
+class serveMeal{
+ Eatable food = new Eatable(){
+              public void
+      prepareSweets(){ //come implementation code goes here }
+     };
+}
+ food is reference variable of type Eatable interface which
+      refers to the anonymous class which is the implementer of the
+      interface Eatable. The anonymous implementer class of the interface
+      Eatable implements its method prepareSweets() inside it.
+3)
+Argument defined anonymous class
+- e.g.
+interface Vehicle {
+   void getNoOfWheels();
+ }
+class Car {
+       void getType(Vehical v) { }
+}
+class BeautifulCars {
+        void
+      getTheBeautifilCar() {
+      Car c = new Car ();
+      c.getType (new Vehicle () {
+              public void getNoOfWheels () {
+      System.out.println("It has four wheels");
+              }
+      });
+        }
+ }
+ Anonymous class is defined as the argument of the method
+      getTheBeautifilCar(), this anonymous class is the implementer of
+      the interface Vehicle. The method of class Car getTheBeautifilCar()
+      expects the argument as an object of type Vehicle. So first we
+      create an object of Car referenced by the variable "c''.
+      On this object of Car we call the method getTheBeautifilCar() and
+      in the argument we create an anonymous class in place which is the
+      implementer of interface Vehicle hence of type Vehicle.</t>
+  </si>
+  <si>
+    <t>Ans) The outer this reference i.e. the outer class'' current
+      instance'' reference can be
+refered using "OuterClassName.this''.
+E.g
+ class EnclosingOuter {
+           class
+      Inner{
+      System.out.println("Inner class reference is " + this);
+      // inner class instance
+System.out.println("Outer class reference is " +
+       EnclosingOuter.this); //outer class instance
+ }
+}
+To refer the inner class reference from
+        within the inner class use this.</t>
+  </si>
+  <si>
+    <t>Ans- If you try to serialize an object of a class  which implements serializable, but the object includes a reference to an  non-serializable class then a "NotSerializableException'' will be thrown at  runtime.
+e.g.
+public class NonSerial {
+    //This is a non-serializable  class
+}
+public class MyClass implements Serializable{
+    private static final long
+serialVersionUID
+= 1L;
+    private NonSerial nonSerial;
+    MyClass(NonSerial  nonSerial){
+        this.nonSerial = nonSerial;
+    }
+    public static void main(String [] args)  {
+        NonSerial nonSer = new NonSerial();
+        MyClass c = new MyClass(nonSer);
+        try {
+        FileOutputStream fs = new FileOutputStream("test1.ser");
+        ObjectOutputStream os = new ObjectOutputStream(fs);
+        os.writeObject(c);
+        os.close();
+        } catch (Exception e) {  e.printStackTrace(); }
+        try {
+        FileInputStream fis = new FileInputStream("test1.ser");
+        ObjectInputStream ois = new ObjectInputStream(fis);
+        c = (MyClass)  ois.readObject();
+        ois.close();
+            } catch (Exception e) {
+            e.printStackTrace();
+          }
+    }
+}
+On execution of above code following exception will be thrown  -
+java.io.NotSerializableException
+: NonSerial
+            at java.io.ObjectOutputStream.writeObject0(
+ObjectOutputStream.java
+)</t>
+  </si>
+  <si>
+    <t>Ans) When you want to store the transient variables  state as a part of the serialized object at the time of serialization the class  must implement the following methods -
+private void wrtiteObject(ObjectOutputStream outStream)
+{
+//code to save the transient variables state as a part of serialized  object
+}
+private void readObject(ObjectInputStream inStream)
+{
+//code to read the transient variables state and assign it to the  de-serialized object
+}
+e.g.
+public class TestCustomizedSerialization implements Serializable{
+    private static final long
+serialVersionUID
+=-22L;
+    private String noOfSerVar;
+    transient private int noOfTranVar;
+    TestCustomizedSerialization(int noOfTranVar, String  noOfSerVar) {
+        this.noOfTranVar = noOfTranVar;
+        this.noOfSerVar = noOfSerVar;
+    }
+    private void writeObject(ObjectOutputStream os) {
+     try {
+     os.defaultWriteObject();
+     os.writeInt(noOfTranVar);
+     } catch (Exception e) {  e.printStackTrace(); }
+     }
+     private void readObject(ObjectInputStream is) {
+     try {
+     is.defaultReadObject();
+     int noOfTransients =  (is.readInt());
+     } catch (Exception e) {
+         e.printStackTrace(); }
+     }
+     public int getNoOfTranVar() {
+        return noOfTranVar;
+    }
+}
+The value of transient variable "noOfTranVar'' is saved as part of the  serialized object manually by implementing writeObject() and restored by  implementing readObject().
+The normal serializable variables are saved and restored by calling  defaultWriteObject() and defaultReadObject()respectively. These methods perform  the normal serialization and de-sirialization process for the object to be  saved or restored respectively.</t>
+  </si>
+  <si>
+    <t>Ans)  The values of the instance variables inherited  from superclass will be reset to the values they were given during the original  construction of the object as the non-serializable super-class constructor will  run.
+E.g.
+public class ParentNonSerializable {
+    int noOfWheels;
+    ParentNonSerializable(){
+        this.noOfWheels = 4;
+    }
+}
+public class ChildSerializable extends ParentNonSerializable implements Serializable {
+    private static final long
+serialVersionUID
+= 1L;
+    String color;
+    ChildSerializable() {
+        this.noOfWheels = 8;
+        this.color = "blue";
+    }
+}
+public class SubSerialSuperNotSerial {
+    public static void main(String [] args)  {
+        ChildSerializable c = new ChildSerializable();
+        System.
+out
+.println("Before : -  " +  c.noOfWheels + " "+ c.color);
+        try {
+        FileOutputStream fs = new FileOutputStream("superNotSerail.ser");
+        ObjectOutputStream os = new ObjectOutputStream(fs);
+        os.writeObject(c);
+        os.close();
+        } catch (Exception e) {  e.printStackTrace(); }
+        try {
+        FileInputStream fis = new FileInputStream("superNotSerail.ser");
+        ObjectInputStream ois = new ObjectInputStream(fis);
+        c = (ChildSerializable) ois.readObject();
+        ois.close();
+        } catch (Exception e) {  e.printStackTrace(); }
+        System.
+out
+.println("After :-  " +  c.noOfWheels + " "+ c.color);
+        }
+}
+Result  on executing above code -
+Before : - 8 blue
+After :- 4 blue
+The instance variable "noOfWheels'' is inherited from superclass which is  not serializable. Therefore while restoring it the non-serializable superclass  constructor runs and its value is set to 8 and is not same as the value saved  during serialization which is 4.</t>
+  </si>
+  <si>
+    <t>Ans) Local classes can most definitely reference instance variables. The reason they cannot reference non final local variables is because the local class instance can remain in memory after the method returns. When the method returns the local variables go out of scope, so a copy of them is needed. If the variables weren''t final then the copy of the variable in the method could change, while the copy in the local class didn''t, so they''d be out of synch.
+Anonymous inner classes require final variables because of the way they are implemented in Java. An anonymous inner class (AIC) uses local variables by creating a private instance field which holds a copy of the value of the local variable. The inner class isn''t actually using the local variable, but a copy. It should be fairly obvious at this point that a "Bad Thing"™ can happen if either the original value or the copied value changes; there will be some unexpected data synchronization problems. In order to prevent this kind of problem, Java requires you to mark local variables that will be used by the AIC as final (i.e., unchangeable). This guarantees that the inner class'' copies of local variables will always match the actual values.</t>
+  </si>
+  <si>
+    <t>Ans)
+       Both collections implements Map. Both collections store value as key-value pairs.
+      The key differences between the two are
+1. Hashmap is not synchronized in nature but hshtable is.
+2. Another difference is that iterator in the HashMap is fail-safe while the enumerator for the Hashtable isn''t.
+Fail-safe
+- if the Hashtable is structurally modified at any time after the iterator is created, in any way except through the iterator''s own remove method, the iterator will throw a ConcurrentModificationException??
+3.  HashMap permits null values and only one null key, while Hashtable doesn''t allow key or value as null.</t>
   </si>
 </sst>
 </file>
@@ -4930,10 +4930,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D21" si="0">"insert into categories values ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
@@ -5219,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A397" sqref="A397"/>
+    <sheetView topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="E397" sqref="E397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,7 +5241,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -5255,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5832,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6390,7 +6390,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6426,7 +6426,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -6984,7 +6984,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -7128,14 +7128,14 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>227</v>
+        <v>782</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Questions values(105,6,'Q) What are the different states of a thread's lifecycle?',0);</v>
+        <v>insert into Questions values(105,6,'Q) What are the different states of a thread''s lifecycle?',0);</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -7146,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -7200,7 +7200,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -7236,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -7272,7 +7272,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -7632,7 +7632,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7650,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -7740,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -7866,7 +7866,7 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -7939,14 +7939,14 @@
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>327</v>
+        <v>780</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Questions values(150,7,'Q) How to refer to the outer this i.e. outer class&amp;rsquo;s current
+        <v>insert into Questions values(150,7,'Q) How to refer to the outer this i.e. outer class'' current
       instance from inside the inner class?',0);</v>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -7976,14 +7976,14 @@
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>329</v>
+        <v>781</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Questions values(152,7,'Q) Can the method local inner class object access method&amp;rsquo;s
+        <v>insert into Questions values(152,7,'Q) Can the method local inner class object access method''s
       local variables?',0);</v>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -8086,7 +8086,7 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -8194,7 +8194,7 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -8248,7 +8248,7 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -8284,7 +8284,7 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>11</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8717,7 +8717,7 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8753,7 +8753,7 @@
         <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8897,7 +8897,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8951,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9095,7 +9095,7 @@
         <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -9275,7 +9275,7 @@
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -9293,7 +9293,7 @@
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -9311,7 +9311,7 @@
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -9347,7 +9347,7 @@
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -9383,7 +9383,7 @@
         <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -9743,7 +9743,7 @@
         <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -9797,7 +9797,7 @@
         <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9941,7 +9941,7 @@
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>13</v>
       </c>
       <c r="C264" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>13</v>
       </c>
       <c r="C266" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -10247,7 +10247,7 @@
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -10265,7 +10265,7 @@
         <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -10337,7 +10337,7 @@
         <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>12</v>
       </c>
       <c r="C285" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>12</v>
       </c>
       <c r="C287" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10463,7 +10463,7 @@
         <v>12</v>
       </c>
       <c r="C291" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>12</v>
       </c>
       <c r="C292" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="C293" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -10517,7 +10517,7 @@
         <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10571,7 +10571,7 @@
         <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>12</v>
       </c>
       <c r="C299" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -10625,7 +10625,7 @@
         <v>12</v>
       </c>
       <c r="C300" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>12</v>
       </c>
       <c r="C301" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>12</v>
       </c>
       <c r="C302" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>12</v>
       </c>
       <c r="C304" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>12</v>
       </c>
       <c r="C305" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>12</v>
       </c>
       <c r="C306" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>12</v>
       </c>
       <c r="C307" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>12</v>
       </c>
       <c r="C309" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>12</v>
       </c>
       <c r="C310" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>12</v>
       </c>
       <c r="C311" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="C312" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="C313" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10877,7 +10877,7 @@
         <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="C315" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>12</v>
       </c>
       <c r="C316" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10931,7 +10931,7 @@
         <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10949,7 +10949,7 @@
         <v>12</v>
       </c>
       <c r="C318" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10967,7 +10967,7 @@
         <v>12</v>
       </c>
       <c r="C319" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10985,7 +10985,7 @@
         <v>12</v>
       </c>
       <c r="C320" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -11003,7 +11003,7 @@
         <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -11021,7 +11021,7 @@
         <v>12</v>
       </c>
       <c r="C322" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>12</v>
       </c>
       <c r="C323" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>12</v>
       </c>
       <c r="C324" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -11093,7 +11093,7 @@
         <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>12</v>
       </c>
       <c r="C330" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -11219,7 +11219,7 @@
         <v>12</v>
       </c>
       <c r="C333" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>12</v>
       </c>
       <c r="C334" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -11363,7 +11363,7 @@
         <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -11543,7 +11543,7 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -11561,7 +11561,7 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -11687,7 +11687,7 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -11705,7 +11705,7 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -11741,7 +11741,7 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -11795,7 +11795,7 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -11813,7 +11813,7 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -11867,7 +11867,7 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -12083,7 +12083,7 @@
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -12101,7 +12101,7 @@
         <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -12137,7 +12137,7 @@
         <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -12155,7 +12155,7 @@
         <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -12173,7 +12173,7 @@
         <v>12</v>
       </c>
       <c r="C386" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -12191,7 +12191,7 @@
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -12245,7 +12245,7 @@
         <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -12263,7 +12263,7 @@
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>12</v>
       </c>
       <c r="C392" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="D392">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>12</v>
       </c>
       <c r="C393" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -12317,7 +12317,7 @@
         <v>12</v>
       </c>
       <c r="C394" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -12353,7 +12353,7 @@
         <v>12</v>
       </c>
       <c r="C396" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>12</v>
       </c>
       <c r="C397" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -12390,8 +12390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12411,7 +12411,7 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -12625,7 +12625,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12661,15 +12661,15 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>814</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Answers values(11,11,'Ans) Local classes can most definitely reference instance variables. The reason they cannot reference non final local variables is because the local class instance can remain in memory after the method returns. When the method returns the local variables go out of scope, so a copy of them is needed. If the variables weren't final then the copy of the variable in the method could change, while the copy in the local class didn't, so they'd be out of synch.
-Anonymous inner classes require final variables because of the way they are implemented in Java. An anonymous inner class (AIC) uses local variables by creating a private instance field which holds a copy of the value of the local variable. The inner class isn't actually using the local variable, but a copy. It should be fairly obvious at this point that a "Bad Thing"™ can happen if either the original value or the copied value changes; there will be some unexpected data synchronization problems. In order to prevent this kind of problem, Java requires you to mark local variables that will be used by the AIC as final (i.e., unchangeable). This guarantees that the inner class' copies of local variables will always match the actual values.',1);</v>
+        <v>insert into Answers values(11,11,'Ans) Local classes can most definitely reference instance variables. The reason they cannot reference non final local variables is because the local class instance can remain in memory after the method returns. When the method returns the local variables go out of scope, so a copy of them is needed. If the variables weren''t final then the copy of the variable in the method could change, while the copy in the local class didn''t, so they''d be out of synch.
+Anonymous inner classes require final variables because of the way they are implemented in Java. An anonymous inner class (AIC) uses local variables by creating a private instance field which holds a copy of the value of the local variable. The inner class isn''t actually using the local variable, but a copy. It should be fairly obvious at this point that a "Bad Thing"™ can happen if either the original value or the copied value changes; there will be some unexpected data synchronization problems. In order to prevent this kind of problem, Java requires you to mark local variables that will be used by the AIC as final (i.e., unchangeable). This guarantees that the inner class'' copies of local variables will always match the actual values.',1);</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12680,7 +12680,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12698,7 +12698,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12725,7 +12725,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12751,7 +12751,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>788</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>insert into Answers values(15,15,'Ans)
 Polymorphism
 gives us the ultimate flexibility in extensibility. The abiltiy to define more than one function with the same name is called Polymorphism. In java,c++  there are two type of polymorphism: compile time polymorphism (overloading) and  runtime polymorphism (overriding).
-When you override methods, JVM determines the proper methods to call at the  program&amp;rsquo;s run time, not at the compile time. Overriding occurs when a class  method has the same name and signature as a method in parent class.
+When you override methods, JVM determines the proper methods to call at the  program''s run time, not at the compile time. Overriding occurs when a class  method has the same name and signature as a method in parent class.
 Overloading  occurs when several methods have same names with
 Overloading  is determined at the compile time.
 Different  method signature and different number or type of parameters.
@@ -12799,7 +12799,7 @@
 }',1);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>784</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12824,7 +12824,7 @@
 public String childName;
 public int childAge;
 public void printMyName(){
-System.out.println(&amp;ldquo; My name is &amp;ldquo;+ chidName+&amp;rdquo; &amp;ldquo; +familyName)
+System.out.println(" My name is "+ chidName+":" +familyName)
 }
 }
 In above example the child has inherit its family name from the parent class just by inheriting the class.',1);</v>
@@ -12838,7 +12838,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -12857,7 +12857,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -12898,7 +12898,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -12924,7 +12924,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -12948,7 +12948,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -12966,14 +12966,14 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>789</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Answers values(23,23,'Ans) instance method belongs to the instance of a class therefore it requires an instance before it  can be invoked, whereas static method belongs to the class itself and not to any class instance so it doesn&amp;rsquo;t need an  instance to be invoked.
+        <v>insert into Answers values(23,23,'Ans) instance method belongs to the instance of a class therefore it requires an instance before it  can be invoked, whereas static method belongs to the class itself and not to any class instance so it doesn''t need an  instance to be invoked.
 Instance methods use dynamic (late) binding, whereas static  methods use static (early) binding.
 When the JVM invokes a class instance method, it selects the method to invoke based on the type  of the object reference, which is always known at run-time. On the other  hand, when the JVM invokes a static  method, it selects the method to invoke based on the actual class of the  object, which may only be known at compile time.',1);</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -13072,7 +13072,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -13110,7 +13110,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>785</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -13128,18 +13128,18 @@
 If a  final is assigned to a method then it cannot be  overridden in its child class.
 class Parent {
 final void  print(){
-            System.out.println(&amp;ldquo;Inside&amp;rdquo;);
+            System.out.println("Inside");
 }
 }
 class Child extends Parent{
 public final void  print(){             // error cannot  override final method
-            System.out.println(&amp;ldquo;Inside&amp;rdquo;);
+            System.out.println("Inside");
 }
 }
 If a  class is made as final, then no other class can  extend it and make it as parent class. E.g. String Class.
 Final  objects are instantiated only once. i.e
 final Map map = new HashMap();
-map.put(&amp;ldquo;key&amp;rdquo;,&amp;rdquo;value&amp;rdquo;);
+map.put("key","value");
 map = new HashMap();  // error',1);</v>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -13175,7 +13175,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -13194,7 +13194,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -13212,7 +13212,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -13236,7 +13236,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -13341,7 +13341,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -13361,7 +13361,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -13390,7 +13390,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -13410,7 +13410,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -13454,7 +13454,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>815</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -13467,7 +13467,7 @@
 1. Hashmap is not synchronized in nature but hshtable is.
 2. Another difference is that iterator in the HashMap is fail-safe while the enumerator for the Hashtable isn''t.
 Fail-safe
-- “if the Hashtable is structurally modified at any time after the iterator is created, in any way except through the iterator''s own remove method, the iterator will throw a ConcurrentModificationException??
+- if the Hashtable is structurally modified at any time after the iterator is created, in any way except through the iterator''s own remove method, the iterator will throw a ConcurrentModificationException??
 3.  HashMap permits null values and only one null key, while Hashtable doesn''t allow key or value as null.',1);</v>
       </c>
     </row>
@@ -13479,7 +13479,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -13507,7 +13507,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -13559,7 +13559,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -13589,14 +13589,14 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>796</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into Answers values(46,46,'Ans)  Adding new elements is pretty fast for either  type of list. For the ArrayList, doing  random  lookup using &amp;quot;get&amp;quot; is fast, but for LinkedList, it''s slow. It''s slow  because there''s no efficient way to index into the middle of a linked list.  When removing elements, using ArrayList is slow. This is because all remaining  elements in the underlying array of Object instances must be shifted down for  each remove operation. But here LinkedList is fast, because deletion can be  done simply by changing a couple of links. So an ArrayList works best for cases  where you''re doing random access on the list, and a LinkedList works better if  you''re doing a lot of editing in the middle of the list.
+        <v>insert into Answers values(46,46,'Ans)  Adding new elements is pretty fast for either  type of list. For the ArrayList, doing  random  lookup using "get" is fast, but for LinkedList, it''s slow. It''s slow  because there''s no efficient way to index into the middle of a linked list.  When removing elements, using ArrayList is slow. This is because all remaining  elements in the underlying array of Object instances must be shifted down for  each remove operation. But here LinkedList is fast, because deletion can be  done simply by changing a couple of links. So an ArrayList works best for cases  where you''re doing random access on the list, and a LinkedList works better if  you''re doing a lot of editing in the middle of the list.
 Source :
 Read More - from java.sun',1);</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -13627,7 +13627,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -13646,7 +13646,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -13668,7 +13668,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>799</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <f t="shared" si="0"/>
         <v>insert into Answers values(50,50,'Ans) It is preferred because:
 If later on code needs to be changed from  ArrayList to Vector then only at the declaration place we can do that.
-The most important one &amp;ndash; If a function is  declared such that it takes list. E.g void showDetails(List list);
+The most important one - If a function is  declared such that it takes list. E.g void showDetails(List list);
 When the parameter is declared as List  to  the function it can be called by passing any subclass of List like ArrayList,Vector,LinkedList making the function more flexible',1);</v>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -13733,7 +13733,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -13752,7 +13752,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -13770,7 +13770,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -13790,7 +13790,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -13808,7 +13808,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -13826,7 +13826,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -13844,7 +13844,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -13880,7 +13880,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -13898,7 +13898,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -13916,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -13937,7 +13937,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -13956,7 +13956,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -13974,7 +13974,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -13992,7 +13992,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -14011,7 +14011,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -14033,7 +14033,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -14062,7 +14062,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -14090,7 +14090,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -14122,7 +14122,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -14144,7 +14144,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -14184,7 +14184,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -14202,7 +14202,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -14220,7 +14220,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>187</v>
+        <v>783</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -14235,7 +14235,7 @@
 int i =0;
 }
 int a = 2;
-System.out.println(&amp;ldquo;a =  &amp;ldquo;+a);',1);</v>
+System.out.println("a =  "+a);',1);</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -14246,7 +14246,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -14256,8 +14256,8 @@
         <v>insert into Answers values(78,78,'Ans) No. There should not be any line of code present between the try and the catch/finally block.
    e.g.  The following code is wrong.
 try{}
-String str = &amp;ldquo;ABC&amp;rdquo;;
-System.out.println(&amp;ldquo;str  = &amp;ldquo;+str);
+String str = "ABC";
+System.out.println("str  = "+str);
 catch(Exception e){}',1);</v>
       </c>
     </row>
@@ -14269,14 +14269,14 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>804</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Answers values(79,79,'Ans) If the exception is not caught by any of the method in the method&amp;#8217;s stack till you get to the main() method, the main method throws that exception and the JVM halts its execution.',1);</v>
+        <v>insert into Answers values(79,79,'Ans) If the exception is not caught by any of the method in the methods stack till you get to the main() method, the main method throws that exception and the JVM halts its execution.',1);</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -14287,7 +14287,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -14306,7 +14306,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -14333,7 +14333,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -14357,7 +14357,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -14379,7 +14379,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -14415,14 +14415,14 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>195</v>
+        <v>805</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into Answers values(85,85,'Ans) No. If the exceptions are siblings in the Exception class&amp;#8217;s hierarchy i.e. If one Exception class is not a subtype or supertype of the other, then the order in which
+        <v>insert into Answers values(85,85,'Ans) No. If the exceptions are siblings in the Exception class''s hierarchy i.e. If one Exception class is not a subtype or supertype of the other, then the order in which
     their handlers(catch clauses) are placed does not matter.',1);</v>
       </c>
     </row>
@@ -14434,7 +14434,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -14510,7 +14510,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -14530,7 +14530,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -14549,7 +14549,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -14569,7 +14569,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -14588,7 +14588,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -14649,7 +14649,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -14688,7 +14688,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -14706,7 +14706,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -14724,7 +14724,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -14742,7 +14742,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -14760,7 +14760,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -14772,7 +14772,7 @@
 .',1);</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>243</v>
+        <v>806</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -14790,8 +14790,8 @@
         <v>insert into Answers values(101,101,'Ans) In Java, "thread" means two different things:
 An instance of class java.lang.Thread.
 A thread of execution.
-An instance of Thread is just&amp;hellip;an object. Like any other object in Java, it has variables and methods, and lives and dies on the heap. But a thread of execution is an individual process (a "lightweight" process) that has its own call stack. In Java, there is one thread per call stack&amp;mdash;or, to think of it in reverse, one call stack per thread. Even if you don""t create any new threads in your program, threads are back there running.
-The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you""d see that main() is the first method on the stack&amp;mdash; the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that""s separate from the main() call stack.',1);</v>
+An instance of Thread is just an object. Like any other object in Java, it has variables and methods, and lives and dies on the heap. But a thread of execution is an individual process (a "lightweight" process) that has its own call stack. In Java, there is one thread per call stack-or, to think of it in reverse, one call stack per thread. Even if you don"t create any new threads in your program, threads are back there running.
+The main() method, that starts the whole ball rolling, runs in one thread, called (surprisingly) the main thread. If you looked at the main call stack (and you can, any time you get a stack trace from something that happens after main begins, but not within another thread), you''d see that main() is the first method on the stack- the method at the bottom. But as soon as you create a new thread, a new stack materializes and methods called from that thread run in a call stack that"s separate from the main() call stack.',1);</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -14828,7 +14828,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -14857,7 +14857,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -14896,7 +14896,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -14918,7 +14918,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -14942,7 +14942,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -14960,7 +14960,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -14978,7 +14978,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -14997,7 +14997,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -15017,7 +15017,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -15037,7 +15037,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -15073,7 +15073,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -15091,7 +15091,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -15109,7 +15109,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -15129,7 +15129,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -15150,7 +15150,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -15168,7 +15168,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -15186,7 +15186,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -15204,7 +15204,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -15222,7 +15222,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -15240,7 +15240,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -15258,7 +15258,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -15276,7 +15276,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -15294,7 +15294,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -15331,7 +15331,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -15351,7 +15351,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -15370,7 +15370,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -15389,7 +15389,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -15407,7 +15407,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -15432,7 +15432,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -15479,7 +15479,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -15501,7 +15501,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -15541,7 +15541,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -15559,7 +15559,7 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -15577,14 +15577,14 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>297</v>
+        <v>800</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(140,140,'Ans) There are two main types of inner classes &amp;ndash;
+        <v>insert into Answers values(140,140,'Ans) There are two main types of inner classes -
 Static member class
 Inner class
 Member class
@@ -15600,7 +15600,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -15633,7 +15633,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>299</v>
+        <v>807</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -15641,9 +15641,9 @@
       <c r="E143" t="str">
         <f t="shared" si="2"/>
         <v>insert into Answers values(142,142,'Ans) The different type of static inner classes are:
-  Non - static inner  classes &amp;ndash; classes associated with the object of the enclosing class.
+  Non - static inner  classes - classes associated with the object of the enclosing class.
 Member class
--  Classes declared outside a function (hence a &amp;quot;member&amp;quot;) and not  declared &amp;quot;static&amp;quot;.
+-  Classes declared outside a function (hence a "member") and not  declared "static".
 The member class can be declared as public, private,  protected, final and abstract. E.g.
 public class InnerClass {
 class MemberClass {
@@ -15651,7 +15651,7 @@
 }
 }
 Method local class
-&amp;ndash; The inner class declared inside the method is called method local inner  class. Method local inner class can only be declared as final or abstract.        Method local class can only access global variables or  method local variables if declared as final
+- The inner class declared inside the method is called method local inner  class. Method local inner class can only be declared as final or abstract.        Method local class can only access global variables or  method local variables if declared as final
 public class InnerClass {
 int i = 9;
 public void method1() {
@@ -15678,16 +15678,16 @@
 }
 }
 Anonymous class  used with comparator
-List&amp;lt;Parent&amp;gt; l = new ArrayList&amp;lt;Parent&amp;gt;();
+List&lt;Parent&gt; l = new ArrayList&lt;Parent&gt;();
 l.add(new Parent(2));
 l.add(new Parent(3));
 Collections.sort(l, new Comparator() {
 public int compare(Object o1,  Object o2) {
 Parent prt1 = (Parent) o1;
 Parent prt2 = (Parent) o2;
-if (prt1.getAge() &amp;gt;  prt2.getAge()) {
+if (prt1.getAge() &gt;  prt2.getAge()) {
 return -1;
-}else if(prt1.getAge()&amp;lt;prt2.getAge())  {
+}else if(prt1.getAge()&lt;prt2.getAge())  {
 return 1;
 } else {
 return 0;
@@ -15704,7 +15704,7 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -15773,7 +15773,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -15801,7 +15801,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>303</v>
+        <v>809</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -15810,20 +15810,20 @@
         <f t="shared" si="2"/>
         <v>insert into Answers values(146,146,'Ans 1)
 Plain old anonymous class type one
-&amp;ndash;
+-
 e.g.
 class superClass{
          void doSomething()
       {
-      System.out.println(&amp;ldquo;Doing something in the Super
-      class&amp;rdquo;);
+      System.out.println("Doing something in the Super
+      class");
          }
  }
 class hasAnonymous{
       superClass anon = new superClass(){
            void doSomething() {
-      System.out.println(&amp;ldquo;Doing something in the Anonymous
-      class&amp;rdquo;);
+      System.out.println("Doing something in the Anonymous
+      class");
       }
       };
 Here anon is the reference which is of type superClass which is the
@@ -15832,7 +15832,7 @@
       overridden by the anonymous class.
 2)
 Plain old anonymous class type two
-&amp;ndash;
+-
 interface Eatable{
        public void prepareSweets();
  }
@@ -15848,7 +15848,7 @@
       Eatable implements its method prepareSweets() inside it.
 3)
 Argument defined anonymous class
-&amp;ndash; e.g.
+- e.g.
 interface Vehicle {
    void getNoOfWheels();
  }
@@ -15861,7 +15861,7 @@
       Car c = new Car ();
       c.getType (new Vehicle () {
               public void getNoOfWheels () {
-      System.out.println(&amp;quot;It has four wheels&amp;quot;);
+      System.out.println("It has four wheels");
               }
       });
         }
@@ -15870,7 +15870,7 @@
       getTheBeautifilCar(), this anonymous class is the implementer of
       the interface Vehicle. The method of class Car getTheBeautifilCar()
       expects the argument as an object of type Vehicle. So first we
-      create an object of Car referenced by the variable &amp;lsquo;c&amp;rsquo;.
+      create an object of Car referenced by the variable "c''.
       On this object of Car we call the method getTheBeautifilCar() and
       in the argument we create an anonymous class in place which is the
       implementer of interface Vehicle hence of type Vehicle.',1);</v>
@@ -15884,7 +15884,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -15917,7 +15917,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>305</v>
+        <v>790</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -15931,7 +15931,7 @@
 public void getNoOfInnerClasses(){
            Inner
       in = new Inner();
-System.out.println(&amp;ldquo;No Of Inner classes is : &amp;ldquo;+
+System.out.println("No Of Inner classes is : "+
 in.getNoOfClassesFromOuter()
 );
 }
@@ -15939,7 +15939,7 @@
 public int getNoOfClassesFromOuter(){ return noInnerClass; }
 }
 Here the method getNoOfInnerClasses() is called on the outer
-      class&amp;rsquo;s instance through this outer class instance the inner
+      class''s instance through this outer class instance the inner
       class instance in is created.',1);</v>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -15983,23 +15983,23 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>307</v>
+        <v>810</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(150,150,'Ans) The outer this reference i.e. the outer class&amp;rsquo; current
-      instance&amp;rsquo; reference can be
-refered using &amp;lsquo;OuterClassName.this&amp;rsquo;.
+        <v>insert into Answers values(150,150,'Ans) The outer this reference i.e. the outer class'' current
+      instance'' reference can be
+refered using "OuterClassName.this''.
 E.g
  class EnclosingOuter {
            class
       Inner{
-      System.out.println(&amp;ldquo;Inner class reference is &amp;ldquo; + this);
+      System.out.println("Inner class reference is " + this);
       // inner class instance
-System.out.println(&amp;ldquo;Outer class reference is &amp;ldquo; +
+System.out.println("Outer class reference is " +
        EnclosingOuter.this); //outer class instance
  }
 }
@@ -16015,7 +16015,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>308</v>
+        <v>801</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -16029,7 +16029,7 @@
      final
      protected
      strictfp
-     static &amp;ndash; turns the inner class into
+     static - turns the inner class into
       static nested class.',1);</v>
       </c>
     </row>
@@ -16041,7 +16041,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -16073,7 +16073,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -16092,7 +16092,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -16110,7 +16110,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -16130,7 +16130,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>313</v>
+        <v>797</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -16143,18 +16143,18 @@
       fail.
 e.g. class SuperClass{
       void doSomething() {
-      System.out.println(&amp;quot;In the Super class&amp;quot;);
+      System.out.println("In the Super class");
       }
  }
 class hasAnonymous{
 SuperClass anon = new SuperClass(){
                 void
       doSomething() {
-      System.out.println(&amp;quot;In the Anonymous class&amp;quot;);
+      System.out.println("In the Anonymous class");
                 }
       void doStuff() {
-      System.out.println(&amp;quot;An Anonymous class method not present in
-      superClass&amp;quot;);
+      System.out.println("An Anonymous class method not present in
+      superClass");
       }
  };
 public void doIt(){
@@ -16174,7 +16174,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -16196,7 +16196,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -16217,7 +16217,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -16235,7 +16235,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>337</v>
+        <v>808</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -16276,7 +16276,7 @@
 thus resulting in an exception if prior release version object is used .
 The only way to get rid of the exception is to recompile and deploy the application again.
 If we explicitly metion the suid using the statement:
-private final static long serialVersionUID = &amp;lt;integer value&amp;gt;
+private final static long serialVersionUID = &lt;integer value&gt;
 then if any of the metioned compatible changes are made the class need not to be recompiled. But for incompatible changes there is no other way than to compile again.',1);</v>
       </c>
     </row>
@@ -16288,7 +16288,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>338</v>
+        <v>791</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -16296,9 +16296,9 @@
       <c r="E162" t="str">
         <f t="shared" si="2"/>
         <v>insert into Answers values(161,161,'Ans) The serialization is used :-
-To send  state of one or more object&amp;rsquo;s state over the network through a socket.
+To send  state of one or more object''s state over the network through a socket.
 To save the state of an  object in a file.
-An  object&amp;rsquo;s state needs to be manipulated as a stream of bytes.',1);</v>
+An  object''s state needs to be manipulated as a stream of bytes.',1);</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="300" x14ac:dyDescent="0.25">
@@ -16309,7 +16309,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>339</v>
+        <v>798</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -16319,7 +16319,7 @@
         <v>insert into Answers values(162,162,'Ans) Besides the Serializable interface, at least three alternate approaches can serialize Java objects:
 1)For object serialization, instead of implementing the Serializable interface, a developer can implement the Externalizable interface, which extends Serializable. By implementing Externalizable, a developer is responsible for implementing the writeExternal() and readExternal() methods. As a result, a developer has sole control over reading and writing the serialized objects.
 2)XML serialization is an often-used approach for data interchange. This approach lags runtime performance when compared with Java serialization, both in terms of the size of the object and the processing time. With a speedier XML parser, the performance gap with respect to the processing time narrows. Nonetheless, XML serialization provides a more malleable solution when faced with changes in the serializable object.
-3)Finally, consider a &amp;quot;roll-your-own&amp;quot; serialization approach. You can write an object''s content directly via either the ObjectOutputStream or the DataOutputStream. While this approach is more involved in its initial implementation, it offers the greatest flexibility and extensibility. In addition, this approach provides a performance advantage over Java serialization.',1);</v>
+3)Finally, consider a "roll-your-own" serialization approach. You can write an object''s content directly via either the ObjectOutputStream or the DataOutputStream. While this approach is more involved in its initial implementation, it offers the greatest flexibility and extensibility. In addition, this approach provides a performance advantage over Java serialization.',1);</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -16330,7 +16330,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -16348,14 +16348,14 @@
         <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>341</v>
+        <v>792</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(164,164,'Ans) If the object to be serialized includes the  references to other objects whose class implements serializable then all those  object&amp;rsquo;s state also will be saved as the part of the serialized state of the  object in question. The whole object graph of the object to be serialized will  be saved during serialization automatically provided all the objects included  in the object&amp;rsquo;s graph are serializable.',1);</v>
+        <v>insert into Answers values(164,164,'Ans) If the object to be serialized includes the  references to other objects whose class implements serializable then all those  object''s state also will be saved as the part of the serialized state of the  object in question. The whole object graph of the object to be serialized will  be saved during serialization automatically provided all the objects included  in the object''s graph are serializable.',1);</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -16366,14 +16366,14 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>342</v>
+        <v>811</v>
       </c>
       <c r="D166">
         <v>1</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(165,165,'Ans- If you try to serialize an object of a class  which implements serializable, but the object includes a reference to an  non-serializable class then a &amp;lsquo;NotSerializableException&amp;rsquo; will be thrown at  runtime.
+        <v>insert into Answers values(165,165,'Ans- If you try to serialize an object of a class  which implements serializable, but the object includes a reference to an  non-serializable class then a "NotSerializableException'' will be thrown at  runtime.
 e.g.
 public class NonSerial {
     //This is a non-serializable  class
@@ -16390,13 +16390,13 @@
         NonSerial nonSer = new NonSerial();
         MyClass c = new MyClass(nonSer);
         try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;test1.ser&amp;quot;);
+        FileOutputStream fs = new FileOutputStream("test1.ser");
         ObjectOutputStream os = new ObjectOutputStream(fs);
         os.writeObject(c);
         os.close();
         } catch (Exception e) {  e.printStackTrace(); }
         try {
-        FileInputStream fis = new FileInputStream(&amp;quot;test1.ser&amp;quot;);
+        FileInputStream fis = new FileInputStream("test1.ser");
         ObjectInputStream ois = new ObjectInputStream(fis);
         c = (MyClass)  ois.readObject();
         ois.close();
@@ -16405,7 +16405,7 @@
           }
     }
 }
-On execution of above code following exception will be thrown  &amp;ndash;
+On execution of above code following exception will be thrown  -
 java.io.NotSerializableException
 : NonSerial
             at java.io.ObjectOutputStream.writeObject0(
@@ -16421,7 +16421,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -16439,14 +16439,14 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>344</v>
+        <v>793</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(167,167,'Ans) These variables are not included in the  process of serialization and are not the part of the object&amp;rsquo;s serialized state.',1);</v>
+        <v>insert into Answers values(167,167,'Ans) These variables are not included in the  process of serialization and are not the part of the object''s serialized state.',1);</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -16457,15 +16457,15 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>345</v>
+        <v>802</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(168,168,'Ans) It&amp;rsquo;s default value.
-e.g. if the transient variable in question is an int, it&amp;rsquo;s value after  deserialization will be zero.
+        <v>insert into Answers values(168,168,'Ans) It''s default value.
+e.g. if the transient variable in question is an int, it''s value after  deserialization will be zero.
 public class TestTransientVal implements Serializable{
     private static final long
 serialVersionUID
@@ -16477,32 +16477,32 @@
         this.name = name;
     }
     public static void main(String [] args)  {
-        TestTransientVal c = new TestTransientVal(1,&amp;quot;ONE&amp;quot;);
+        TestTransientVal c = new TestTransientVal(1,"ONE");
         System.
 out
-.println(&amp;quot;Before  serialization: - &amp;quot; + c.name + &amp;quot; &amp;quot;+ c.age);
+.println("Before  serialization: - " + c.name + " "+ c.age);
         try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;testTransients.ser&amp;quot;);
+        FileOutputStream fs = new FileOutputStream("testTransients.ser");
         ObjectOutputStream os = new ObjectOutputStream(fs);
         os.writeObject(c);
         os.close();
         } catch (Exception e) {  e.printStackTrace(); }
         try {
-        FileInputStream fis = new FileInputStream(&amp;quot;testTransients.ser&amp;quot;);
+        FileInputStream fis = new FileInputStream("testTransients.ser");
         ObjectInputStream ois = new ObjectInputStream(fis);
         c = (TestTransientVal)  ois.readObject();
         ois.close();
         } catch (Exception e) {  e.printStackTrace(); }
         System.
 out
-.println(&amp;quot;After  de-serialization:- &amp;quot; + c.name + &amp;quot; &amp;quot;+ c.age);
+.println("After  de-serialization:- " + c.name + " "+ c.age);
         }
 }
-Result of executing above piece of code &amp;ndash;
+Result of executing above piece of code -
 Before serialization: - Value of non-transient variable ONE Value of  transient variable 1
 After de-serialization:- Value of non-transient  variable ONE Value of transient variable 0
-Explanation &amp;ndash;
-The transient variable is not saved as the part of  the state of the serailized variable, it&amp;rsquo;s value after de-serialization is it&amp;rsquo;s  default value.',1);</v>
+Explanation -
+The transient variable is not saved as the part of  the state of the serailized variable, it''s value after de-serialization is it''s  default value.',1);</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -16513,14 +16513,14 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>346</v>
+        <v>794</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(169,169,'Ans) Yes.  As  while restoring the object&amp;rsquo;s state the transient variables and the serializable  variables that are stored must be restored in the same order in which they were  saved.',1);</v>
+        <v>insert into Answers values(169,169,'Ans) Yes.  As  while restoring the object''s state the transient variables and the serializable  variables that are stored must be restored in the same order in which they were  saved.',1);</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -16531,14 +16531,14 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>347</v>
+        <v>812</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
-        <v>insert into Answers values(170,170,'Ans) When you want to store the transient variables  state as a part of the serialized object at the time of serialization the class  must implement the following methods &amp;ndash;
+        <v>insert into Answers values(170,170,'Ans) When you want to store the transient variables  state as a part of the serialized object at the time of serialization the class  must implement the following methods -
 private void wrtiteObject(ObjectOutputStream outStream)
 {
 //code to save the transient variables state as a part of serialized  object
@@ -16575,7 +16575,7 @@
         return noOfTranVar;
     }
 }
-The value of transient variable &amp;lsquo;noOfTranVar&amp;rsquo; is saved as part of the  serialized object manually by implementing writeObject() and restored by  implementing readObject().
+The value of transient variable "noOfTranVar'' is saved as part of the  serialized object manually by implementing writeObject() and restored by  implementing readObject().
 The normal serializable variables are saved and restored by calling  defaultWriteObject() and defaultReadObject()respectively. These methods perform  the normal serialization and de-sirialization process for the object to be  saved or restored respectively.',1);</v>
       </c>
     </row>
@@ -16587,7 +16587,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>348</v>
+        <v>813</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -16609,7 +16609,7 @@
     String color;
     ChildSerializable() {
         this.noOfWheels = 8;
-        this.color = &amp;quot;blue&amp;quot;;
+        this.color = "blue";
     }
 }
 public class SubSerialSuperNotSerial {
@@ -16617,28 +16617,28 @@
         ChildSerializable c = new ChildSerializable();
         System.
 out
-.println(&amp;quot;Before : -  &amp;quot; +  c.noOfWheels + &amp;quot; &amp;quot;+ c.color);
+.println("Before : -  " +  c.noOfWheels + " "+ c.color);
         try {
-        FileOutputStream fs = new FileOutputStream(&amp;quot;superNotSerail.ser&amp;quot;);
+        FileOutputStream fs = new FileOutputStream("superNotSerail.ser");
         ObjectOutputStream os = new ObjectOutputStream(fs);
         os.writeObject(c);
         os.close();
         } catch (Exception e) {  e.printStackTrace(); }
         try {
-        FileInputStream fis = new FileInputStream(&amp;quot;superNotSerail.ser&amp;quot;);
+        FileInputStream fis = new FileInputStream("superNotSerail.ser");
         ObjectInputStream ois = new ObjectInputStream(fis);
         c = (ChildSerializable) ois.readObject();
         ois.close();
         } catch (Exception e) {  e.printStackTrace(); }
         System.
 out
-.println(&amp;quot;After :-  &amp;quot; +  c.noOfWheels + &amp;quot; &amp;quot;+ c.color);
+.println("After :-  " +  c.noOfWheels + " "+ c.color);
         }
 }
-Result  on executing above code &amp;ndash;
+Result  on executing above code -
 Before : - 8 blue
 After :- 4 blue
-The instance variable &amp;lsquo;noOfWheels&amp;rsquo; is inherited from superclass which is  not serializable. Therefore while restoring it the non-serializable superclass  constructor runs and its value is set to 8 and is not same as the value saved  during serialization which is 4.',1);</v>
+The instance variable "noOfWheels'' is inherited from superclass which is  not serializable. Therefore while restoring it the non-serializable superclass  constructor runs and its value is set to 8 and is not same as the value saved  during serialization which is 4.',1);</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -16649,7 +16649,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>365</v>
+        <v>795</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -16657,7 +16657,7 @@
       <c r="E173" t="str">
         <f t="shared" si="2"/>
         <v>insert into Answers values(172,172,'Ans)
-Immutable class is a class which once created, it&amp;rsquo;s contents can  not be changed.
+Immutable class is a class which once created, it''s contents can  not be changed.
 Immutable objects are the objects whose  state can not be changed once constructed.
 e.g. String class',1);</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -16753,7 +16753,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>367</v>
+        <v>803</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -16761,7 +16761,7 @@
       <c r="E176" t="str">
         <f t="shared" si="2"/>
         <v>insert into Answers values(175,175,'Ans)
-All wrapper classes in java.lang are  immutable &amp;ndash;
+All wrapper classes in java.lang are  immutable -
 String, Integer, Boolean, Character, Byte, Short,  Long, Float, Double, BigDecimal, BigInteger',1);</v>
       </c>
     </row>
@@ -16773,7 +16773,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -16795,7 +16795,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -16813,7 +16813,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -16837,7 +16837,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -16872,7 +16872,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>377</v>
+        <v>787</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -16885,7 +16885,7 @@
 String id;
 Map myData;
 }
-The shallow copying of this object will have new id object and values as  &amp;ldquo;&amp;rdquo; but will point to the myData of the original object. So a change in myData  by either original or cloned object will be reflected in other also. But in  deep copying there will be new id object and also new myData object and independent  of original object but with same values.
+The shallow copying of this object will have new id object and values as  "" but will point to the myData of the original object. So a change in myData  by either original or cloned object will be reflected in other also. But in  deep copying there will be new id object and also new myData object and independent  of original object but with same values.
 Shallow copying is default cloning in Java which can be achieved       using clone() method of Object class. For deep copying some extra logic       need to be provided.',1);</v>
       </c>
     </row>
@@ -16897,7 +16897,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -16917,7 +16917,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -16938,7 +16938,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -16962,7 +16962,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -16990,7 +16990,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -17032,7 +17032,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -17074,7 +17074,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -17103,7 +17103,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -17125,7 +17125,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -17257,7 +17257,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -17278,7 +17278,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -17296,7 +17296,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -17323,7 +17323,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -17366,7 +17366,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -17388,7 +17388,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -17411,7 +17411,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -17460,7 +17460,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -17478,7 +17478,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -17499,7 +17499,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -17520,7 +17520,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -17545,7 +17545,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -17589,7 +17589,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -17607,7 +17607,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -17658,7 +17658,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -17676,7 +17676,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -17695,7 +17695,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -17714,7 +17714,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -17747,7 +17747,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -17779,7 +17779,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -17798,7 +17798,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -17818,7 +17818,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -17841,7 +17841,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -17862,7 +17862,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -17885,7 +17885,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -17904,7 +17904,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -17946,7 +17946,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -17967,7 +17967,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -17992,7 +17992,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -18035,7 +18035,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -18057,7 +18057,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -18079,7 +18079,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -18107,7 +18107,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -18129,7 +18129,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -18177,7 +18177,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -18196,7 +18196,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -18233,7 +18233,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -18252,7 +18252,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -18279,7 +18279,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -18298,7 +18298,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -18352,7 +18352,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -18371,7 +18371,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -18390,7 +18390,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -18409,7 +18409,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -18428,7 +18428,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -18447,7 +18447,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -18466,7 +18466,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -18491,7 +18491,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -18515,7 +18515,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -18544,7 +18544,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -18573,7 +18573,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -18592,7 +18592,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -18614,7 +18614,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -18633,7 +18633,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -18652,7 +18652,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -18671,7 +18671,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -18690,7 +18690,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -18709,7 +18709,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -18728,7 +18728,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -18747,7 +18747,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -18776,7 +18776,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -18814,7 +18814,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -18833,7 +18833,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -18852,7 +18852,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -18875,7 +18875,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -18894,7 +18894,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -18913,7 +18913,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -18932,7 +18932,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -18957,7 +18957,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -18984,7 +18984,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -19003,7 +19003,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -19024,7 +19024,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -19044,7 +19044,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -19065,7 +19065,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -19089,7 +19089,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -19108,7 +19108,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -19131,7 +19131,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -19155,7 +19155,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -19174,7 +19174,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -19218,7 +19218,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -19237,7 +19237,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -19256,7 +19256,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -19278,7 +19278,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -19298,7 +19298,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -19317,7 +19317,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -19336,7 +19336,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -19358,7 +19358,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -19380,7 +19380,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -19399,7 +19399,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -19419,7 +19419,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -19438,7 +19438,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -19457,7 +19457,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -19497,7 +19497,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -19517,7 +19517,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -19537,7 +19537,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -19595,7 +19595,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -19614,7 +19614,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -19633,7 +19633,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -19656,7 +19656,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -19677,7 +19677,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -19697,7 +19697,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -19716,7 +19716,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -19735,7 +19735,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -19754,7 +19754,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -19792,7 +19792,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -19812,7 +19812,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -19838,7 +19838,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -19857,7 +19857,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -19876,7 +19876,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -19895,7 +19895,7 @@
         <v>312</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -19914,7 +19914,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -19933,7 +19933,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -19961,7 +19961,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -19981,7 +19981,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -20004,7 +20004,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -20031,7 +20031,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -20050,7 +20050,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -20069,7 +20069,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -20095,7 +20095,7 @@
         <v>321</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -20114,7 +20114,7 @@
         <v>322</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -20137,7 +20137,7 @@
         <v>323</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -20156,7 +20156,7 @@
         <v>324</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -20175,7 +20175,7 @@
         <v>325</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -20196,7 +20196,7 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -20215,7 +20215,7 @@
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -20234,7 +20234,7 @@
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -20256,7 +20256,7 @@
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -20275,7 +20275,7 @@
         <v>330</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -20294,7 +20294,7 @@
         <v>331</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -20317,7 +20317,7 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>333</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -20356,7 +20356,7 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -20375,7 +20375,7 @@
         <v>335</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -20394,7 +20394,7 @@
         <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -20413,7 +20413,7 @@
         <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -20434,7 +20434,7 @@
         <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -20453,7 +20453,7 @@
         <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -20472,7 +20472,7 @@
         <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -20498,7 +20498,7 @@
         <v>341</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -20518,7 +20518,7 @@
         <v>342</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -20538,7 +20538,7 @@
         <v>343</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -20557,7 +20557,7 @@
         <v>344</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -20577,7 +20577,7 @@
         <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -20596,7 +20596,7 @@
         <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -20615,7 +20615,7 @@
         <v>347</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -20634,7 +20634,7 @@
         <v>348</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -20661,7 +20661,7 @@
         <v>349</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -20680,7 +20680,7 @@
         <v>350</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -20699,7 +20699,7 @@
         <v>351</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -20719,7 +20719,7 @@
         <v>352</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -20738,7 +20738,7 @@
         <v>353</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -20763,7 +20763,7 @@
         <v>354</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -20787,7 +20787,7 @@
         <v>355</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -20806,7 +20806,7 @@
         <v>356</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -20826,7 +20826,7 @@
         <v>357</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -20845,7 +20845,7 @@
         <v>358</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -20864,7 +20864,7 @@
         <v>359</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -20883,7 +20883,7 @@
         <v>360</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -20903,7 +20903,7 @@
         <v>361</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -20922,7 +20922,7 @@
         <v>362</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -20941,7 +20941,7 @@
         <v>363</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -20960,7 +20960,7 @@
         <v>364</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -20979,7 +20979,7 @@
         <v>365</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -21001,7 +21001,7 @@
         <v>366</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -21020,7 +21020,7 @@
         <v>367</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -21039,7 +21039,7 @@
         <v>368</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -21062,7 +21062,7 @@
         <v>369</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -21081,7 +21081,7 @@
         <v>370</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -21100,7 +21100,7 @@
         <v>371</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -21124,7 +21124,7 @@
         <v>372</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -21144,7 +21144,7 @@
         <v>373</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>374</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -21186,7 +21186,7 @@
         <v>375</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -21205,7 +21205,7 @@
         <v>376</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -21226,7 +21226,7 @@
         <v>377</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -21245,7 +21245,7 @@
         <v>378</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -21267,7 +21267,7 @@
         <v>379</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -21289,7 +21289,7 @@
         <v>380</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -21308,7 +21308,7 @@
         <v>381</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -21327,7 +21327,7 @@
         <v>382</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -21346,7 +21346,7 @@
         <v>383</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -21365,7 +21365,7 @@
         <v>384</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -21387,7 +21387,7 @@
         <v>385</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -21409,7 +21409,7 @@
         <v>386</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -21428,7 +21428,7 @@
         <v>387</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -21447,7 +21447,7 @@
         <v>388</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -21466,7 +21466,7 @@
         <v>389</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -21485,7 +21485,7 @@
         <v>390</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -21504,7 +21504,7 @@
         <v>391</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -21523,7 +21523,7 @@
         <v>392</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -21542,7 +21542,7 @@
         <v>393</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -21561,7 +21561,7 @@
         <v>394</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -21580,7 +21580,7 @@
         <v>395</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -21599,7 +21599,7 @@
         <v>396</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="D397">
         <v>1</v>
